--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z119"/>
+  <dimension ref="A1:Z120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45548</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45526.57324074074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45993.54930555556</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,14 +862,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 36424-2025</t>
+          <t>A 8558-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45868.90353009259</v>
+        <v>45355.57679398148</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>16.9</v>
+        <v>12.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
@@ -915,239 +915,239 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Gulsparv
+Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 8558-2024 artfynd.xlsx", "A 8558-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 8558-2024 karta.png", "A 8558-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 8558-2024 FSC-klagomål.docx", "A 8558-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 8558-2024 FSC-klagomål mail.docx", "A 8558-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 8558-2024 tillsynsbegäran.docx", "A 8558-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 8558-2024 tillsynsbegäran mail.docx", "A 8558-2024")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 8558-2024 prioriterade fågelarter.docx", "A 8558-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 44132-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45915.58515046296</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Grönsångare
+Svartvit flugsnappare
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 44132-2025 artfynd.xlsx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 44132-2025 karta.png", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 44132-2025 FSC-klagomål.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 44132-2025 FSC-klagomål mail.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 44132-2025 tillsynsbegäran.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 44132-2025 tillsynsbegäran mail.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 44132-2025 prioriterade fågelarter.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 36424-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45868.90353009259</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Vedtrappmossa
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 36424-2025 artfynd.xlsx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 36424-2025 karta.png", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 36424-2025 FSC-klagomål.docx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 36424-2025 FSC-klagomål mail.docx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 36424-2025 tillsynsbegäran.docx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 36424-2025 tillsynsbegäran mail.docx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 36424-2025 prioriterade fågelarter.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 8558-2024</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45355.57679398148</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv
-Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 8558-2024 artfynd.xlsx", "A 8558-2024")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 8558-2024 karta.png", "A 8558-2024")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 8558-2024 FSC-klagomål.docx", "A 8558-2024")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 8558-2024 FSC-klagomål mail.docx", "A 8558-2024")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 8558-2024 tillsynsbegäran.docx", "A 8558-2024")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 8558-2024 tillsynsbegäran mail.docx", "A 8558-2024")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 8558-2024 prioriterade fågelarter.docx", "A 8558-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 44132-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45915.58515046296</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Grönsångare
-Svartvit flugsnappare
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 44132-2025 artfynd.xlsx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 44132-2025 karta.png", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 44132-2025 FSC-klagomål.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 44132-2025 FSC-klagomål mail.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 44132-2025 tillsynsbegäran.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 44132-2025 tillsynsbegäran mail.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 44132-2025 prioriterade fågelarter.docx", "A 44132-2025")</f>
         <v/>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 53008-2025</t>
+          <t>A 6041-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45957</v>
+        <v>45695.66287037037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1160,7 +1160,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
@@ -1193,129 +1193,129 @@
         <v>3</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Kambräken</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6041-2025 artfynd.xlsx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6041-2025 karta.png", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6041-2025 FSC-klagomål.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6041-2025 FSC-klagomål mail.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6041-2025 tillsynsbegäran.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6041-2025 tillsynsbegäran mail.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6041-2025 prioriterade fågelarter.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 53008-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45957</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Kambräken
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53008-2025 artfynd.xlsx", "A 53008-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53008-2025 karta.png", "A 53008-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53008-2025 FSC-klagomål.docx", "A 53008-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53008-2025 FSC-klagomål mail.docx", "A 53008-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53008-2025 tillsynsbegäran.docx", "A 53008-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53008-2025 tillsynsbegäran mail.docx", "A 53008-2025")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53008-2025 prioriterade fågelarter.docx", "A 53008-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 6041-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45695.66287037037</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Kambräken</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6041-2025 artfynd.xlsx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6041-2025 karta.png", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6041-2025 FSC-klagomål.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6041-2025 FSC-klagomål mail.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6041-2025 tillsynsbegäran.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6041-2025 tillsynsbegäran mail.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6041-2025 prioriterade fågelarter.docx", "A 6041-2025")</f>
         <v/>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,14 +1408,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 57116-2025</t>
+          <t>A 48345-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45979.46130787037</v>
+        <v>44451</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1428,7 +1428,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1463,49 +1463,49 @@
       <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Västlig hakmossa</t>
+Blåmossa</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 57116-2025 artfynd.xlsx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 48345-2021 artfynd.xlsx", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 57116-2025 karta.png", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 48345-2021 karta.png", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 57116-2025 FSC-klagomål.docx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 48345-2021 FSC-klagomål.docx", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 57116-2025 FSC-klagomål mail.docx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 48345-2021 FSC-klagomål mail.docx", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 57116-2025 tillsynsbegäran.docx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 48345-2021 tillsynsbegäran.docx", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 57116-2025 tillsynsbegäran mail.docx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 48345-2021 tillsynsbegäran mail.docx", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 57116-2025 prioriterade fågelarter.docx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 48345-2021 prioriterade fågelarter.docx", "A 48345-2021")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 53007-2025</t>
+          <t>A 57116-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45957</v>
+        <v>45979.46130787037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1518,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1557,45 +1557,45 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53007-2025 artfynd.xlsx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 57116-2025 artfynd.xlsx", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53007-2025 karta.png", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 57116-2025 karta.png", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53007-2025 FSC-klagomål.docx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 57116-2025 FSC-klagomål.docx", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53007-2025 FSC-klagomål mail.docx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 57116-2025 FSC-klagomål mail.docx", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53007-2025 tillsynsbegäran.docx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 57116-2025 tillsynsbegäran.docx", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53007-2025 tillsynsbegäran mail.docx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 57116-2025 tillsynsbegäran mail.docx", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53007-2025 prioriterade fågelarter.docx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 57116-2025 prioriterade fågelarter.docx", "A 57116-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 5637-2024</t>
+          <t>A 53007-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45334.6115162037</v>
+        <v>45957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1608,16 +1608,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1632,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1642,136 +1642,136 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53007-2025 artfynd.xlsx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53007-2025 karta.png", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53007-2025 FSC-klagomål.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53007-2025 FSC-klagomål mail.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53007-2025 tillsynsbegäran.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53007-2025 tillsynsbegäran mail.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53007-2025 prioriterade fågelarter.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 5637-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45334.6115162037</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Klofibbla
 Åkerrödtoppa</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 5637-2024 artfynd.xlsx", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 5637-2024 karta.png", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 5637-2024 FSC-klagomål.docx", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 5637-2024 FSC-klagomål mail.docx", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 5637-2024 tillsynsbegäran.docx", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 5637-2024 tillsynsbegäran mail.docx", "A 5637-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 48345-2021</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>44451</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 48345-2021 artfynd.xlsx", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 48345-2021 karta.png", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 48345-2021 FSC-klagomål.docx", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 48345-2021 FSC-klagomål mail.docx", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 48345-2021 tillsynsbegäran.docx", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 48345-2021 tillsynsbegäran mail.docx", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 48345-2021 prioriterade fågelarter.docx", "A 48345-2021")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49988-2023</t>
+          <t>A 6082-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45215</v>
+        <v>45697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1818,45 +1818,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 49988-2023 artfynd.xlsx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6082-2025 artfynd.xlsx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 49988-2023 karta.png", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6082-2025 karta.png", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 49988-2023 FSC-klagomål.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6082-2025 FSC-klagomål.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 49988-2023 FSC-klagomål mail.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6082-2025 FSC-klagomål mail.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 49988-2023 tillsynsbegäran.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6082-2025 tillsynsbegäran.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 49988-2023 tillsynsbegäran mail.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6082-2025 tillsynsbegäran mail.docx", "A 6082-2025")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6082-2025 prioriterade fågelarter.docx", "A 6082-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 38103-2025</t>
+          <t>A 45243-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45882.49244212963</v>
+        <v>45919.60089120371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1869,7 +1873,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>8.1</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1878,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1893,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1903,49 +1907,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 38103-2025 artfynd.xlsx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 38103-2025 karta.png", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 38103-2025 FSC-klagomål.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 38103-2025 FSC-klagomål mail.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 38103-2025 tillsynsbegäran.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 38103-2025 tillsynsbegäran mail.docx", "A 38103-2025")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 38103-2025 prioriterade fågelarter.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 45243-2025</t>
+          <t>A 33426-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45919.60089120371</v>
+        <v>44377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>8.1</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1992,45 +1992,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 23704-2024</t>
+          <t>A 38103-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45454.71498842593</v>
+        <v>45882.49244212963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -2070,52 +2070,56 @@
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Hedjohannesört</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 23704-2024 artfynd.xlsx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 38103-2025 artfynd.xlsx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 23704-2024 karta.png", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 38103-2025 karta.png", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 23704-2024 FSC-klagomål.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 38103-2025 FSC-klagomål.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 23704-2024 FSC-klagomål mail.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 38103-2025 FSC-klagomål mail.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 23704-2024 tillsynsbegäran.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 38103-2025 tillsynsbegäran.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 23704-2024 tillsynsbegäran mail.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 38103-2025 tillsynsbegäran mail.docx", "A 38103-2025")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 38103-2025 prioriterade fågelarter.docx", "A 38103-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 6082-2025</t>
+          <t>A 23704-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45697</v>
+        <v>45454.71498842593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2128,7 +2132,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2137,10 +2141,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2155,56 +2159,52 @@
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Hedjohannesört</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6082-2025 artfynd.xlsx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 23704-2024 artfynd.xlsx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6082-2025 karta.png", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 23704-2024 karta.png", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6082-2025 FSC-klagomål.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 23704-2024 FSC-klagomål.docx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6082-2025 FSC-klagomål mail.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 23704-2024 FSC-klagomål mail.docx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6082-2025 tillsynsbegäran.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 23704-2024 tillsynsbegäran.docx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6082-2025 tillsynsbegäran mail.docx", "A 6082-2025")</f>
-        <v/>
-      </c>
-      <c r="Z19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6082-2025 prioriterade fågelarter.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 23704-2024 tillsynsbegäran mail.docx", "A 23704-2024")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 33426-2021</t>
+          <t>A 49988-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44377</v>
+        <v>45215</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2251,31 +2251,31 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 49988-2023 artfynd.xlsx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 49988-2023 karta.png", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 49988-2023 FSC-klagomål.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 49988-2023 FSC-klagomål mail.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 49988-2023 tillsynsbegäran.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 49988-2023 tillsynsbegäran mail.docx", "A 49988-2023")</f>
         <v/>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
         <v>44425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>44691</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44691</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44450.66346064815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>44425</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>44836</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44250</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44459.89270833333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>44459</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44760.44488425926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>44760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>44760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44872.64650462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>44450</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3137,14 +3137,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 6096-2025</t>
+          <t>A 17451-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45697</v>
+        <v>45757.44825231482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>8.699999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3194,14 +3194,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 41442-2025</t>
+          <t>A 17455-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45869</v>
+        <v>45757.45109953704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3251,14 +3251,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 17922-2025</t>
+          <t>A 62221-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45758.90710648148</v>
+        <v>45267.54049768519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3308,14 +3308,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 37443-2025</t>
+          <t>A 21240-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45877.54152777778</v>
+        <v>45058</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3327,13 +3327,8 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3370,14 +3365,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 62221-2023</t>
+          <t>A 29223-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45267.54049768519</v>
+        <v>45482.81978009259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3390,7 +3385,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.3</v>
+        <v>5.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3427,14 +3422,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 4204-2024</t>
+          <t>A 10655-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45324.36422453704</v>
+        <v>44624</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3447,7 +3442,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4.4</v>
+        <v>13.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3484,14 +3479,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 50071-2023</t>
+          <t>A 21883-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45215</v>
+        <v>44322</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3504,7 +3499,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3541,14 +3536,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 24461-2023</t>
+          <t>A 21899-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45082</v>
+        <v>44322</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3561,7 +3556,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3598,14 +3593,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 30170-2022</t>
+          <t>A 39714-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44757</v>
+        <v>45552.60074074074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3618,7 +3613,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3655,14 +3650,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 143-2023</t>
+          <t>A 19531-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44928.53378472223</v>
+        <v>45050.54896990741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3675,7 +3670,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3712,14 +3707,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 13880-2024</t>
+          <t>A 5705-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45391.59994212963</v>
+        <v>45694</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3732,7 +3727,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3769,14 +3764,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 63319-2021</t>
+          <t>A 61417-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44508.45226851852</v>
+        <v>44916.35082175926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3789,7 +3784,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3826,14 +3821,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 40951-2025</t>
+          <t>A 32272-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45897.66342592592</v>
+        <v>45120.35368055556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3846,7 +3841,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3883,14 +3878,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 1995-2024</t>
+          <t>A 7505-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45308</v>
+        <v>45347.93181712963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3903,7 +3898,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3940,14 +3935,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 21899-2021</t>
+          <t>A 32847-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44322</v>
+        <v>45124.61965277778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3960,7 +3955,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3997,14 +3992,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 45990-2022</t>
+          <t>A 40951-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44846</v>
+        <v>45897.66342592592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4017,7 +4012,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4054,14 +4049,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 58408-2025</t>
+          <t>A 8334-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45985.56969907408</v>
+        <v>44975</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4074,7 +4069,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>8.1</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4111,14 +4106,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 41765-2021</t>
+          <t>A 43207-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44425</v>
+        <v>45910.45111111111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4131,7 +4126,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.6</v>
+        <v>3.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4168,14 +4163,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 43207-2025</t>
+          <t>A 45124-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45910.45111111111</v>
+        <v>45919.43206018519</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4188,7 +4183,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4225,14 +4220,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 45124-2025</t>
+          <t>A 33244-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45919.43206018519</v>
+        <v>44377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4245,7 +4240,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4282,14 +4277,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 43520-2022</t>
+          <t>A 25135-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44837.37417824074</v>
+        <v>45798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4302,7 +4297,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4346,7 +4341,7 @@
         <v>45926.39152777778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4396,14 +4391,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 34366-2022</t>
+          <t>A 47564-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44792</v>
+        <v>45931.38982638889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4416,7 +4411,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4460,7 +4455,7 @@
         <v>45931.39331018519</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4510,14 +4505,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 29223-2024</t>
+          <t>A 32391-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45482.81978009259</v>
+        <v>45837.90662037037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4530,7 +4525,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.6</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4567,14 +4562,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 47564-2025</t>
+          <t>A 32392-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45931.38982638889</v>
+        <v>45837.9102199074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4587,7 +4582,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4624,14 +4619,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 4673-2026</t>
+          <t>A 33493-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>46048.42462962963</v>
+        <v>44377</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4644,7 +4639,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>8.199999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4681,14 +4676,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 7505-2024</t>
+          <t>A 34250-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45347.93181712963</v>
+        <v>45844</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4701,7 +4696,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4738,14 +4733,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 8334-2023</t>
+          <t>A 49985-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44975</v>
+        <v>45215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4758,7 +4753,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4795,14 +4790,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 5655-2026</t>
+          <t>A 50071-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>46051.44604166667</v>
+        <v>45215</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4815,7 +4810,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4852,14 +4847,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 52932-2025</t>
+          <t>A 34244-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45957.62373842593</v>
+        <v>45844</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4872,7 +4867,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4909,14 +4904,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 6946-2026</t>
+          <t>A 49981-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>46057</v>
+        <v>45215</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4929,7 +4924,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4966,14 +4961,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 25624-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>46056</v>
+        <v>45803.57885416667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4986,7 +4981,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5023,14 +5018,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 13529-2024</t>
+          <t>A 56782-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45387.84504629629</v>
+        <v>44894.39475694444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,7 +5038,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5080,14 +5075,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 55830-2024</t>
+          <t>A 36055-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45623.48478009259</v>
+        <v>45866</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5100,7 +5095,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.1</v>
+        <v>2.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5137,14 +5132,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 4262-2024</t>
+          <t>A 41442-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45324.50902777778</v>
+        <v>45869</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5157,7 +5152,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>14</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5194,14 +5189,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 56394-2025</t>
+          <t>A 1995-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45974.74313657408</v>
+        <v>45308</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5214,7 +5209,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5251,14 +5246,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 661-2025</t>
+          <t>A 52932-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45664.68572916667</v>
+        <v>45957.62373842593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5271,7 +5266,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5308,14 +5303,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 27463-2024</t>
+          <t>A 6096-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45474.45266203704</v>
+        <v>45697</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5328,7 +5323,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5365,14 +5360,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 10655-2022</t>
+          <t>A 30170-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44624</v>
+        <v>44757</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5385,7 +5380,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>13.3</v>
+        <v>3.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5422,14 +5417,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 17451-2025</t>
+          <t>A 10810-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45757.44825231482</v>
+        <v>44989.75795138889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5442,7 +5437,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5479,14 +5474,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 17455-2025</t>
+          <t>A 37443-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45757.45109953704</v>
+        <v>45877.54152777778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5498,8 +5493,13 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5536,14 +5536,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 33244-2021</t>
+          <t>A 4204-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44377</v>
+        <v>45324.36422453704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5593,14 +5593,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 19531-2023</t>
+          <t>A 55830-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45050.54896990741</v>
+        <v>45623.48478009259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>5.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5650,14 +5650,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 4263-2024</t>
+          <t>A 17922-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45324.51049768519</v>
+        <v>45758.90710648148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5707,14 +5707,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 5705-2025</t>
+          <t>A 62128-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45694</v>
+        <v>44502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5764,14 +5764,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 62979-2023</t>
+          <t>A 56394-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45271</v>
+        <v>45974.74313657408</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5821,14 +5821,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 16538-2025</t>
+          <t>A 62979-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45751.66126157407</v>
+        <v>45271</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5878,14 +5878,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 29801-2022</t>
+          <t>A 58408-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44755.70518518519</v>
+        <v>45985.56969907408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.8</v>
+        <v>8.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5935,14 +5935,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 49981-2023</t>
+          <t>A 13529-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45215</v>
+        <v>45387.84504629629</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5992,14 +5992,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 71835-2021</t>
+          <t>A 44176-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44543.62230324074</v>
+        <v>45188</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6049,14 +6049,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 21883-2021</t>
+          <t>A 26812-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44322</v>
+        <v>45470.54344907407</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6106,14 +6106,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 56782-2022</t>
+          <t>A 29801-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44894.39475694444</v>
+        <v>44755.70518518519</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6163,14 +6163,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 26812-2024</t>
+          <t>A 18852-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45470.54344907407</v>
+        <v>45426.69550925926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6220,14 +6220,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 10810-2023</t>
+          <t>A 34366-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44989.75795138889</v>
+        <v>44792</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6277,14 +6277,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 62128-2021</t>
+          <t>A 43520-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44502</v>
+        <v>44837.37417824074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6334,14 +6334,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 21240-2023</t>
+          <t>A 4673-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45058</v>
+        <v>46048.42462962963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6391,14 +6391,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 18851-2024</t>
+          <t>A 5655-2026</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45426.69</v>
+        <v>46051.44604166667</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6448,14 +6448,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 21389-2023</t>
+          <t>A 16538-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45063</v>
+        <v>45751.66126157407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6505,14 +6505,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 44176-2023</t>
+          <t>A 45990-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45188</v>
+        <v>44846</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>7.1</v>
+        <v>3.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6562,14 +6562,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 23457-2024</t>
+          <t>A 143-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45453.65128472223</v>
+        <v>44928.53378472223</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6619,14 +6619,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 39714-2024</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45552.60074074074</v>
+        <v>46056</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6676,14 +6676,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 18852-2024</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45426.69550925926</v>
+        <v>46056</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6733,14 +6733,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 51724-2023</t>
+          <t>A 18851-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45222</v>
+        <v>45426.69</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6790,14 +6790,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 5631-2024</t>
+          <t>A 6946-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45334.61013888889</v>
+        <v>46057</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6847,14 +6847,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 21579-2025</t>
+          <t>A 71835-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45782.91234953704</v>
+        <v>44543.62230324074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6904,14 +6904,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 10679-2025</t>
+          <t>A 51724-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45721.89462962963</v>
+        <v>45222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6961,14 +6961,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 8943-2025</t>
+          <t>A 661-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45713.45105324074</v>
+        <v>45664.68572916667</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7018,14 +7018,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 11237-2025</t>
+          <t>A 24461-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45726.36668981481</v>
+        <v>45082</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7075,14 +7075,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 15078-2025</t>
+          <t>A 13880-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45743.84284722222</v>
+        <v>45391.59994212963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7132,14 +7132,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 10677-2025</t>
+          <t>A 4263-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45721.89055555555</v>
+        <v>45324.51049768519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>7.4</v>
+        <v>2.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7189,14 +7189,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 74285-2021</t>
+          <t>A 23457-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44558</v>
+        <v>45453.65128472223</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7246,14 +7246,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 61417-2022</t>
+          <t>A 41765-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44916.35082175926</v>
+        <v>44425</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.6</v>
+        <v>5.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7303,14 +7303,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 32272-2023</t>
+          <t>A 21389-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45120.35368055556</v>
+        <v>45063</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7360,14 +7360,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 32847-2023</t>
+          <t>A 4262-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45124.61965277778</v>
+        <v>45324.50902777778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.7</v>
+        <v>14</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7417,14 +7417,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 25135-2025</t>
+          <t>A 27463-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45798</v>
+        <v>45474.45266203704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7474,14 +7474,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 32392-2025</t>
+          <t>A 63319-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45837.9102199074</v>
+        <v>44508.45226851852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7531,14 +7531,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 32391-2025</t>
+          <t>A 5631-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45837.90662037037</v>
+        <v>45334.61013888889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7588,14 +7588,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 33493-2021</t>
+          <t>A 21579-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44377</v>
+        <v>45782.91234953704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7645,14 +7645,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 34250-2025</t>
+          <t>A 10677-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45844</v>
+        <v>45721.89055555555</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>7.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7702,14 +7702,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 49985-2023</t>
+          <t>A 10679-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45215</v>
+        <v>45721.89462962963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>8.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7759,14 +7759,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 34244-2025</t>
+          <t>A 8943-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45844</v>
+        <v>45713.45105324074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.9</v>
+        <v>1.5</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7816,14 +7816,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 25624-2025</t>
+          <t>A 11237-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45803.57885416667</v>
+        <v>45726.36668981481</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7870,17 +7870,17 @@
       </c>
       <c r="R118" s="2" t="inlineStr"/>
     </row>
-    <row r="119">
+    <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 36055-2025</t>
+          <t>A 15078-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45866</v>
+        <v>45743.84284722222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7926,6 +7926,63 @@
         <v>0</v>
       </c>
       <c r="R119" s="2" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>A 74285-2021</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>44558</v>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -575,7 +575,7 @@
         <v>45548</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45526.57324074074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45993.54930555556</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45355.57679398148</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>45915.58515046296</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>45868.90353009259</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45695.66287037037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45957</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44451</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         <v>45979.46130787037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>45957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45334.6115162037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>45919.60089120371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>44377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>45882.49244212963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>45454.71498842593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>45215</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>44425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>44691</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44691</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44450.66346064815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>44425</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>44836</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44250</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44459.89270833333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>44459</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44760.44488425926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>44760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>44760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44872.64650462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>44450</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>45757.44825231482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>45757.45109953704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>45267.54049768519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>45058</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>45482.81978009259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44624</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44322</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44322</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>45552.60074074074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>45050.54896990741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>45694</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44916.35082175926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>45120.35368055556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>45347.93181712963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>45124.61965277778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>45897.66342592592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44975</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>45910.45111111111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>45919.43206018519</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>45798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>45926.39152777778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>45931.38982638889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>45931.39331018519</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>45837.90662037037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>45837.9102199074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44377</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>45844</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>45215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>45215</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>45844</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>45215</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>45803.57885416667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44894.39475694444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>45866</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45869</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45308</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45957.62373842593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45697</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44757</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44989.75795138889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>45877.54152777778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>45324.36422453704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45623.48478009259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>45758.90710648148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>44502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>45974.74313657408</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>45271</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>45985.56969907408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>45387.84504629629</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>45188</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>45470.54344907407</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44755.70518518519</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>45426.69550925926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>44792</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>44837.37417824074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>46048.42462962963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>46051.44604166667</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>45751.66126157407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>44846</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>44928.53378472223</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>46056</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>46056</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>45426.69</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>46057</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>44543.62230324074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>45222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>45664.68572916667</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>45082</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>45391.59994212963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>45324.51049768519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>45453.65128472223</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>44425</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>45063</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>45324.50902777778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>45474.45266203704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44508.45226851852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>45334.61013888889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>45782.91234953704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>45721.89055555555</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>45721.89462962963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>45713.45105324074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>45726.36668981481</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>45743.84284722222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44558</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -575,7 +575,7 @@
         <v>45548</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45526.57324074074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45993.54930555556</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45355.57679398148</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -960,7 +960,7 @@
         <v>45915.58515046296</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>45868.90353009259</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1147,7 +1147,7 @@
         <v>45695.66287037037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45957</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44451</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         <v>45979.46130787037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>45957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45334.6115162037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         <v>45919.60089120371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>44377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>45882.49244212963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>45454.71498842593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,7 +2204,7 @@
         <v>45215</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2289,7 +2289,7 @@
         <v>44425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>44691</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44691</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44450.66346064815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>44425</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>44836</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44250</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44459.89270833333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>44459</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44760.44488425926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>44760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>44760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44872.64650462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>44450</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3144,7 +3144,7 @@
         <v>45757.44825231482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>45757.45109953704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3258,7 +3258,7 @@
         <v>45267.54049768519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3315,7 +3315,7 @@
         <v>45058</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3372,7 +3372,7 @@
         <v>45482.81978009259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3429,7 +3429,7 @@
         <v>44624</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         <v>44322</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3543,7 +3543,7 @@
         <v>44322</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3600,7 +3600,7 @@
         <v>45552.60074074074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3657,7 +3657,7 @@
         <v>45050.54896990741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3714,7 +3714,7 @@
         <v>45694</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         <v>44916.35082175926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3828,7 +3828,7 @@
         <v>45120.35368055556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3885,7 +3885,7 @@
         <v>45347.93181712963</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3942,7 +3942,7 @@
         <v>45124.61965277778</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3999,7 +3999,7 @@
         <v>45897.66342592592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         <v>44975</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4113,7 +4113,7 @@
         <v>45910.45111111111</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4170,7 +4170,7 @@
         <v>45919.43206018519</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4227,7 +4227,7 @@
         <v>44377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>45798</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         <v>45926.39152777778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4398,7 +4398,7 @@
         <v>45931.38982638889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4455,7 +4455,7 @@
         <v>45931.39331018519</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4512,7 +4512,7 @@
         <v>45837.90662037037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4569,7 +4569,7 @@
         <v>45837.9102199074</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4626,7 +4626,7 @@
         <v>44377</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4683,7 +4683,7 @@
         <v>45844</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         <v>45215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4797,7 +4797,7 @@
         <v>45215</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4854,7 +4854,7 @@
         <v>45844</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>45215</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>45803.57885416667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44894.39475694444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>45866</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>45869</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45308</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45957.62373842593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45697</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5367,7 +5367,7 @@
         <v>44757</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5424,7 +5424,7 @@
         <v>44989.75795138889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5481,7 +5481,7 @@
         <v>45877.54152777778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>45324.36422453704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>45623.48478009259</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>45758.90710648148</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>44502</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>45974.74313657408</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>45271</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>45985.56969907408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>45387.84504629629</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>45188</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>45470.54344907407</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>44755.70518518519</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>45426.69550925926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>44792</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>44837.37417824074</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>46048.42462962963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6398,7 +6398,7 @@
         <v>46051.44604166667</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6455,7 +6455,7 @@
         <v>45751.66126157407</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6512,7 +6512,7 @@
         <v>44846</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6569,7 +6569,7 @@
         <v>44928.53378472223</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6626,7 +6626,7 @@
         <v>46056</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6683,7 +6683,7 @@
         <v>46056</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6740,7 +6740,7 @@
         <v>45426.69</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6797,7 +6797,7 @@
         <v>46057</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6854,7 +6854,7 @@
         <v>44543.62230324074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6911,7 +6911,7 @@
         <v>45222</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6968,7 +6968,7 @@
         <v>45664.68572916667</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7025,7 +7025,7 @@
         <v>45082</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7082,7 +7082,7 @@
         <v>45391.59994212963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7139,7 +7139,7 @@
         <v>45324.51049768519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7196,7 +7196,7 @@
         <v>45453.65128472223</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7253,7 +7253,7 @@
         <v>44425</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7310,7 +7310,7 @@
         <v>45063</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7367,7 +7367,7 @@
         <v>45324.50902777778</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7424,7 +7424,7 @@
         <v>45474.45266203704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7481,7 +7481,7 @@
         <v>44508.45226851852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7538,7 +7538,7 @@
         <v>45334.61013888889</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         <v>45782.91234953704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7652,7 +7652,7 @@
         <v>45721.89055555555</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7709,7 +7709,7 @@
         <v>45721.89462962963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7766,7 +7766,7 @@
         <v>45713.45105324074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7823,7 +7823,7 @@
         <v>45726.36668981481</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7880,7 +7880,7 @@
         <v>45743.84284722222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7937,7 +7937,7 @@
         <v>44558</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -575,7 +575,7 @@
         <v>45548</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45526.57324074074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45993.54930555556</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,14 +862,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 8558-2024</t>
+          <t>A 36424-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45355.57679398148</v>
+        <v>45868.90353009259</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>12.5</v>
+        <v>16.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
@@ -915,225 +915,225 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Vedtrappmossa
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 36424-2025 artfynd.xlsx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 36424-2025 karta.png", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 36424-2025 FSC-klagomål.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 36424-2025 FSC-klagomål mail.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 36424-2025 tillsynsbegäran.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 36424-2025 tillsynsbegäran mail.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 36424-2025 prioriterade fågelarter.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 44132-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45915.58515046296</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Grönsångare
+Svartvit flugsnappare
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 44132-2025 artfynd.xlsx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 44132-2025 karta.png", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 44132-2025 FSC-klagomål.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 44132-2025 FSC-klagomål mail.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 44132-2025 tillsynsbegäran.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 44132-2025 tillsynsbegäran mail.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 44132-2025 prioriterade fågelarter.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 8558-2024</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45355.57679398148</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Gulsparv
 Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 8558-2024 artfynd.xlsx", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 8558-2024 karta.png", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 8558-2024 FSC-klagomål.docx", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 8558-2024 FSC-klagomål mail.docx", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 8558-2024 tillsynsbegäran.docx", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 8558-2024 tillsynsbegäran mail.docx", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 8558-2024 prioriterade fågelarter.docx", "A 8558-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 44132-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45915.58515046296</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Grönsångare
-Svartvit flugsnappare
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 44132-2025 artfynd.xlsx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 44132-2025 karta.png", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 44132-2025 FSC-klagomål.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 44132-2025 FSC-klagomål mail.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 44132-2025 tillsynsbegäran.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 44132-2025 tillsynsbegäran mail.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 44132-2025 prioriterade fågelarter.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 36424-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45868.90353009259</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Vedtrappmossa
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 36424-2025 artfynd.xlsx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 36424-2025 karta.png", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 36424-2025 FSC-klagomål.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 36424-2025 FSC-klagomål mail.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 36424-2025 tillsynsbegäran.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 36424-2025 tillsynsbegäran mail.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 36424-2025 prioriterade fågelarter.docx", "A 36424-2025")</f>
         <v/>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
         <v>45695.66287037037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45957</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44451</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1505,7 +1505,7 @@
         <v>45979.46130787037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         <v>45957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1685,7 +1685,7 @@
         <v>45334.6115162037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,14 +1764,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 6082-2025</t>
+          <t>A 49988-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45697</v>
+        <v>45215</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1818,49 +1818,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6082-2025 artfynd.xlsx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 49988-2023 artfynd.xlsx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6082-2025 karta.png", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 49988-2023 karta.png", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6082-2025 FSC-klagomål.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 49988-2023 FSC-klagomål.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6082-2025 FSC-klagomål mail.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 49988-2023 FSC-klagomål mail.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6082-2025 tillsynsbegäran.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 49988-2023 tillsynsbegäran.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6082-2025 tillsynsbegäran mail.docx", "A 6082-2025")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6082-2025 prioriterade fågelarter.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 49988-2023 tillsynsbegäran mail.docx", "A 49988-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 45243-2025</t>
+          <t>A 33426-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45919.60089120371</v>
+        <v>44377</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1869,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>8.1</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1907,45 +1903,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 33426-2021</t>
+          <t>A 45243-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44377</v>
+        <v>45919.60089120371</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1958,7 +1954,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>8.1</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1992,31 +1988,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
     </row>
@@ -2030,7 +2026,7 @@
         <v>45882.49244212963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2119,7 +2115,7 @@
         <v>45454.71498842593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,14 +2193,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 49988-2023</t>
+          <t>A 6082-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45215</v>
+        <v>45697</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2217,7 +2213,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2226,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2241,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2251,31 +2247,35 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 49988-2023 artfynd.xlsx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6082-2025 artfynd.xlsx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 49988-2023 karta.png", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6082-2025 karta.png", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 49988-2023 FSC-klagomål.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6082-2025 FSC-klagomål.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 49988-2023 FSC-klagomål mail.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6082-2025 FSC-klagomål mail.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 49988-2023 tillsynsbegäran.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6082-2025 tillsynsbegäran.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 49988-2023 tillsynsbegäran mail.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6082-2025 tillsynsbegäran mail.docx", "A 6082-2025")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6082-2025 prioriterade fågelarter.docx", "A 6082-2025")</f>
         <v/>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
         <v>44425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>44691</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44691</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44450.66346064815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>44425</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>44836</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44250</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44459.89270833333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>44459</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44760.44488425926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>44760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>44760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44872.64650462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>44450</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3137,14 +3137,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 17451-2025</t>
+          <t>A 62221-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45757.44825231482</v>
+        <v>45267.54049768519</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3194,14 +3194,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 17455-2025</t>
+          <t>A 4204-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45757.45109953704</v>
+        <v>45324.36422453704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3251,14 +3251,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 62221-2023</t>
+          <t>A 30170-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45267.54049768519</v>
+        <v>44757</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3308,14 +3308,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 21240-2023</t>
+          <t>A 50071-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45058</v>
+        <v>45215</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3365,14 +3365,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 29223-2024</t>
+          <t>A 13880-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45482.81978009259</v>
+        <v>45391.59994212963</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5.6</v>
+        <v>2.4</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3422,14 +3422,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 10655-2022</t>
+          <t>A 1995-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44624</v>
+        <v>45308</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>13.3</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3479,14 +3479,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 21883-2021</t>
+          <t>A 21899-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
         <v>44322</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3536,14 +3536,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 21899-2021</t>
+          <t>A 45990-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44322</v>
+        <v>44846</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3593,14 +3593,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 39714-2024</t>
+          <t>A 41765-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45552.60074074074</v>
+        <v>44425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3650,14 +3650,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 19531-2023</t>
+          <t>A 43520-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45050.54896990741</v>
+        <v>44837.37417824074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3707,14 +3707,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 5705-2025</t>
+          <t>A 29223-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45694</v>
+        <v>45482.81978009259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3764,14 +3764,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 61417-2022</t>
+          <t>A 17922-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44916.35082175926</v>
+        <v>45758.90710648148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3821,14 +3821,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 32272-2023</t>
+          <t>A 8334-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45120.35368055556</v>
+        <v>44975</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.9</v>
+        <v>1.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3878,14 +3878,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 7505-2024</t>
+          <t>A 25135-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45347.93181712963</v>
+        <v>45798</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3935,14 +3935,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 32847-2023</t>
+          <t>A 32392-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45124.61965277778</v>
+        <v>45837.9102199074</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3992,14 +3992,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 40951-2025</t>
+          <t>A 32391-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45897.66342592592</v>
+        <v>45837.90662037037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4049,14 +4049,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 8334-2023</t>
+          <t>A 33493-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44975</v>
+        <v>44377</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4106,14 +4106,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 43207-2025</t>
+          <t>A 34250-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45910.45111111111</v>
+        <v>45844</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4163,14 +4163,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 45124-2025</t>
+          <t>A 55830-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45919.43206018519</v>
+        <v>45623.48478009259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4220,14 +4220,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 33244-2021</t>
+          <t>A 40951-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44377</v>
+        <v>45897.66342592592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4277,14 +4277,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 25135-2025</t>
+          <t>A 49985-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45798</v>
+        <v>45215</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4334,14 +4334,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 46588-2025</t>
+          <t>A 34244-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45926.39152777778</v>
+        <v>45844</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4391,14 +4391,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 47564-2025</t>
+          <t>A 25624-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45931.38982638889</v>
+        <v>45803.57885416667</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4448,14 +4448,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 47569-2025</t>
+          <t>A 4262-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45931.39331018519</v>
+        <v>45324.50902777778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4505,14 +4505,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 32391-2025</t>
+          <t>A 36055-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45837.90662037037</v>
+        <v>45866</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4562,14 +4562,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 32392-2025</t>
+          <t>A 6096-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45837.9102199074</v>
+        <v>45697</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4619,14 +4619,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 33493-2021</t>
+          <t>A 41442-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44377</v>
+        <v>45869</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4676,14 +4676,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 34250-2025</t>
+          <t>A 661-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45844</v>
+        <v>45664.68572916667</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4733,14 +4733,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 49985-2023</t>
+          <t>A 37443-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45215</v>
+        <v>45877.54152777778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4752,8 +4752,13 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>8.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4790,14 +4795,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 50071-2023</t>
+          <t>A 43207-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45215</v>
+        <v>45910.45111111111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4815,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4847,14 +4852,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 34244-2025</t>
+          <t>A 45124-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45844</v>
+        <v>45919.43206018519</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4872,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4904,14 +4909,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 49981-2023</t>
+          <t>A 46588-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45215</v>
+        <v>45926.39152777778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4929,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4961,14 +4966,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 25624-2025</t>
+          <t>A 33244-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45803.57885416667</v>
+        <v>44377</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4986,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5018,14 +5023,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 56782-2022</t>
+          <t>A 47569-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44894.39475694444</v>
+        <v>45931.39331018519</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5043,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5075,14 +5080,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 36055-2025</t>
+          <t>A 47564-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45866</v>
+        <v>45931.38982638889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5095,7 +5100,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5132,14 +5137,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 41442-2025</t>
+          <t>A 24461-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45869</v>
+        <v>45082</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5152,7 +5157,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5189,14 +5194,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 1995-2024</t>
+          <t>A 143-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45308</v>
+        <v>44928.53378472223</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5253,7 +5258,7 @@
         <v>45957.62373842593</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5303,14 +5308,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 6096-2025</t>
+          <t>A 63319-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45697</v>
+        <v>44508.45226851852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5328,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>8.699999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5360,14 +5365,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 30170-2022</t>
+          <t>A 7505-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44757</v>
+        <v>45347.93181712963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5380,7 +5385,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5417,14 +5422,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 10810-2023</t>
+          <t>A 13529-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44989.75795138889</v>
+        <v>45387.84504629629</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5437,7 +5442,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5474,14 +5479,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 37443-2025</t>
+          <t>A 56394-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45877.54152777778</v>
+        <v>45974.74313657408</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5493,13 +5498,8 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5536,14 +5536,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 4204-2024</t>
+          <t>A 27463-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45324.36422453704</v>
+        <v>45474.45266203704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5593,14 +5593,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 55830-2024</t>
+          <t>A 58408-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45623.48478009259</v>
+        <v>45985.56969907408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.1</v>
+        <v>8.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5650,14 +5650,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 17922-2025</t>
+          <t>A 10655-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45758.90710648148</v>
+        <v>44624</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5670,7 +5670,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>13.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5707,14 +5707,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 62128-2021</t>
+          <t>A 17451-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44502</v>
+        <v>45757.44825231482</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5727,7 +5727,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5764,14 +5764,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 56394-2025</t>
+          <t>A 17455-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45974.74313657408</v>
+        <v>45757.45109953704</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5821,14 +5821,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 62979-2023</t>
+          <t>A 19531-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45271</v>
+        <v>45050.54896990741</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5878,14 +5878,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 58408-2025</t>
+          <t>A 4263-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45985.56969907408</v>
+        <v>45324.51049768519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>8.1</v>
+        <v>2.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5935,14 +5935,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 13529-2024</t>
+          <t>A 5705-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45387.84504629629</v>
+        <v>45694</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5992,14 +5992,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 44176-2023</t>
+          <t>A 62979-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45188</v>
+        <v>45271</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>7.1</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6049,14 +6049,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 26812-2024</t>
+          <t>A 4673-2026</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45470.54344907407</v>
+        <v>46048.42462962963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6106,14 +6106,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 29801-2022</t>
+          <t>A 16538-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44755.70518518519</v>
+        <v>45751.66126157407</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.8</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6163,14 +6163,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 18852-2024</t>
+          <t>A 5655-2026</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45426.69550925926</v>
+        <v>46051.44604166667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6220,14 +6220,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 34366-2022</t>
+          <t>A 29801-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44792</v>
+        <v>44755.70518518519</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6277,14 +6277,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 43520-2022</t>
+          <t>A 49981-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44837.37417824074</v>
+        <v>45215</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6334,14 +6334,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 4673-2026</t>
+          <t>A 71835-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46048.42462962963</v>
+        <v>44543.62230324074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>8.199999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6391,14 +6391,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 5655-2026</t>
+          <t>A 6946-2026</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46051.44604166667</v>
+        <v>46057</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6448,14 +6448,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 16538-2025</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45751.66126157407</v>
+        <v>46056</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6505,14 +6505,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 45990-2022</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44846</v>
+        <v>46056</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.3</v>
+        <v>0.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6562,14 +6562,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 143-2023</t>
+          <t>A 34366-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44928.53378472223</v>
+        <v>44792</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6619,14 +6619,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 21883-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46056</v>
+        <v>44322</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6676,14 +6676,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 56782-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46056</v>
+        <v>44894.39475694444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6733,14 +6733,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 18851-2024</t>
+          <t>A 26812-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45426.69</v>
+        <v>45470.54344907407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6790,14 +6790,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 6946-2026</t>
+          <t>A 10810-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46057</v>
+        <v>44989.75795138889</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6847,14 +6847,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 71835-2021</t>
+          <t>A 62128-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44543.62230324074</v>
+        <v>44502</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6904,14 +6904,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 51724-2023</t>
+          <t>A 21240-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45222</v>
+        <v>45058</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6961,14 +6961,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 661-2025</t>
+          <t>A 18851-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45664.68572916667</v>
+        <v>45426.69</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7018,14 +7018,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 24461-2023</t>
+          <t>A 21389-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45082</v>
+        <v>45063</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7075,14 +7075,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 13880-2024</t>
+          <t>A 44176-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45391.59994212963</v>
+        <v>45188</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.4</v>
+        <v>7.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7132,14 +7132,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 4263-2024</t>
+          <t>A 23457-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45324.51049768519</v>
+        <v>45453.65128472223</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.6</v>
+        <v>5.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7189,14 +7189,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 23457-2024</t>
+          <t>A 39714-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45453.65128472223</v>
+        <v>45552.60074074074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.1</v>
+        <v>1.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7246,14 +7246,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 41765-2021</t>
+          <t>A 18852-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44425</v>
+        <v>45426.69550925926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5.6</v>
+        <v>2.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7303,14 +7303,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 21389-2023</t>
+          <t>A 51724-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45063</v>
+        <v>45222</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7360,14 +7360,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 4262-2024</t>
+          <t>A 5631-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45324.50902777778</v>
+        <v>45334.61013888889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>14</v>
+        <v>1.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7417,14 +7417,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 27463-2024</t>
+          <t>A 21579-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45474.45266203704</v>
+        <v>45782.91234953704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7474,14 +7474,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 63319-2021</t>
+          <t>A 10679-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44508.45226851852</v>
+        <v>45721.89462962963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.6</v>
+        <v>4.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7531,14 +7531,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 5631-2024</t>
+          <t>A 8943-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45334.61013888889</v>
+        <v>45713.45105324074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7588,14 +7588,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 21579-2025</t>
+          <t>A 11237-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45782.91234953704</v>
+        <v>45726.36668981481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7645,14 +7645,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 10677-2025</t>
+          <t>A 15078-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45721.89055555555</v>
+        <v>45743.84284722222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>7.4</v>
+        <v>0.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7702,14 +7702,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 10679-2025</t>
+          <t>A 10677-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45721.89462962963</v>
+        <v>45721.89055555555</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.4</v>
+        <v>7.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7759,14 +7759,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 8943-2025</t>
+          <t>A 74285-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45713.45105324074</v>
+        <v>44558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7816,14 +7816,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 11237-2025</t>
+          <t>A 61417-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45726.36668981481</v>
+        <v>44916.35082175926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7873,14 +7873,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 15078-2025</t>
+          <t>A 32272-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45743.84284722222</v>
+        <v>45120.35368055556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>4.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7930,14 +7930,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 74285-2021</t>
+          <t>A 32847-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44558</v>
+        <v>45124.61965277778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -575,7 +575,7 @@
         <v>45548</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45526.57324074074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45993.54930555556</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,14 +862,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 36424-2025</t>
+          <t>A 8558-2024</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45868.90353009259</v>
+        <v>45355.57679398148</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -882,13 +882,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>16.9</v>
+        <v>12.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>2</v>
@@ -915,225 +915,225 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Gulsparv
+Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 8558-2024 artfynd.xlsx", "A 8558-2024")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 8558-2024 karta.png", "A 8558-2024")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 8558-2024 FSC-klagomål.docx", "A 8558-2024")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 8558-2024 FSC-klagomål mail.docx", "A 8558-2024")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 8558-2024 tillsynsbegäran.docx", "A 8558-2024")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 8558-2024 tillsynsbegäran mail.docx", "A 8558-2024")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 8558-2024 prioriterade fågelarter.docx", "A 8558-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 44132-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45915.58515046296</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Grönsångare
+Svartvit flugsnappare
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 44132-2025 artfynd.xlsx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 44132-2025 karta.png", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 44132-2025 FSC-klagomål.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 44132-2025 FSC-klagomål mail.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 44132-2025 tillsynsbegäran.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 44132-2025 tillsynsbegäran mail.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 44132-2025 prioriterade fågelarter.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 36424-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45868.90353009259</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Vedtrappmossa
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 36424-2025 artfynd.xlsx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 36424-2025 karta.png", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 36424-2025 FSC-klagomål.docx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 36424-2025 FSC-klagomål mail.docx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 36424-2025 tillsynsbegäran.docx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 36424-2025 tillsynsbegäran mail.docx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 36424-2025 prioriterade fågelarter.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 44132-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45915.58515046296</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>3</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Grönsångare
-Svartvit flugsnappare
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 44132-2025 artfynd.xlsx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 44132-2025 karta.png", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 44132-2025 FSC-klagomål.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 44132-2025 FSC-klagomål mail.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 44132-2025 tillsynsbegäran.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 44132-2025 tillsynsbegäran mail.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="Z6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 44132-2025 prioriterade fågelarter.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 8558-2024</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45355.57679398148</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv
-Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 8558-2024 artfynd.xlsx", "A 8558-2024")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 8558-2024 karta.png", "A 8558-2024")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 8558-2024 FSC-klagomål.docx", "A 8558-2024")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 8558-2024 FSC-klagomål mail.docx", "A 8558-2024")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 8558-2024 tillsynsbegäran.docx", "A 8558-2024")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 8558-2024 tillsynsbegäran mail.docx", "A 8558-2024")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 8558-2024 prioriterade fågelarter.docx", "A 8558-2024")</f>
         <v/>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
         <v>45695.66287037037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45957</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,14 +1408,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 48345-2021</t>
+          <t>A 5637-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44451</v>
+        <v>45334.6115162037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1428,16 +1428,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1462,316 +1462,316 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Klofibbla
+Åkerrödtoppa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 5637-2024 artfynd.xlsx", "A 5637-2024")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 5637-2024 karta.png", "A 5637-2024")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 5637-2024 FSC-klagomål.docx", "A 5637-2024")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 5637-2024 FSC-klagomål mail.docx", "A 5637-2024")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 5637-2024 tillsynsbegäran.docx", "A 5637-2024")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 5637-2024 tillsynsbegäran mail.docx", "A 5637-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 48345-2021</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44451</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Blåmossa</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 48345-2021 artfynd.xlsx", "A 48345-2021")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 48345-2021 karta.png", "A 48345-2021")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 48345-2021 FSC-klagomål.docx", "A 48345-2021")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 48345-2021 FSC-klagomål mail.docx", "A 48345-2021")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 48345-2021 tillsynsbegäran.docx", "A 48345-2021")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 48345-2021 tillsynsbegäran mail.docx", "A 48345-2021")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 48345-2021 prioriterade fågelarter.docx", "A 48345-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 57116-2025</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45979.46130787037</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C13" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>3.5</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 57116-2025 artfynd.xlsx", "A 57116-2025")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 57116-2025 karta.png", "A 57116-2025")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 57116-2025 FSC-klagomål.docx", "A 57116-2025")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 57116-2025 FSC-klagomål mail.docx", "A 57116-2025")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 57116-2025 tillsynsbegäran.docx", "A 57116-2025")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 57116-2025 tillsynsbegäran mail.docx", "A 57116-2025")</f>
         <v/>
       </c>
-      <c r="Z12">
+      <c r="Z13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 57116-2025 prioriterade fågelarter.docx", "A 57116-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 53007-2025</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>45957</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C14" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>2.9</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53007-2025 artfynd.xlsx", "A 53007-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53007-2025 karta.png", "A 53007-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53007-2025 FSC-klagomål.docx", "A 53007-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53007-2025 FSC-klagomål mail.docx", "A 53007-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53007-2025 tillsynsbegäran.docx", "A 53007-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53007-2025 tillsynsbegäran mail.docx", "A 53007-2025")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53007-2025 prioriterade fågelarter.docx", "A 53007-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 5637-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45334.6115162037</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Klofibbla
-Åkerrödtoppa</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 5637-2024 artfynd.xlsx", "A 5637-2024")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 5637-2024 karta.png", "A 5637-2024")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 5637-2024 FSC-klagomål.docx", "A 5637-2024")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 5637-2024 FSC-klagomål mail.docx", "A 5637-2024")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 5637-2024 tillsynsbegäran.docx", "A 5637-2024")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 5637-2024 tillsynsbegäran mail.docx", "A 5637-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49988-2023</t>
+          <t>A 45243-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45215</v>
+        <v>45919.60089120371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>8.1</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1822,41 +1822,41 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 49988-2023 artfynd.xlsx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 49988-2023 karta.png", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 49988-2023 FSC-klagomål.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 49988-2023 FSC-klagomål mail.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 49988-2023 tillsynsbegäran.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 49988-2023 tillsynsbegäran mail.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 33426-2021</t>
+          <t>A 6082-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44377</v>
+        <v>45697</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1903,45 +1903,49 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6082-2025 artfynd.xlsx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6082-2025 karta.png", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6082-2025 FSC-klagomål.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6082-2025 FSC-klagomål mail.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6082-2025 tillsynsbegäran.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6082-2025 tillsynsbegäran mail.docx", "A 6082-2025")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6082-2025 prioriterade fågelarter.docx", "A 6082-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 45243-2025</t>
+          <t>A 33426-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45919.60089120371</v>
+        <v>44377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1954,7 +1958,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>8.1</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1988,31 +1992,31 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
     </row>
@@ -2026,7 +2030,7 @@
         <v>45882.49244212963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2115,7 +2119,7 @@
         <v>45454.71498842593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2193,14 +2197,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 6082-2025</t>
+          <t>A 49988-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45697</v>
+        <v>45215</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2213,7 +2217,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2222,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2237,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2247,35 +2251,31 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6082-2025 artfynd.xlsx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 49988-2023 artfynd.xlsx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6082-2025 karta.png", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 49988-2023 karta.png", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6082-2025 FSC-klagomål.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 49988-2023 FSC-klagomål.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6082-2025 FSC-klagomål mail.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 49988-2023 FSC-klagomål mail.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6082-2025 tillsynsbegäran.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 49988-2023 tillsynsbegäran.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6082-2025 tillsynsbegäran mail.docx", "A 6082-2025")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6082-2025 prioriterade fågelarter.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 49988-2023 tillsynsbegäran mail.docx", "A 49988-2023")</f>
         <v/>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
         <v>44425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>44691</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44691</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44450.66346064815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>44425</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>44836</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44250</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44459.89270833333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2802,7 +2802,7 @@
         <v>44459</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         <v>44760.44488425926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         <v>44760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2973,7 +2973,7 @@
         <v>44760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3030,7 +3030,7 @@
         <v>44872.64650462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3087,7 +3087,7 @@
         <v>44450</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3137,14 +3137,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 62221-2023</t>
+          <t>A 17451-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45267.54049768519</v>
+        <v>45757.44825231482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3194,14 +3194,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 4204-2024</t>
+          <t>A 17455-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45324.36422453704</v>
+        <v>45757.45109953704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3251,14 +3251,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 30170-2022</t>
+          <t>A 62221-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44757</v>
+        <v>45267.54049768519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3308,14 +3308,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 50071-2023</t>
+          <t>A 21240-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45215</v>
+        <v>45058</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3365,14 +3365,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 13880-2024</t>
+          <t>A 40951-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45391.59994212963</v>
+        <v>45897.66342592592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3422,14 +3422,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 1995-2024</t>
+          <t>A 63319-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45308</v>
+        <v>44508.45226851852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3479,14 +3479,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 21899-2021</t>
+          <t>A 29223-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44322</v>
+        <v>45482.81978009259</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>5.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3536,14 +3536,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 45990-2022</t>
+          <t>A 21883-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44846</v>
+        <v>44322</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3593,14 +3593,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 41765-2021</t>
+          <t>A 21899-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44425</v>
+        <v>44322</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3650,14 +3650,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 43520-2022</t>
+          <t>A 10655-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44837.37417824074</v>
+        <v>44624</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>13.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3707,14 +3707,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 29223-2024</t>
+          <t>A 39714-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45482.81978009259</v>
+        <v>45552.60074074074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5.6</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3764,14 +3764,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 17922-2025</t>
+          <t>A 5631-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45758.90710648148</v>
+        <v>45334.61013888889</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3821,14 +3821,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 8334-2023</t>
+          <t>A 21579-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44975</v>
+        <v>45782.91234953704</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3878,14 +3878,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 25135-2025</t>
+          <t>A 10677-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45798</v>
+        <v>45721.89055555555</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.1</v>
+        <v>7.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3935,14 +3935,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 32392-2025</t>
+          <t>A 10679-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45837.9102199074</v>
+        <v>45721.89462962963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3992,14 +3992,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 32391-2025</t>
+          <t>A 8943-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45837.90662037037</v>
+        <v>45713.45105324074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4049,14 +4049,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 33493-2021</t>
+          <t>A 11237-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44377</v>
+        <v>45726.36668981481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4106,14 +4106,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 34250-2025</t>
+          <t>A 15078-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45844</v>
+        <v>45743.84284722222</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4163,14 +4163,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 55830-2024</t>
+          <t>A 74285-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45623.48478009259</v>
+        <v>44558</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4220,14 +4220,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 40951-2025</t>
+          <t>A 19531-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45897.66342592592</v>
+        <v>45050.54896990741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4277,14 +4277,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 49985-2023</t>
+          <t>A 5705-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45215</v>
+        <v>45694</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>8.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4334,14 +4334,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 34244-2025</t>
+          <t>A 43207-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45844</v>
+        <v>45910.45111111111</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4391,14 +4391,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 25624-2025</t>
+          <t>A 45124-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45803.57885416667</v>
+        <v>45919.43206018519</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4448,14 +4448,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 4262-2024</t>
+          <t>A 7505-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45324.50902777778</v>
+        <v>45347.93181712963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>14</v>
+        <v>1.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4505,14 +4505,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 36055-2025</t>
+          <t>A 61417-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45866</v>
+        <v>44916.35082175926</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4562,14 +4562,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 6096-2025</t>
+          <t>A 32272-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45697</v>
+        <v>45120.35368055556</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>8.699999999999999</v>
+        <v>4.9</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4619,14 +4619,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 41442-2025</t>
+          <t>A 8334-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45869</v>
+        <v>44975</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4676,14 +4676,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 661-2025</t>
+          <t>A 32847-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45664.68572916667</v>
+        <v>45124.61965277778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4733,14 +4733,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 37443-2025</t>
+          <t>A 46588-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45877.54152777778</v>
+        <v>45926.39152777778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4752,13 +4752,8 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4795,14 +4790,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 43207-2025</t>
+          <t>A 47564-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45910.45111111111</v>
+        <v>45931.38982638889</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4815,7 +4810,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4852,14 +4847,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 45124-2025</t>
+          <t>A 33244-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45919.43206018519</v>
+        <v>44377</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4872,7 +4867,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4909,14 +4904,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 46588-2025</t>
+          <t>A 47569-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45926.39152777778</v>
+        <v>45931.39331018519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4929,7 +4924,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4966,14 +4961,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 33244-2021</t>
+          <t>A 25135-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44377</v>
+        <v>45798</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4986,7 +4981,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5023,14 +5018,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 47569-2025</t>
+          <t>A 32391-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45931.39331018519</v>
+        <v>45837.90662037037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5043,7 +5038,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5080,14 +5075,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 47564-2025</t>
+          <t>A 32392-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45931.38982638889</v>
+        <v>45837.9102199074</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5100,7 +5095,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5137,14 +5132,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 24461-2023</t>
+          <t>A 33493-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45082</v>
+        <v>44377</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5157,7 +5152,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5194,14 +5189,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 143-2023</t>
+          <t>A 34250-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44928.53378472223</v>
+        <v>45844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5214,7 +5209,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5251,14 +5246,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 52932-2025</t>
+          <t>A 49985-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45957.62373842593</v>
+        <v>45215</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5271,7 +5266,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5308,14 +5303,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 63319-2021</t>
+          <t>A 34244-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44508.45226851852</v>
+        <v>45844</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5328,7 +5323,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5365,14 +5360,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7505-2024</t>
+          <t>A 25624-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45347.93181712963</v>
+        <v>45803.57885416667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5385,7 +5380,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5422,14 +5417,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 13529-2024</t>
+          <t>A 50071-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45387.84504629629</v>
+        <v>45215</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5442,7 +5437,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5479,14 +5474,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 56394-2025</t>
+          <t>A 36055-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45974.74313657408</v>
+        <v>45866</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5499,7 +5494,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5536,14 +5531,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 27463-2024</t>
+          <t>A 41442-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45474.45266203704</v>
+        <v>45869</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5556,7 +5551,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5593,14 +5588,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 58408-2025</t>
+          <t>A 49981-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45985.56969907408</v>
+        <v>45215</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5613,7 +5608,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>8.1</v>
+        <v>2.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5650,14 +5645,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 10655-2022</t>
+          <t>A 6096-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44624</v>
+        <v>45697</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5670,7 +5665,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>13.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5707,14 +5702,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 17451-2025</t>
+          <t>A 56782-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45757.44825231482</v>
+        <v>44894.39475694444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5727,7 +5722,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5764,14 +5759,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 17455-2025</t>
+          <t>A 1995-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45757.45109953704</v>
+        <v>45308</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5784,7 +5779,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5821,14 +5816,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 19531-2023</t>
+          <t>A 37443-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45050.54896990741</v>
+        <v>45877.54152777778</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5840,8 +5835,13 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5878,14 +5878,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 4263-2024</t>
+          <t>A 30170-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45324.51049768519</v>
+        <v>44757</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5935,14 +5935,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 5705-2025</t>
+          <t>A 10810-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45694</v>
+        <v>44989.75795138889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5992,14 +5992,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 62979-2023</t>
+          <t>A 17922-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45271</v>
+        <v>45758.90710648148</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6049,14 +6049,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 4673-2026</t>
+          <t>A 4204-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46048.42462962963</v>
+        <v>45324.36422453704</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>8.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6106,14 +6106,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 16538-2025</t>
+          <t>A 52932-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45751.66126157407</v>
+        <v>45957.62373842593</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6163,14 +6163,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 5655-2026</t>
+          <t>A 55830-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46051.44604166667</v>
+        <v>45623.48478009259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6220,14 +6220,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 29801-2022</t>
+          <t>A 62128-2021</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44755.70518518519</v>
+        <v>44502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6277,14 +6277,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 49981-2023</t>
+          <t>A 62979-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45215</v>
+        <v>45271</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6334,14 +6334,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 71835-2021</t>
+          <t>A 56394-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44543.62230324074</v>
+        <v>45974.74313657408</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6391,14 +6391,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 6946-2026</t>
+          <t>A 58408-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46057</v>
+        <v>45985.56969907408</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.2</v>
+        <v>8.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6448,14 +6448,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 13529-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46056</v>
+        <v>45387.84504629629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6505,14 +6505,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 44176-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46056</v>
+        <v>45188</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.4</v>
+        <v>7.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6562,14 +6562,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 34366-2022</t>
+          <t>A 26812-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44792</v>
+        <v>45470.54344907407</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6619,14 +6619,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 21883-2021</t>
+          <t>A 29801-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44322</v>
+        <v>44755.70518518519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6676,14 +6676,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 56782-2022</t>
+          <t>A 18852-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44894.39475694444</v>
+        <v>45426.69550925926</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6733,14 +6733,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 26812-2024</t>
+          <t>A 43520-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45470.54344907407</v>
+        <v>44837.37417824074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6790,14 +6790,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 10810-2023</t>
+          <t>A 4673-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44989.75795138889</v>
+        <v>46048.42462962963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6847,14 +6847,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 62128-2021</t>
+          <t>A 16538-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44502</v>
+        <v>45751.66126157407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6904,14 +6904,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 21240-2023</t>
+          <t>A 45990-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45058</v>
+        <v>44846</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6961,14 +6961,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 18851-2024</t>
+          <t>A 5655-2026</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45426.69</v>
+        <v>46051.44604166667</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7018,14 +7018,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 21389-2023</t>
+          <t>A 143-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45063</v>
+        <v>44928.53378472223</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7075,14 +7075,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 44176-2023</t>
+          <t>A 18851-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45188</v>
+        <v>45426.69</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>7.1</v>
+        <v>2.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7132,14 +7132,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 23457-2024</t>
+          <t>A 71835-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45453.65128472223</v>
+        <v>44543.62230324074</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.1</v>
+        <v>7.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7189,14 +7189,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 39714-2024</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45552.60074074074</v>
+        <v>46056</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7246,14 +7246,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 18852-2024</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45426.69550925926</v>
+        <v>46056</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7303,14 +7303,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 51724-2023</t>
+          <t>A 6946-2026</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45222</v>
+        <v>46057</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7360,14 +7360,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 5631-2024</t>
+          <t>A 34366-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45334.61013888889</v>
+        <v>44792</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7417,14 +7417,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 21579-2025</t>
+          <t>A 51724-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45782.91234953704</v>
+        <v>45222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7474,14 +7474,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 10679-2025</t>
+          <t>A 661-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45721.89462962963</v>
+        <v>45664.68572916667</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7531,14 +7531,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 8943-2025</t>
+          <t>A 24461-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45713.45105324074</v>
+        <v>45082</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7588,14 +7588,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 11237-2025</t>
+          <t>A 13880-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45726.36668981481</v>
+        <v>45391.59994212963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7645,14 +7645,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 15078-2025</t>
+          <t>A 4263-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45743.84284722222</v>
+        <v>45324.51049768519</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7702,14 +7702,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 10677-2025</t>
+          <t>A 23457-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45721.89055555555</v>
+        <v>45453.65128472223</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>7.4</v>
+        <v>5.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7759,14 +7759,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 74285-2021</t>
+          <t>A 41765-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44558</v>
+        <v>44425</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7816,14 +7816,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 61417-2022</t>
+          <t>A 21389-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44916.35082175926</v>
+        <v>45063</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7873,14 +7873,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 32272-2023</t>
+          <t>A 4262-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45120.35368055556</v>
+        <v>45324.50902777778</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.9</v>
+        <v>14</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7930,14 +7930,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 32847-2023</t>
+          <t>A 27463-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45124.61965277778</v>
+        <v>45474.45266203704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -575,7 +575,7 @@
         <v>45548</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45526.57324074074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45993.54930555556</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45355.57679398148</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -953,14 +953,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 44132-2025</t>
+          <t>A 36424-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45915.58515046296</v>
+        <v>45868.90353009259</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -972,19 +972,14 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>16.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
@@ -1011,129 +1006,134 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Vedtrappmossa
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 36424-2025 artfynd.xlsx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 36424-2025 karta.png", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 36424-2025 FSC-klagomål.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 36424-2025 FSC-klagomål mail.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 36424-2025 tillsynsbegäran.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 36424-2025 tillsynsbegäran mail.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 36424-2025 prioriterade fågelarter.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 44132-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45915.58515046296</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Grönsångare
 Svartvit flugsnappare
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 44132-2025 artfynd.xlsx", "A 44132-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 44132-2025 karta.png", "A 44132-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 44132-2025 FSC-klagomål.docx", "A 44132-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 44132-2025 FSC-klagomål mail.docx", "A 44132-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 44132-2025 tillsynsbegäran.docx", "A 44132-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 44132-2025 tillsynsbegäran mail.docx", "A 44132-2025")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 44132-2025 prioriterade fågelarter.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 36424-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45868.90353009259</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Vedtrappmossa
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 36424-2025 artfynd.xlsx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 36424-2025 karta.png", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 36424-2025 FSC-klagomål.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 36424-2025 FSC-klagomål mail.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 36424-2025 tillsynsbegäran.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 36424-2025 tillsynsbegäran mail.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 36424-2025 prioriterade fågelarter.docx", "A 36424-2025")</f>
         <v/>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
         <v>45695.66287037037</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1238,7 +1238,7 @@
         <v>45957</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1329,7 +1329,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,14 +1408,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 5637-2024</t>
+          <t>A 48345-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45334.6115162037</v>
+        <v>44451</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1428,16 +1428,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1452,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1462,122 +1462,122 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 48345-2021 artfynd.xlsx", "A 48345-2021")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 48345-2021 karta.png", "A 48345-2021")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 48345-2021 FSC-klagomål.docx", "A 48345-2021")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 48345-2021 FSC-klagomål mail.docx", "A 48345-2021")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 48345-2021 tillsynsbegäran.docx", "A 48345-2021")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 48345-2021 tillsynsbegäran mail.docx", "A 48345-2021")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 48345-2021 prioriterade fågelarter.docx", "A 48345-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 5637-2024</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45334.6115162037</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
           <t>Klofibbla
 Åkerrödtoppa</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 5637-2024 artfynd.xlsx", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 5637-2024 karta.png", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 5637-2024 FSC-klagomål.docx", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 5637-2024 FSC-klagomål mail.docx", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 5637-2024 tillsynsbegäran.docx", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 5637-2024 tillsynsbegäran mail.docx", "A 5637-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 48345-2021</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44451</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 48345-2021 artfynd.xlsx", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 48345-2021 karta.png", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 48345-2021 FSC-klagomål.docx", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 48345-2021 FSC-klagomål mail.docx", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 48345-2021 tillsynsbegäran.docx", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 48345-2021 tillsynsbegäran mail.docx", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 48345-2021 prioriterade fågelarter.docx", "A 48345-2021")</f>
         <v/>
       </c>
     </row>
@@ -1591,7 +1591,7 @@
         <v>45979.46130787037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1681,7 +1681,7 @@
         <v>45957</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1764,14 +1764,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 45243-2025</t>
+          <t>A 49988-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45919.60089120371</v>
+        <v>45215</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>8.1</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1822,27 +1822,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 49988-2023 artfynd.xlsx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 49988-2023 karta.png", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 49988-2023 FSC-klagomål.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 49988-2023 FSC-klagomål mail.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 49988-2023 tillsynsbegäran.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 49988-2023 tillsynsbegäran mail.docx", "A 49988-2023")</f>
         <v/>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
         <v>45697</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1945,7 +1945,7 @@
         <v>44377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2030,7 +2030,7 @@
         <v>45882.49244212963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2119,7 +2119,7 @@
         <v>45454.71498842593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,14 +2197,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 49988-2023</t>
+          <t>A 45243-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45215</v>
+        <v>45919.60089120371</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>8.1</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2255,27 +2255,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 49988-2023 artfynd.xlsx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 49988-2023 karta.png", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 49988-2023 FSC-klagomål.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 49988-2023 FSC-klagomål mail.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 49988-2023 tillsynsbegäran.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 49988-2023 tillsynsbegäran mail.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
         <v>44425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>44691</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44691</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44450.66346064815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>44425</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>44836</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44250</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44459.89270833333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2795,14 +2795,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 50413-2021</t>
+          <t>A 51930-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44459</v>
+        <v>44872.64650462963</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2852,14 +2852,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 30322-2022</t>
+          <t>A 48311-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44760.44488425926</v>
+        <v>44450</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2909,14 +2909,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 30373-2022</t>
+          <t>A 50413-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44760</v>
+        <v>44459</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2966,14 +2966,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 30377-2022</t>
+          <t>A 41765-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44760</v>
+        <v>44425</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.6</v>
+        <v>5.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3023,14 +3023,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 51930-2022</t>
+          <t>A 30322-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44872.64650462963</v>
+        <v>44760.44488425926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3080,14 +3080,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 48311-2021</t>
+          <t>A 24461-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44450</v>
+        <v>45082</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3137,14 +3137,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 17451-2025</t>
+          <t>A 143-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45757.44825231482</v>
+        <v>44928.53378472223</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3194,14 +3194,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 17455-2025</t>
+          <t>A 62221-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45757.45109953704</v>
+        <v>45267.54049768519</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3251,14 +3251,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 62221-2023</t>
+          <t>A 4204-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45267.54049768519</v>
+        <v>45324.36422453704</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3308,14 +3308,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 21240-2023</t>
+          <t>A 50071-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45058</v>
+        <v>45215</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3365,14 +3365,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 40951-2025</t>
+          <t>A 30170-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45897.66342592592</v>
+        <v>44757</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3422,14 +3422,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 63319-2021</t>
+          <t>A 43520-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44508.45226851852</v>
+        <v>44837.37417824074</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3479,14 +3479,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 29223-2024</t>
+          <t>A 63319-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45482.81978009259</v>
+        <v>44508.45226851852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.6</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3536,14 +3536,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 21883-2021</t>
+          <t>A 30373-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44322</v>
+        <v>44760</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3593,14 +3593,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 21899-2021</t>
+          <t>A 30377-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44322</v>
+        <v>44760</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3650,14 +3650,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 10655-2022</t>
+          <t>A 13880-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44624</v>
+        <v>45391.59994212963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>13.3</v>
+        <v>2.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3707,14 +3707,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 39714-2024</t>
+          <t>A 29223-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45552.60074074074</v>
+        <v>45482.81978009259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>5.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3764,14 +3764,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 5631-2024</t>
+          <t>A 1995-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45334.61013888889</v>
+        <v>45308</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3821,14 +3821,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 21579-2025</t>
+          <t>A 21899-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45782.91234953704</v>
+        <v>44322</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3878,14 +3878,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10677-2025</t>
+          <t>A 45990-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45721.89055555555</v>
+        <v>44846</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>7.4</v>
+        <v>3.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3935,14 +3935,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 10679-2025</t>
+          <t>A 7505-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45721.89462962963</v>
+        <v>45347.93181712963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3992,14 +3992,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 8943-2025</t>
+          <t>A 13529-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45713.45105324074</v>
+        <v>45387.84504629629</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4049,14 +4049,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 11237-2025</t>
+          <t>A 8334-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45726.36668981481</v>
+        <v>44975</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4106,14 +4106,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 15078-2025</t>
+          <t>A 61417-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45743.84284722222</v>
+        <v>44916.35082175926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4163,14 +4163,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 74285-2021</t>
+          <t>A 32272-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44558</v>
+        <v>45120.35368055556</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.1</v>
+        <v>4.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4220,14 +4220,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 19531-2023</t>
+          <t>A 32847-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45050.54896990741</v>
+        <v>45124.61965277778</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4277,14 +4277,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 5705-2025</t>
+          <t>A 27463-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45694</v>
+        <v>45474.45266203704</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4334,14 +4334,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 43207-2025</t>
+          <t>A 10655-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45910.45111111111</v>
+        <v>44624</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.8</v>
+        <v>13.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4391,14 +4391,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 45124-2025</t>
+          <t>A 17451-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45919.43206018519</v>
+        <v>45757.44825231482</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4448,14 +4448,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 7505-2024</t>
+          <t>A 17455-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45347.93181712963</v>
+        <v>45757.45109953704</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4505,14 +4505,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 61417-2022</t>
+          <t>A 55830-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44916.35082175926</v>
+        <v>45623.48478009259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.6</v>
+        <v>5.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4562,14 +4562,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 32272-2023</t>
+          <t>A 56782-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45120.35368055556</v>
+        <v>44894.39475694444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4.9</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4619,14 +4619,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 8334-2023</t>
+          <t>A 25135-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44975</v>
+        <v>45798</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4676,14 +4676,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 32847-2023</t>
+          <t>A 4262-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45124.61965277778</v>
+        <v>45324.50902777778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.7</v>
+        <v>14</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4733,14 +4733,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 46588-2025</t>
+          <t>A 32392-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45926.39152777778</v>
+        <v>45837.9102199074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4790,14 +4790,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 47564-2025</t>
+          <t>A 32391-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45931.38982638889</v>
+        <v>45837.90662037037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4847,14 +4847,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 33244-2021</t>
+          <t>A 19531-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44377</v>
+        <v>45050.54896990741</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4904,14 +4904,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 47569-2025</t>
+          <t>A 4263-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45931.39331018519</v>
+        <v>45324.51049768519</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4961,14 +4961,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 25135-2025</t>
+          <t>A 33493-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45798</v>
+        <v>44377</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5018,14 +5018,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 32391-2025</t>
+          <t>A 26812-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45837.90662037037</v>
+        <v>45470.54344907407</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5075,14 +5075,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 32392-2025</t>
+          <t>A 34250-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45837.9102199074</v>
+        <v>45844</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5132,14 +5132,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 33493-2021</t>
+          <t>A 5705-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44377</v>
+        <v>45694</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5189,14 +5189,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 34250-2025</t>
+          <t>A 49985-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45844</v>
+        <v>45215</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5209,7 +5209,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5246,14 +5246,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 49985-2023</t>
+          <t>A 34244-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45215</v>
+        <v>45844</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5266,7 +5266,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>8.199999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5303,14 +5303,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 34244-2025</t>
+          <t>A 62979-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45844</v>
+        <v>45271</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5323,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5360,14 +5360,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 25624-2025</t>
+          <t>A 661-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45803.57885416667</v>
+        <v>45664.68572916667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5380,7 +5380,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5417,14 +5417,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 50071-2023</t>
+          <t>A 25624-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45215</v>
+        <v>45803.57885416667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5437,7 +5437,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5481,7 +5481,7 @@
         <v>45866</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5531,14 +5531,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 41442-2025</t>
+          <t>A 6096-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45869</v>
+        <v>45697</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5551,7 +5551,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5588,14 +5588,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 49981-2023</t>
+          <t>A 41442-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45215</v>
+        <v>45869</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5608,7 +5608,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5645,14 +5645,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 6096-2025</t>
+          <t>A 16538-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45697</v>
+        <v>45751.66126157407</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5665,7 +5665,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>8.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5702,14 +5702,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 56782-2022</t>
+          <t>A 37443-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44894.39475694444</v>
+        <v>45877.54152777778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5721,8 +5721,13 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5759,14 +5764,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 1995-2024</t>
+          <t>A 29801-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45308</v>
+        <v>44755.70518518519</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5779,7 +5784,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5816,14 +5821,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 37443-2025</t>
+          <t>A 49981-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45877.54152777778</v>
+        <v>45215</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5835,13 +5840,8 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5878,14 +5878,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 30170-2022</t>
+          <t>A 33244-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44757</v>
+        <v>44377</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5935,14 +5935,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 10810-2023</t>
+          <t>A 71835-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44989.75795138889</v>
+        <v>44543.62230324074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.4</v>
+        <v>7.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5992,14 +5992,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 17922-2025</t>
+          <t>A 21883-2021</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45758.90710648148</v>
+        <v>44322</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6049,14 +6049,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 4204-2024</t>
+          <t>A 17922-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45324.36422453704</v>
+        <v>45758.90710648148</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6106,14 +6106,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 52932-2025</t>
+          <t>A 10810-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45957.62373842593</v>
+        <v>44989.75795138889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.4</v>
+        <v>0.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6163,14 +6163,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 55830-2024</t>
+          <t>A 62128-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45623.48478009259</v>
+        <v>44502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.1</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6220,14 +6220,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 62128-2021</t>
+          <t>A 40951-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44502</v>
+        <v>45897.66342592592</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6277,14 +6277,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 62979-2023</t>
+          <t>A 21240-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45271</v>
+        <v>45058</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6334,14 +6334,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 56394-2025</t>
+          <t>A 18851-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45974.74313657408</v>
+        <v>45426.69</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6391,14 +6391,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 58408-2025</t>
+          <t>A 21389-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45985.56969907408</v>
+        <v>45063</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>8.1</v>
+        <v>3.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6448,14 +6448,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 13529-2024</t>
+          <t>A 44176-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45387.84504629629</v>
+        <v>45188</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>7.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6505,14 +6505,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 44176-2023</t>
+          <t>A 23457-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45188</v>
+        <v>45453.65128472223</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>7.1</v>
+        <v>5.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6562,14 +6562,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 26812-2024</t>
+          <t>A 39714-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45470.54344907407</v>
+        <v>45552.60074074074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6619,14 +6619,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 29801-2022</t>
+          <t>A 18852-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44755.70518518519</v>
+        <v>45426.69550925926</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6676,14 +6676,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 18852-2024</t>
+          <t>A 43207-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45426.69550925926</v>
+        <v>45910.45111111111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6733,14 +6733,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 43520-2022</t>
+          <t>A 45124-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44837.37417824074</v>
+        <v>45919.43206018519</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6790,14 +6790,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 4673-2026</t>
+          <t>A 51724-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46048.42462962963</v>
+        <v>45222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>8.199999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6847,14 +6847,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 16538-2025</t>
+          <t>A 5631-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45751.66126157407</v>
+        <v>45334.61013888889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6904,14 +6904,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 45990-2022</t>
+          <t>A 46588-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44846</v>
+        <v>45926.39152777778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6961,14 +6961,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 5655-2026</t>
+          <t>A 21579-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46051.44604166667</v>
+        <v>45782.91234953704</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7018,14 +7018,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 143-2023</t>
+          <t>A 47569-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44928.53378472223</v>
+        <v>45931.39331018519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7075,14 +7075,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 18851-2024</t>
+          <t>A 47564-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45426.69</v>
+        <v>45931.38982638889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7132,14 +7132,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 71835-2021</t>
+          <t>A 10679-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44543.62230324074</v>
+        <v>45721.89462962963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>7.5</v>
+        <v>4.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7189,14 +7189,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 8943-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46056</v>
+        <v>45713.45105324074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7246,14 +7246,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 11237-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>46056</v>
+        <v>45726.36668981481</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7303,14 +7303,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 6946-2026</t>
+          <t>A 15078-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46057</v>
+        <v>45743.84284722222</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7360,14 +7360,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 34366-2022</t>
+          <t>A 10677-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44792</v>
+        <v>45721.89055555555</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.5</v>
+        <v>7.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7417,14 +7417,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 51724-2023</t>
+          <t>A 74285-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45222</v>
+        <v>44558</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7474,14 +7474,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 661-2025</t>
+          <t>A 52932-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45664.68572916667</v>
+        <v>45957.62373842593</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7531,14 +7531,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 24461-2023</t>
+          <t>A 56394-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45082</v>
+        <v>45974.74313657408</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7588,14 +7588,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 13880-2024</t>
+          <t>A 58408-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45391.59994212963</v>
+        <v>45985.56969907408</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.4</v>
+        <v>8.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7645,14 +7645,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 4263-2024</t>
+          <t>A 4673-2026</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45324.51049768519</v>
+        <v>46048.42462962963</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7702,14 +7702,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 23457-2024</t>
+          <t>A 5655-2026</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45453.65128472223</v>
+        <v>46051.44604166667</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7759,14 +7759,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 41765-2021</t>
+          <t>A 6946-2026</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44425</v>
+        <v>46057</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.6</v>
+        <v>2.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7816,14 +7816,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 21389-2023</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45063</v>
+        <v>46056</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7873,14 +7873,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 4262-2024</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45324.50902777778</v>
+        <v>46056</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>14</v>
+        <v>0.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7930,14 +7930,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 27463-2024</t>
+          <t>A 34366-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45474.45266203704</v>
+        <v>44792</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -575,7 +575,7 @@
         <v>45548</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45526.57324074074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45993.54930555556</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -862,14 +862,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 8558-2024</t>
+          <t>A 6041-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45355.57679398148</v>
+        <v>45695.66287037037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -882,16 +882,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -915,407 +915,407 @@
         <v>3</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa
+Kambräken</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6041-2025 artfynd.xlsx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6041-2025 karta.png", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6041-2025 FSC-klagomål.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6041-2025 FSC-klagomål mail.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6041-2025 tillsynsbegäran.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6041-2025 tillsynsbegäran mail.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="Z5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6041-2025 prioriterade fågelarter.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 8558-2024</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45355.57679398148</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Gulsparv
 Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 8558-2024 artfynd.xlsx", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 8558-2024 karta.png", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 8558-2024 FSC-klagomål.docx", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 8558-2024 FSC-klagomål mail.docx", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 8558-2024 tillsynsbegäran.docx", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 8558-2024 tillsynsbegäran mail.docx", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="Z5">
+      <c r="Z6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 8558-2024 prioriterade fågelarter.docx", "A 8558-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 53008-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45957</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Kambräken
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53008-2025 artfynd.xlsx", "A 53008-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53008-2025 karta.png", "A 53008-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53008-2025 FSC-klagomål.docx", "A 53008-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53008-2025 FSC-klagomål mail.docx", "A 53008-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53008-2025 tillsynsbegäran.docx", "A 53008-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53008-2025 tillsynsbegäran mail.docx", "A 53008-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53008-2025 prioriterade fågelarter.docx", "A 53008-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 36424-2025</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45868.90353009259</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>16.9</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J8" t="n">
         <v>2</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>2</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>3</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Vedtrappmossa
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 36424-2025 artfynd.xlsx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 36424-2025 karta.png", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 36424-2025 FSC-klagomål.docx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 36424-2025 FSC-klagomål mail.docx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 36424-2025 tillsynsbegäran.docx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 36424-2025 tillsynsbegäran mail.docx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 36424-2025 prioriterade fågelarter.docx", "A 36424-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 44132-2025</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45915.58515046296</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
+      <c r="C9" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Kommuner</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G9" t="n">
         <v>1.8</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H9" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>2</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>2</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>3</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Grönsångare
 Svartvit flugsnappare
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 44132-2025 artfynd.xlsx", "A 44132-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 44132-2025 karta.png", "A 44132-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 44132-2025 FSC-klagomål.docx", "A 44132-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 44132-2025 FSC-klagomål mail.docx", "A 44132-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 44132-2025 tillsynsbegäran.docx", "A 44132-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 44132-2025 tillsynsbegäran mail.docx", "A 44132-2025")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 44132-2025 prioriterade fågelarter.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 6041-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45695.66287037037</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa
-Kambräken</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6041-2025 artfynd.xlsx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6041-2025 karta.png", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6041-2025 FSC-klagomål.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6041-2025 FSC-klagomål mail.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6041-2025 tillsynsbegäran.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6041-2025 tillsynsbegäran mail.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6041-2025 prioriterade fågelarter.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 53008-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45957</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Kambräken
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53008-2025 artfynd.xlsx", "A 53008-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53008-2025 karta.png", "A 53008-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53008-2025 FSC-klagomål.docx", "A 53008-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53008-2025 FSC-klagomål mail.docx", "A 53008-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53008-2025 tillsynsbegäran.docx", "A 53008-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53008-2025 tillsynsbegäran mail.docx", "A 53008-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53008-2025 prioriterade fågelarter.docx", "A 53008-2025")</f>
         <v/>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1415,7 +1415,7 @@
         <v>44451</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1498,14 +1498,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 5637-2024</t>
+          <t>A 57116-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45334.6115162037</v>
+        <v>45979.46130787037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,16 +1518,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1552,226 +1552,226 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 57116-2025 artfynd.xlsx", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 57116-2025 karta.png", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 57116-2025 FSC-klagomål.docx", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 57116-2025 FSC-klagomål mail.docx", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 57116-2025 tillsynsbegäran.docx", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 57116-2025 tillsynsbegäran mail.docx", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 57116-2025 prioriterade fågelarter.docx", "A 57116-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 53007-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45957</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53007-2025 artfynd.xlsx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53007-2025 karta.png", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53007-2025 FSC-klagomål.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53007-2025 FSC-klagomål mail.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53007-2025 tillsynsbegäran.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53007-2025 tillsynsbegäran mail.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53007-2025 prioriterade fågelarter.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 5637-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45334.6115162037</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Klofibbla
 Åkerrödtoppa</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 5637-2024 artfynd.xlsx", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 5637-2024 karta.png", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 5637-2024 FSC-klagomål.docx", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 5637-2024 FSC-klagomål mail.docx", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 5637-2024 tillsynsbegäran.docx", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 5637-2024 tillsynsbegäran mail.docx", "A 5637-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 57116-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45979.46130787037</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 57116-2025 artfynd.xlsx", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 57116-2025 karta.png", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 57116-2025 FSC-klagomål.docx", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 57116-2025 FSC-klagomål mail.docx", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 57116-2025 tillsynsbegäran.docx", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 57116-2025 tillsynsbegäran mail.docx", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 57116-2025 prioriterade fågelarter.docx", "A 57116-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 53007-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45957</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53007-2025 artfynd.xlsx", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53007-2025 karta.png", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53007-2025 FSC-klagomål.docx", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53007-2025 FSC-klagomål mail.docx", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53007-2025 tillsynsbegäran.docx", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53007-2025 tillsynsbegäran mail.docx", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53007-2025 prioriterade fågelarter.docx", "A 53007-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49988-2023</t>
+          <t>A 6082-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45215</v>
+        <v>45697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1818,45 +1818,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 49988-2023 artfynd.xlsx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6082-2025 artfynd.xlsx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 49988-2023 karta.png", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6082-2025 karta.png", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 49988-2023 FSC-klagomål.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6082-2025 FSC-klagomål.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 49988-2023 FSC-klagomål mail.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6082-2025 FSC-klagomål mail.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 49988-2023 tillsynsbegäran.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6082-2025 tillsynsbegäran.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 49988-2023 tillsynsbegäran mail.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6082-2025 tillsynsbegäran mail.docx", "A 6082-2025")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6082-2025 prioriterade fågelarter.docx", "A 6082-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 6082-2025</t>
+          <t>A 33426-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45697</v>
+        <v>44377</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1869,7 +1873,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1878,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1893,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1903,49 +1907,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6082-2025 artfynd.xlsx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6082-2025 karta.png", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6082-2025 FSC-klagomål.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6082-2025 FSC-klagomål mail.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6082-2025 tillsynsbegäran.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6082-2025 tillsynsbegäran mail.docx", "A 6082-2025")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6082-2025 prioriterade fågelarter.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 33426-2021</t>
+          <t>A 38103-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44377</v>
+        <v>45882.49244212963</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1992,45 +1992,49 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 38103-2025 artfynd.xlsx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 38103-2025 karta.png", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 38103-2025 FSC-klagomål.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 38103-2025 FSC-klagomål mail.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 38103-2025 tillsynsbegäran.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 38103-2025 tillsynsbegäran mail.docx", "A 38103-2025")</f>
+        <v/>
+      </c>
+      <c r="Z17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 38103-2025 prioriterade fågelarter.docx", "A 38103-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 38103-2025</t>
+          <t>A 45243-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45882.49244212963</v>
+        <v>45919.60089120371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2043,7 +2047,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>8.1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2052,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2067,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2077,35 +2081,31 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 38103-2025 artfynd.xlsx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 38103-2025 karta.png", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 38103-2025 FSC-klagomål.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 38103-2025 FSC-klagomål mail.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 38103-2025 tillsynsbegäran.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 38103-2025 tillsynsbegäran mail.docx", "A 38103-2025")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 38103-2025 prioriterade fågelarter.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
     </row>
@@ -2119,7 +2119,7 @@
         <v>45454.71498842593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2197,14 +2197,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 45243-2025</t>
+          <t>A 49988-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45919.60089120371</v>
+        <v>45215</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2217,7 +2217,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>8.1</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2255,27 +2255,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 49988-2023 artfynd.xlsx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 49988-2023 karta.png", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 49988-2023 FSC-klagomål.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 49988-2023 FSC-klagomål mail.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 49988-2023 tillsynsbegäran.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 49988-2023 tillsynsbegäran mail.docx", "A 49988-2023")</f>
         <v/>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
         <v>44425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>44691</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2403,7 +2403,7 @@
         <v>44691</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2460,7 +2460,7 @@
         <v>44450.66346064815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2517,7 +2517,7 @@
         <v>44425</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2574,7 +2574,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>44836</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>44250</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2745,7 +2745,7 @@
         <v>44459.89270833333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2795,14 +2795,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 51930-2022</t>
+          <t>A 50413-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44872.64650462963</v>
+        <v>44459</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2852,14 +2852,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 48311-2021</t>
+          <t>A 30322-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44450</v>
+        <v>44760.44488425926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.3</v>
+        <v>1.9</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2909,14 +2909,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 50413-2021</t>
+          <t>A 30373-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44459</v>
+        <v>44760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2966,14 +2966,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 41765-2021</t>
+          <t>A 30377-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44425</v>
+        <v>44760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2986,7 +2986,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5.6</v>
+        <v>0.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3023,14 +3023,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 30322-2022</t>
+          <t>A 51930-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44760.44488425926</v>
+        <v>44872.64650462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3080,14 +3080,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 24461-2023</t>
+          <t>A 48311-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45082</v>
+        <v>44450</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3100,7 +3100,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3137,14 +3137,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 143-2023</t>
+          <t>A 17451-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44928.53378472223</v>
+        <v>45757.44825231482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3194,14 +3194,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 62221-2023</t>
+          <t>A 17455-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45267.54049768519</v>
+        <v>45757.45109953704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3214,7 +3214,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3251,14 +3251,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 4204-2024</t>
+          <t>A 62221-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45324.36422453704</v>
+        <v>45267.54049768519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3308,14 +3308,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 50071-2023</t>
+          <t>A 21240-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45215</v>
+        <v>45058</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3365,14 +3365,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 30170-2022</t>
+          <t>A 29223-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44757</v>
+        <v>45482.81978009259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3385,7 +3385,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.1</v>
+        <v>5.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3422,14 +3422,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 43520-2022</t>
+          <t>A 21883-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44837.37417824074</v>
+        <v>44322</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3479,14 +3479,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 63319-2021</t>
+          <t>A 21899-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44508.45226851852</v>
+        <v>44322</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3499,7 +3499,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3536,14 +3536,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 30373-2022</t>
+          <t>A 10655-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44760</v>
+        <v>44624</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>13.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3593,14 +3593,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 30377-2022</t>
+          <t>A 39714-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44760</v>
+        <v>45552.60074074074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3613,7 +3613,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3650,14 +3650,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 13880-2024</t>
+          <t>A 74285-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45391.59994212963</v>
+        <v>44558</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3707,14 +3707,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 29223-2024</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45482.81978009259</v>
+        <v>46056</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3727,7 +3727,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5.6</v>
+        <v>0.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3764,14 +3764,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 1995-2024</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45308</v>
+        <v>46056</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3784,7 +3784,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3821,14 +3821,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 21899-2021</t>
+          <t>A 6946-2026</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44322</v>
+        <v>46057</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3841,7 +3841,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3878,14 +3878,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 45990-2022</t>
+          <t>A 34366-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44846</v>
+        <v>44792</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3898,7 +3898,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3935,14 +3935,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 7505-2024</t>
+          <t>A 61417-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45347.93181712963</v>
+        <v>44916.35082175926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3992,14 +3992,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 13529-2024</t>
+          <t>A 19531-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45387.84504629629</v>
+        <v>45050.54896990741</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4049,14 +4049,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 8334-2023</t>
+          <t>A 32272-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44975</v>
+        <v>45120.35368055556</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4069,7 +4069,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.8</v>
+        <v>4.9</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4106,14 +4106,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 61417-2022</t>
+          <t>A 5705-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44916.35082175926</v>
+        <v>45694</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4126,7 +4126,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4163,14 +4163,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 32272-2023</t>
+          <t>A 32847-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45120.35368055556</v>
+        <v>45124.61965277778</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4220,14 +4220,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 32847-2023</t>
+          <t>A 7505-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45124.61965277778</v>
+        <v>45347.93181712963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4240,7 +4240,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.7</v>
+        <v>1.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4277,14 +4277,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 27463-2024</t>
+          <t>A 8334-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45474.45266203704</v>
+        <v>44975</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4297,7 +4297,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4334,14 +4334,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 10655-2022</t>
+          <t>A 25135-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44624</v>
+        <v>45798</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>13.3</v>
+        <v>1.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4391,14 +4391,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 17451-2025</t>
+          <t>A 40951-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45757.44825231482</v>
+        <v>45897.66342592592</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4448,14 +4448,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 17455-2025</t>
+          <t>A 32391-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45757.45109953704</v>
+        <v>45837.90662037037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4505,14 +4505,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 55830-2024</t>
+          <t>A 32392-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45623.48478009259</v>
+        <v>45837.9102199074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>5.1</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4562,14 +4562,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 56782-2022</t>
+          <t>A 33493-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44894.39475694444</v>
+        <v>44377</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4582,7 +4582,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4619,14 +4619,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 25135-2025</t>
+          <t>A 34250-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45798</v>
+        <v>45844</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4639,7 +4639,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4676,14 +4676,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4262-2024</t>
+          <t>A 33244-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45324.50902777778</v>
+        <v>44377</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>14</v>
+        <v>0.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4733,14 +4733,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 32392-2025</t>
+          <t>A 49985-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45837.9102199074</v>
+        <v>45215</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4790,14 +4790,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 32391-2025</t>
+          <t>A 34244-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45837.90662037037</v>
+        <v>45844</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4847,14 +4847,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 19531-2023</t>
+          <t>A 25624-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45050.54896990741</v>
+        <v>45803.57885416667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4904,14 +4904,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 4263-2024</t>
+          <t>A 36055-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45324.51049768519</v>
+        <v>45866</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4961,14 +4961,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 33493-2021</t>
+          <t>A 41442-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44377</v>
+        <v>45869</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5018,14 +5018,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 26812-2024</t>
+          <t>A 6096-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45470.54344907407</v>
+        <v>45697</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5075,14 +5075,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 34250-2025</t>
+          <t>A 37443-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45844</v>
+        <v>45877.54152777778</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5094,8 +5094,13 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5132,14 +5137,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 5705-2025</t>
+          <t>A 17922-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45694</v>
+        <v>45758.90710648148</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5152,7 +5157,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5189,14 +5194,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 49985-2023</t>
+          <t>A 50071-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
         <v>45215</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5209,7 +5214,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>8.199999999999999</v>
+        <v>4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5246,14 +5251,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 34244-2025</t>
+          <t>A 49981-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45844</v>
+        <v>45215</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5266,7 +5271,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5303,14 +5308,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 62979-2023</t>
+          <t>A 43207-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45271</v>
+        <v>45910.45111111111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5323,7 +5328,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5360,14 +5365,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 661-2025</t>
+          <t>A 56782-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45664.68572916667</v>
+        <v>44894.39475694444</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5380,7 +5385,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5417,14 +5422,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 25624-2025</t>
+          <t>A 45124-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45803.57885416667</v>
+        <v>45919.43206018519</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5437,7 +5442,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5474,14 +5479,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 36055-2025</t>
+          <t>A 1995-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45866</v>
+        <v>45308</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5494,7 +5499,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5531,14 +5536,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 6096-2025</t>
+          <t>A 30170-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45697</v>
+        <v>44757</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5551,7 +5556,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>8.699999999999999</v>
+        <v>3.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5588,14 +5593,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 41442-2025</t>
+          <t>A 46588-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45869</v>
+        <v>45926.39152777778</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5608,7 +5613,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5645,14 +5650,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 16538-2025</t>
+          <t>A 10810-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45751.66126157407</v>
+        <v>44989.75795138889</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5665,7 +5670,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5702,14 +5707,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 37443-2025</t>
+          <t>A 47564-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45877.54152777778</v>
+        <v>45931.38982638889</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5721,13 +5726,8 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5764,14 +5764,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 29801-2022</t>
+          <t>A 47569-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44755.70518518519</v>
+        <v>45931.39331018519</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5784,7 +5784,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.8</v>
+        <v>8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5821,14 +5821,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 49981-2023</t>
+          <t>A 4204-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45215</v>
+        <v>45324.36422453704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5878,14 +5878,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 33244-2021</t>
+          <t>A 55830-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44377</v>
+        <v>45623.48478009259</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5898,7 +5898,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5935,14 +5935,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 71835-2021</t>
+          <t>A 62128-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44543.62230324074</v>
+        <v>44502</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5955,7 +5955,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>7.5</v>
+        <v>1.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5992,14 +5992,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 21883-2021</t>
+          <t>A 62979-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44322</v>
+        <v>45271</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6012,7 +6012,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6049,14 +6049,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 17922-2025</t>
+          <t>A 13529-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45758.90710648148</v>
+        <v>45387.84504629629</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6069,7 +6069,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6106,14 +6106,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 10810-2023</t>
+          <t>A 52932-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44989.75795138889</v>
+        <v>45957.62373842593</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6126,7 +6126,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6163,14 +6163,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 62128-2021</t>
+          <t>A 44176-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44502</v>
+        <v>45188</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6183,7 +6183,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>7.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6220,14 +6220,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 40951-2025</t>
+          <t>A 26812-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45897.66342592592</v>
+        <v>45470.54344907407</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6277,14 +6277,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 21240-2023</t>
+          <t>A 29801-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45058</v>
+        <v>44755.70518518519</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>4.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6334,14 +6334,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 18851-2024</t>
+          <t>A 18852-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45426.69</v>
+        <v>45426.69550925926</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6391,14 +6391,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 21389-2023</t>
+          <t>A 43520-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45063</v>
+        <v>44837.37417824074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6448,14 +6448,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 44176-2023</t>
+          <t>A 56394-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45188</v>
+        <v>45974.74313657408</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>7.1</v>
+        <v>1.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6505,14 +6505,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 23457-2024</t>
+          <t>A 58408-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45453.65128472223</v>
+        <v>45985.56969907408</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>5.1</v>
+        <v>8.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6562,14 +6562,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 39714-2024</t>
+          <t>A 16538-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45552.60074074074</v>
+        <v>45751.66126157407</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6619,14 +6619,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 18852-2024</t>
+          <t>A 45990-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45426.69550925926</v>
+        <v>44846</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6639,7 +6639,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6676,14 +6676,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 43207-2025</t>
+          <t>A 143-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45910.45111111111</v>
+        <v>44928.53378472223</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.8</v>
+        <v>0.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6733,14 +6733,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 45124-2025</t>
+          <t>A 18851-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45919.43206018519</v>
+        <v>45426.69</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6790,14 +6790,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 51724-2023</t>
+          <t>A 71835-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45222</v>
+        <v>44543.62230324074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6847,14 +6847,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 5631-2024</t>
+          <t>A 4673-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45334.61013888889</v>
+        <v>46048.42462962963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6867,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6904,14 +6904,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 46588-2025</t>
+          <t>A 5655-2026</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45926.39152777778</v>
+        <v>46051.44604166667</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6924,7 +6924,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6961,14 +6961,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 21579-2025</t>
+          <t>A 51724-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45782.91234953704</v>
+        <v>45222</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6981,7 +6981,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7018,14 +7018,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 47569-2025</t>
+          <t>A 661-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45931.39331018519</v>
+        <v>45664.68572916667</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7038,7 +7038,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7075,14 +7075,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 47564-2025</t>
+          <t>A 24461-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45931.38982638889</v>
+        <v>45082</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7095,7 +7095,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7132,14 +7132,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 10679-2025</t>
+          <t>A 13880-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45721.89462962963</v>
+        <v>45391.59994212963</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7152,7 +7152,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.4</v>
+        <v>2.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7189,14 +7189,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 8943-2025</t>
+          <t>A 4263-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45713.45105324074</v>
+        <v>45324.51049768519</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7209,7 +7209,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7246,14 +7246,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 11237-2025</t>
+          <t>A 23457-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45726.36668981481</v>
+        <v>45453.65128472223</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.2</v>
+        <v>5.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7303,14 +7303,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 15078-2025</t>
+          <t>A 41765-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45743.84284722222</v>
+        <v>44425</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7323,7 +7323,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.8</v>
+        <v>5.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7360,14 +7360,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 10677-2025</t>
+          <t>A 21389-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45721.89055555555</v>
+        <v>45063</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7380,7 +7380,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>7.4</v>
+        <v>3.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7417,14 +7417,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 74285-2021</t>
+          <t>A 4262-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44558</v>
+        <v>45324.50902777778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7437,7 +7437,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>14</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7474,14 +7474,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 52932-2025</t>
+          <t>A 27463-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45957.62373842593</v>
+        <v>45474.45266203704</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7494,7 +7494,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7531,14 +7531,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 56394-2025</t>
+          <t>A 63319-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45974.74313657408</v>
+        <v>44508.45226851852</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7551,7 +7551,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7588,14 +7588,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 58408-2025</t>
+          <t>A 5631-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45985.56969907408</v>
+        <v>45334.61013888889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>8.1</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7645,14 +7645,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 4673-2026</t>
+          <t>A 21579-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46048.42462962963</v>
+        <v>45782.91234953704</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7665,7 +7665,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>8.199999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7702,14 +7702,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 5655-2026</t>
+          <t>A 10677-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46051.44604166667</v>
+        <v>45721.89055555555</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7722,7 +7722,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.6</v>
+        <v>7.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7759,14 +7759,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 6946-2026</t>
+          <t>A 10679-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46057</v>
+        <v>45721.89462962963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7779,7 +7779,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.2</v>
+        <v>4.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7816,14 +7816,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 8943-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46056</v>
+        <v>45713.45105324074</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7836,7 +7836,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7873,14 +7873,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 11237-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46056</v>
+        <v>45726.36668981481</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7893,7 +7893,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7930,14 +7930,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 34366-2022</t>
+          <t>A 15078-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44792</v>
+        <v>45743.84284722222</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7950,7 +7950,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -575,7 +575,7 @@
         <v>45548</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45526.57324074074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45993.54930555556</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -869,7 +869,7 @@
         <v>45695.66287037037</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -885,13 +885,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
         <v>2</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -906,17 +906,18 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
+Talltita
 Blåmossa
 Kambräken</t>
         </is>
@@ -960,7 +961,7 @@
         <v>45355.57679398148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1044,14 +1045,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 53008-2025</t>
+          <t>A 44132-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45957</v>
+        <v>45915.58515046296</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1063,18 +1064,23 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G7" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
         <v>2</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1088,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1097,225 +1103,220 @@
         <v>3</v>
       </c>
       <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Grönsångare
+Svartvit flugsnappare
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 44132-2025 artfynd.xlsx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 44132-2025 karta.png", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 44132-2025 FSC-klagomål.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 44132-2025 FSC-klagomål mail.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 44132-2025 tillsynsbegäran.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 44132-2025 tillsynsbegäran mail.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 44132-2025 prioriterade fågelarter.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 36424-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45868.90353009259</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Vedtrappmossa
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 36424-2025 artfynd.xlsx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 36424-2025 karta.png", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 36424-2025 FSC-klagomål.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 36424-2025 FSC-klagomål mail.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 36424-2025 tillsynsbegäran.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 36424-2025 tillsynsbegäran mail.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 36424-2025 prioriterade fågelarter.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 53008-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45957</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Kambräken
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53008-2025 artfynd.xlsx", "A 53008-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53008-2025 karta.png", "A 53008-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53008-2025 FSC-klagomål.docx", "A 53008-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53008-2025 FSC-klagomål mail.docx", "A 53008-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53008-2025 tillsynsbegäran.docx", "A 53008-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53008-2025 tillsynsbegäran mail.docx", "A 53008-2025")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53008-2025 prioriterade fågelarter.docx", "A 53008-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 36424-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45868.90353009259</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Vedtrappmossa
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 36424-2025 artfynd.xlsx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 36424-2025 karta.png", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 36424-2025 FSC-klagomål.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 36424-2025 FSC-klagomål mail.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 36424-2025 tillsynsbegäran.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 36424-2025 tillsynsbegäran mail.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 36424-2025 prioriterade fågelarter.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 44132-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45915.58515046296</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Grönsångare
-Svartvit flugsnappare
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 44132-2025 artfynd.xlsx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 44132-2025 karta.png", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 44132-2025 FSC-klagomål.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 44132-2025 FSC-klagomål mail.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 44132-2025 tillsynsbegäran.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 44132-2025 tillsynsbegäran mail.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 44132-2025 prioriterade fågelarter.docx", "A 44132-2025")</f>
         <v/>
       </c>
     </row>
@@ -1329,7 +1330,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1408,14 +1409,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 48345-2021</t>
+          <t>A 57116-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44451</v>
+        <v>45979.46130787037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1428,7 +1429,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1463,49 +1464,49 @@
       <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Blåmossa</t>
+Västlig hakmossa</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 48345-2021 artfynd.xlsx", "A 48345-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 57116-2025 artfynd.xlsx", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 48345-2021 karta.png", "A 48345-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 57116-2025 karta.png", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 48345-2021 FSC-klagomål.docx", "A 48345-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 57116-2025 FSC-klagomål.docx", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 48345-2021 FSC-klagomål mail.docx", "A 48345-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 57116-2025 FSC-klagomål mail.docx", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 48345-2021 tillsynsbegäran.docx", "A 48345-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 57116-2025 tillsynsbegäran.docx", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 48345-2021 tillsynsbegäran mail.docx", "A 48345-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 57116-2025 tillsynsbegäran mail.docx", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 48345-2021 prioriterade fågelarter.docx", "A 48345-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 57116-2025 prioriterade fågelarter.docx", "A 57116-2025")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 57116-2025</t>
+          <t>A 53007-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45979.46130787037</v>
+        <v>45957</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1518,7 +1519,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1557,45 +1558,45 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 57116-2025 artfynd.xlsx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53007-2025 artfynd.xlsx", "A 53007-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 57116-2025 karta.png", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53007-2025 karta.png", "A 53007-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 57116-2025 FSC-klagomål.docx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53007-2025 FSC-klagomål.docx", "A 53007-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 57116-2025 FSC-klagomål mail.docx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53007-2025 FSC-klagomål mail.docx", "A 53007-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 57116-2025 tillsynsbegäran.docx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53007-2025 tillsynsbegäran.docx", "A 53007-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 57116-2025 tillsynsbegäran mail.docx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53007-2025 tillsynsbegäran mail.docx", "A 53007-2025")</f>
         <v/>
       </c>
       <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 57116-2025 prioriterade fågelarter.docx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53007-2025 prioriterade fågelarter.docx", "A 53007-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 53007-2025</t>
+          <t>A 48345-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45957</v>
+        <v>44451</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1608,7 +1609,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1643,35 +1644,35 @@
       <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Västlig hakmossa</t>
+Blåmossa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53007-2025 artfynd.xlsx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 48345-2021 artfynd.xlsx", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53007-2025 karta.png", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 48345-2021 karta.png", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53007-2025 FSC-klagomål.docx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 48345-2021 FSC-klagomål.docx", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53007-2025 FSC-klagomål mail.docx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 48345-2021 FSC-klagomål mail.docx", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53007-2025 tillsynsbegäran.docx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 48345-2021 tillsynsbegäran.docx", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53007-2025 tillsynsbegäran mail.docx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 48345-2021 tillsynsbegäran mail.docx", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53007-2025 prioriterade fågelarter.docx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 48345-2021 prioriterade fågelarter.docx", "A 48345-2021")</f>
         <v/>
       </c>
     </row>
@@ -1685,7 +1686,7 @@
         <v>45334.6115162037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1771,7 +1772,7 @@
         <v>45697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1853,14 +1854,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 33426-2021</t>
+          <t>A 45243-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44377</v>
+        <v>45919.60089120371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1873,7 +1874,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>8.1</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1907,45 +1908,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 38103-2025</t>
+          <t>A 33426-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45882.49244212963</v>
+        <v>44377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1958,7 +1959,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1967,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1982,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -1992,49 +1993,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 38103-2025 artfynd.xlsx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 38103-2025 karta.png", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 38103-2025 FSC-klagomål.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 38103-2025 FSC-klagomål mail.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 38103-2025 tillsynsbegäran.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 38103-2025 tillsynsbegäran mail.docx", "A 38103-2025")</f>
-        <v/>
-      </c>
-      <c r="Z17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 38103-2025 prioriterade fågelarter.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 45243-2025</t>
+          <t>A 38103-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45919.60089120371</v>
+        <v>45882.49244212963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2047,7 +2044,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>8.1</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2056,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2071,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2081,31 +2078,35 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 38103-2025 artfynd.xlsx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 38103-2025 karta.png", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 38103-2025 FSC-klagomål.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 38103-2025 FSC-klagomål mail.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 38103-2025 tillsynsbegäran.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 38103-2025 tillsynsbegäran mail.docx", "A 38103-2025")</f>
+        <v/>
+      </c>
+      <c r="Z18">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 38103-2025 prioriterade fågelarter.docx", "A 38103-2025")</f>
         <v/>
       </c>
     </row>
@@ -2119,7 +2120,7 @@
         <v>45454.71498842593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2204,7 +2205,7 @@
         <v>45215</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2289,7 +2290,7 @@
         <v>44425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2346,7 +2347,7 @@
         <v>44691</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2403,7 +2404,7 @@
         <v>44691</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2460,7 +2461,7 @@
         <v>44450.66346064815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2517,7 +2518,7 @@
         <v>44425</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2574,7 +2575,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2631,7 +2632,7 @@
         <v>44836</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2688,7 +2689,7 @@
         <v>44250</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2745,7 +2746,7 @@
         <v>44459.89270833333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2802,7 +2803,7 @@
         <v>44459</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2859,7 +2860,7 @@
         <v>44760.44488425926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2916,7 +2917,7 @@
         <v>44760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2973,7 +2974,7 @@
         <v>44760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3030,7 +3031,7 @@
         <v>44872.64650462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3087,7 +3088,7 @@
         <v>44450</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3144,7 +3145,7 @@
         <v>45757.44825231482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3201,7 +3202,7 @@
         <v>45757.45109953704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3258,7 +3259,7 @@
         <v>45267.54049768519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3315,7 +3316,7 @@
         <v>45058</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3372,7 +3373,7 @@
         <v>45482.81978009259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3422,14 +3423,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 21883-2021</t>
+          <t>A 10655-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44322</v>
+        <v>44624</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3442,7 +3443,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>13.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3479,14 +3480,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 21899-2021</t>
+          <t>A 21883-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
         <v>44322</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3499,7 +3500,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3536,14 +3537,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 10655-2022</t>
+          <t>A 21899-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44624</v>
+        <v>44322</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3556,7 +3557,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>13.3</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3593,14 +3594,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 39714-2024</t>
+          <t>A 10677-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45552.60074074074</v>
+        <v>45721.89055555555</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3613,7 +3614,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.2</v>
+        <v>7.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3650,14 +3651,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 74285-2021</t>
+          <t>A 10679-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44558</v>
+        <v>45721.89462962963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3670,7 +3671,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3707,14 +3708,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 8943-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>46056</v>
+        <v>45713.45105324074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3727,7 +3728,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3764,14 +3765,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 11237-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>46056</v>
+        <v>45726.36668981481</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3784,7 +3785,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3821,14 +3822,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 6946-2026</t>
+          <t>A 39714-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>46057</v>
+        <v>45552.60074074074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3841,7 +3842,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3878,14 +3879,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 34366-2022</t>
+          <t>A 15078-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44792</v>
+        <v>45743.84284722222</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3898,7 +3899,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3935,14 +3936,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 61417-2022</t>
+          <t>A 74285-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44916.35082175926</v>
+        <v>44558</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3955,7 +3956,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3992,14 +3993,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 19531-2023</t>
+          <t>A 40951-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45050.54896990741</v>
+        <v>45897.66342592592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4012,7 +4013,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4049,14 +4050,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 32272-2023</t>
+          <t>A 61417-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45120.35368055556</v>
+        <v>44916.35082175926</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4069,7 +4070,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4106,14 +4107,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 5705-2025</t>
+          <t>A 32272-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45694</v>
+        <v>45120.35368055556</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4126,7 +4127,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4170,7 +4171,7 @@
         <v>45124.61965277778</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4220,14 +4221,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 7505-2024</t>
+          <t>A 19531-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45347.93181712963</v>
+        <v>45050.54896990741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4240,7 +4241,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4277,14 +4278,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 8334-2023</t>
+          <t>A 5705-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44975</v>
+        <v>45694</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4297,7 +4298,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4334,14 +4335,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 25135-2025</t>
+          <t>A 7505-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45798</v>
+        <v>45347.93181712963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4354,7 +4355,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4391,14 +4392,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 40951-2025</t>
+          <t>A 4673-2026</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45897.66342592592</v>
+        <v>46048.42462962963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4411,7 +4412,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4448,14 +4449,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 32391-2025</t>
+          <t>A 25135-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45837.90662037037</v>
+        <v>45798</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4468,7 +4469,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4505,14 +4506,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 32392-2025</t>
+          <t>A 45124-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45837.9102199074</v>
+        <v>45919.43206018519</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4525,7 +4526,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4562,14 +4563,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 33493-2021</t>
+          <t>A 8334-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44377</v>
+        <v>44975</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4582,7 +4583,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4619,14 +4620,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 34250-2025</t>
+          <t>A 5655-2026</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45844</v>
+        <v>46051.44604166667</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4639,7 +4640,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4676,14 +4677,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 33244-2021</t>
+          <t>A 32391-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44377</v>
+        <v>45837.90662037037</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4696,7 +4697,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4733,14 +4734,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 49985-2023</t>
+          <t>A 32392-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45215</v>
+        <v>45837.9102199074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4753,7 +4754,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>8.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4790,14 +4791,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 34244-2025</t>
+          <t>A 33493-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45844</v>
+        <v>44377</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4810,7 +4811,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4847,14 +4848,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 25624-2025</t>
+          <t>A 46588-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45803.57885416667</v>
+        <v>45926.39152777778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4867,7 +4868,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4904,14 +4905,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 36055-2025</t>
+          <t>A 47564-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45866</v>
+        <v>45931.38982638889</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4924,7 +4925,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4961,14 +4962,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 41442-2025</t>
+          <t>A 47569-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45869</v>
+        <v>45931.39331018519</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4981,7 +4982,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5018,14 +5019,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 6096-2025</t>
+          <t>A 34250-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45697</v>
+        <v>45844</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5038,7 +5039,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>8.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5075,14 +5076,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 37443-2025</t>
+          <t>A 49985-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45877.54152777778</v>
+        <v>45215</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5094,13 +5095,8 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>0.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5137,14 +5133,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 17922-2025</t>
+          <t>A 33244-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45758.90710648148</v>
+        <v>44377</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5157,7 +5153,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5194,14 +5190,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 50071-2023</t>
+          <t>A 34244-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45215</v>
+        <v>45844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5214,7 +5210,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5251,14 +5247,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 49981-2023</t>
+          <t>A 25624-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45215</v>
+        <v>45803.57885416667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5271,7 +5267,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5308,14 +5304,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 43207-2025</t>
+          <t>A 36055-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45910.45111111111</v>
+        <v>45866</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5328,7 +5324,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5365,14 +5361,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 56782-2022</t>
+          <t>A 41442-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44894.39475694444</v>
+        <v>45869</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5385,7 +5381,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5422,14 +5418,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 45124-2025</t>
+          <t>A 6096-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45919.43206018519</v>
+        <v>45697</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5442,7 +5438,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5479,14 +5475,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 1995-2024</t>
+          <t>A 37443-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45308</v>
+        <v>45877.54152777778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5498,8 +5494,13 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5536,14 +5537,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 30170-2022</t>
+          <t>A 52932-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44757</v>
+        <v>45957.62373842593</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5556,7 +5557,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5593,14 +5594,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 46588-2025</t>
+          <t>A 17922-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45926.39152777778</v>
+        <v>45758.90710648148</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5613,7 +5614,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5650,14 +5651,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 10810-2023</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44989.75795138889</v>
+        <v>46056</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5707,14 +5708,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 47564-2025</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45931.38982638889</v>
+        <v>46056</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5727,7 +5728,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5764,14 +5765,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 47569-2025</t>
+          <t>A 6946-2026</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45931.39331018519</v>
+        <v>46057</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5784,7 +5785,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>8</v>
+        <v>2.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5821,14 +5822,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 4204-2024</t>
+          <t>A 50071-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45324.36422453704</v>
+        <v>45215</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5841,7 +5842,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5878,14 +5879,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 55830-2024</t>
+          <t>A 34366-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45623.48478009259</v>
+        <v>44792</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5898,7 +5899,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.1</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5935,14 +5936,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 62128-2021</t>
+          <t>A 49981-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44502</v>
+        <v>45215</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5955,7 +5956,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5992,14 +5993,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 62979-2023</t>
+          <t>A 56782-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45271</v>
+        <v>44894.39475694444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6012,7 +6013,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6049,14 +6050,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 13529-2024</t>
+          <t>A 56394-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45387.84504629629</v>
+        <v>45974.74313657408</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6069,7 +6070,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6106,14 +6107,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 52932-2025</t>
+          <t>A 1995-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45957.62373842593</v>
+        <v>45308</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6126,7 +6127,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6163,14 +6164,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 44176-2023</t>
+          <t>A 58408-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45188</v>
+        <v>45985.56969907408</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6183,7 +6184,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6220,14 +6221,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 26812-2024</t>
+          <t>A 30170-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45470.54344907407</v>
+        <v>44757</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6240,7 +6241,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6277,14 +6278,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 29801-2022</t>
+          <t>A 10810-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44755.70518518519</v>
+        <v>44989.75795138889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6297,7 +6298,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.8</v>
+        <v>0.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6334,14 +6335,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 18852-2024</t>
+          <t>A 4204-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45426.69550925926</v>
+        <v>45324.36422453704</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6354,7 +6355,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6391,14 +6392,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43520-2022</t>
+          <t>A 43207-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44837.37417824074</v>
+        <v>45910.45111111111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6411,7 +6412,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>3.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6448,14 +6449,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 56394-2025</t>
+          <t>A 55830-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45974.74313657408</v>
+        <v>45623.48478009259</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6468,7 +6469,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6505,14 +6506,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 58408-2025</t>
+          <t>A 62128-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45985.56969907408</v>
+        <v>44502</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6525,7 +6526,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>8.1</v>
+        <v>1.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6562,14 +6563,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 16538-2025</t>
+          <t>A 62979-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45751.66126157407</v>
+        <v>45271</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6619,14 +6620,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 45990-2022</t>
+          <t>A 13529-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44846</v>
+        <v>45387.84504629629</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6639,7 +6640,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6676,14 +6677,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 143-2023</t>
+          <t>A 44176-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44928.53378472223</v>
+        <v>45188</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6696,7 +6697,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>7.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6733,14 +6734,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 18851-2024</t>
+          <t>A 26812-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45426.69</v>
+        <v>45470.54344907407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6753,7 +6754,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6790,14 +6791,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 71835-2021</t>
+          <t>A 29801-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44543.62230324074</v>
+        <v>44755.70518518519</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6810,7 +6811,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>7.5</v>
+        <v>4.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6847,14 +6848,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 4673-2026</t>
+          <t>A 18852-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46048.42462962963</v>
+        <v>45426.69550925926</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6867,7 +6868,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>8.199999999999999</v>
+        <v>2.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6904,14 +6905,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 5655-2026</t>
+          <t>A 43520-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46051.44604166667</v>
+        <v>44837.37417824074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6924,7 +6925,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6961,14 +6962,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 51724-2023</t>
+          <t>A 16538-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45222</v>
+        <v>45751.66126157407</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6981,7 +6982,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7018,14 +7019,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 661-2025</t>
+          <t>A 45990-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45664.68572916667</v>
+        <v>44846</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7038,7 +7039,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7075,14 +7076,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 24461-2023</t>
+          <t>A 143-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45082</v>
+        <v>44928.53378472223</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7095,7 +7096,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7132,14 +7133,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 13880-2024</t>
+          <t>A 18851-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45391.59994212963</v>
+        <v>45426.69</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7152,7 +7153,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7189,14 +7190,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 4263-2024</t>
+          <t>A 71835-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45324.51049768519</v>
+        <v>44543.62230324074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7209,7 +7210,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7246,14 +7247,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 23457-2024</t>
+          <t>A 51724-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45453.65128472223</v>
+        <v>45222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7266,7 +7267,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5.1</v>
+        <v>3.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7303,14 +7304,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 41765-2021</t>
+          <t>A 661-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44425</v>
+        <v>45664.68572916667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7323,7 +7324,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7360,14 +7361,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 21389-2023</t>
+          <t>A 24461-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45063</v>
+        <v>45082</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7380,7 +7381,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7417,14 +7418,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 4262-2024</t>
+          <t>A 13880-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45324.50902777778</v>
+        <v>45391.59994212963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7437,7 +7438,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>14</v>
+        <v>2.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7474,14 +7475,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 27463-2024</t>
+          <t>A 4263-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45474.45266203704</v>
+        <v>45324.51049768519</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7494,7 +7495,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7531,14 +7532,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 63319-2021</t>
+          <t>A 23457-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44508.45226851852</v>
+        <v>45453.65128472223</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7551,7 +7552,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.6</v>
+        <v>5.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7588,14 +7589,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 5631-2024</t>
+          <t>A 41765-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45334.61013888889</v>
+        <v>44425</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7608,7 +7609,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.3</v>
+        <v>5.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7645,14 +7646,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 21579-2025</t>
+          <t>A 21389-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45782.91234953704</v>
+        <v>45063</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7665,7 +7666,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7702,14 +7703,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 10677-2025</t>
+          <t>A 4262-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45721.89055555555</v>
+        <v>45324.50902777778</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7722,7 +7723,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>7.4</v>
+        <v>14</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7759,14 +7760,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 10679-2025</t>
+          <t>A 27463-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45721.89462962963</v>
+        <v>45474.45266203704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7779,7 +7780,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7816,14 +7817,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 8943-2025</t>
+          <t>A 63319-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45713.45105324074</v>
+        <v>44508.45226851852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7836,7 +7837,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7873,14 +7874,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 11237-2025</t>
+          <t>A 5631-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45726.36668981481</v>
+        <v>45334.61013888889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7893,7 +7894,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7930,14 +7931,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 15078-2025</t>
+          <t>A 21579-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45743.84284722222</v>
+        <v>45782.91234953704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7950,7 +7951,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -575,7 +575,7 @@
         <v>45548</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45526.57324074074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,14 +770,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 59985-2025</t>
+          <t>A 6041-2025</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45993.54930555556</v>
+        <v>45695.66287037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -790,39 +790,132 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
       </c>
       <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>Björktrast
+Spillkråka
+Talltita
+Blåmossa
+Kambräken</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6041-2025 artfynd.xlsx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6041-2025 karta.png", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6041-2025 FSC-klagomål.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6041-2025 FSC-klagomål mail.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6041-2025 tillsynsbegäran.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6041-2025 tillsynsbegäran mail.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="Z4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6041-2025 prioriterade fågelarter.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 59985-2025</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45993.54930555556</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2</v>
+      </c>
+      <c r="J5" t="n">
         <v>1</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
         <v>4</v>
       </c>
-      <c r="R4" s="2" t="inlineStr">
+      <c r="R5" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blåmossa
@@ -830,124 +923,32 @@
 Äkta lopplummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 59985-2025 artfynd.xlsx", "A 59985-2025")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 59985-2025 karta.png", "A 59985-2025")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 59985-2025 FSC-klagomål.docx", "A 59985-2025")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 59985-2025 FSC-klagomål mail.docx", "A 59985-2025")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 59985-2025 tillsynsbegäran.docx", "A 59985-2025")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 59985-2025 tillsynsbegäran mail.docx", "A 59985-2025")</f>
         <v/>
       </c>
-      <c r="Z4">
+      <c r="Z5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 59985-2025 prioriterade fågelarter.docx", "A 59985-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 6041-2025</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45695.66287037037</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>4</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Talltita
-Blåmossa
-Kambräken</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6041-2025 artfynd.xlsx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6041-2025 karta.png", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6041-2025 FSC-klagomål.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6041-2025 FSC-klagomål mail.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6041-2025 tillsynsbegäran.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6041-2025 tillsynsbegäran mail.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="Z5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6041-2025 prioriterade fågelarter.docx", "A 6041-2025")</f>
         <v/>
       </c>
     </row>
@@ -961,7 +962,7 @@
         <v>45355.57679398148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1052,7 +1053,7 @@
         <v>45915.58515046296</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1148,7 +1149,7 @@
         <v>45868.90353009259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1240,7 @@
         <v>45957</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1330,7 +1331,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1409,14 +1410,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 57116-2025</t>
+          <t>A 48345-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45979.46130787037</v>
+        <v>44451</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1429,7 +1430,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
@@ -1464,49 +1465,49 @@
       <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Västlig hakmossa</t>
+Blåmossa</t>
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 57116-2025 artfynd.xlsx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 48345-2021 artfynd.xlsx", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 57116-2025 karta.png", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 48345-2021 karta.png", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 57116-2025 FSC-klagomål.docx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 48345-2021 FSC-klagomål.docx", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 57116-2025 FSC-klagomål mail.docx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 48345-2021 FSC-klagomål mail.docx", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 57116-2025 tillsynsbegäran.docx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 48345-2021 tillsynsbegäran.docx", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 57116-2025 tillsynsbegäran mail.docx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 48345-2021 tillsynsbegäran mail.docx", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="Z11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 57116-2025 prioriterade fågelarter.docx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 48345-2021 prioriterade fågelarter.docx", "A 48345-2021")</f>
         <v/>
       </c>
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 53007-2025</t>
+          <t>A 57116-2025</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45957</v>
+        <v>45979.46130787037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1519,7 +1520,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1558,45 +1559,45 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53007-2025 artfynd.xlsx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 57116-2025 artfynd.xlsx", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53007-2025 karta.png", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 57116-2025 karta.png", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53007-2025 FSC-klagomål.docx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 57116-2025 FSC-klagomål.docx", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53007-2025 FSC-klagomål mail.docx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 57116-2025 FSC-klagomål mail.docx", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53007-2025 tillsynsbegäran.docx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 57116-2025 tillsynsbegäran.docx", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53007-2025 tillsynsbegäran mail.docx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 57116-2025 tillsynsbegäran mail.docx", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53007-2025 prioriterade fågelarter.docx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 57116-2025 prioriterade fågelarter.docx", "A 57116-2025")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 48345-2021</t>
+          <t>A 53007-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44451</v>
+        <v>45957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1609,7 +1610,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1644,35 +1645,35 @@
       <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Blåmossa</t>
+Västlig hakmossa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 48345-2021 artfynd.xlsx", "A 48345-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53007-2025 artfynd.xlsx", "A 53007-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 48345-2021 karta.png", "A 48345-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53007-2025 karta.png", "A 53007-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 48345-2021 FSC-klagomål.docx", "A 48345-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53007-2025 FSC-klagomål.docx", "A 53007-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 48345-2021 FSC-klagomål mail.docx", "A 48345-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53007-2025 FSC-klagomål mail.docx", "A 53007-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 48345-2021 tillsynsbegäran.docx", "A 48345-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53007-2025 tillsynsbegäran.docx", "A 53007-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 48345-2021 tillsynsbegäran mail.docx", "A 48345-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53007-2025 tillsynsbegäran mail.docx", "A 53007-2025")</f>
         <v/>
       </c>
       <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 48345-2021 prioriterade fågelarter.docx", "A 48345-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53007-2025 prioriterade fågelarter.docx", "A 53007-2025")</f>
         <v/>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
         <v>45334.6115162037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1772,7 +1773,7 @@
         <v>45697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1861,7 +1862,7 @@
         <v>45919.60089120371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1946,7 +1947,7 @@
         <v>44377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2031,7 +2032,7 @@
         <v>45882.49244212963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2120,7 +2121,7 @@
         <v>45454.71498842593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2205,7 +2206,7 @@
         <v>45215</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2290,7 +2291,7 @@
         <v>44425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2347,7 +2348,7 @@
         <v>44691</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2404,7 +2405,7 @@
         <v>44691</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2461,7 +2462,7 @@
         <v>44450.66346064815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2518,7 +2519,7 @@
         <v>44425</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2575,7 +2576,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2632,7 +2633,7 @@
         <v>44836</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2689,7 +2690,7 @@
         <v>44250</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2746,7 +2747,7 @@
         <v>44459.89270833333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2803,7 +2804,7 @@
         <v>44459</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2860,7 +2861,7 @@
         <v>44760.44488425926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2917,7 +2918,7 @@
         <v>44760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2974,7 +2975,7 @@
         <v>44760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3031,7 +3032,7 @@
         <v>44872.64650462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3088,7 +3089,7 @@
         <v>44450</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3145,7 +3146,7 @@
         <v>45757.44825231482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3202,7 +3203,7 @@
         <v>45757.45109953704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3259,7 +3260,7 @@
         <v>45267.54049768519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3316,7 +3317,7 @@
         <v>45058</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3373,7 +3374,7 @@
         <v>45482.81978009259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3423,14 +3424,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 10655-2022</t>
+          <t>A 21883-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44624</v>
+        <v>44322</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3443,7 +3444,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>13.3</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3480,14 +3481,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 21883-2021</t>
+          <t>A 21899-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
         <v>44322</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3500,7 +3501,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3537,14 +3538,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 21899-2021</t>
+          <t>A 10677-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44322</v>
+        <v>45721.89055555555</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3557,7 +3558,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>7.4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3594,14 +3595,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 10677-2025</t>
+          <t>A 10679-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45721.89055555555</v>
+        <v>45721.89462962963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3614,7 +3615,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>7.4</v>
+        <v>4.4</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3651,14 +3652,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 10679-2025</t>
+          <t>A 8943-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45721.89462962963</v>
+        <v>45713.45105324074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3671,7 +3672,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3708,14 +3709,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 8943-2025</t>
+          <t>A 11237-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45713.45105324074</v>
+        <v>45726.36668981481</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3728,7 +3729,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3765,14 +3766,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 11237-2025</t>
+          <t>A 10655-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45726.36668981481</v>
+        <v>44624</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3785,7 +3786,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>4.2</v>
+        <v>13.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3822,14 +3823,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 39714-2024</t>
+          <t>A 15078-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45552.60074074074</v>
+        <v>45743.84284722222</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3842,7 +3843,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3879,14 +3880,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 15078-2025</t>
+          <t>A 39714-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45743.84284722222</v>
+        <v>45552.60074074074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3899,7 +3900,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3943,7 +3944,7 @@
         <v>44558</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4000,7 +4001,7 @@
         <v>45897.66342592592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4050,14 +4051,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 61417-2022</t>
+          <t>A 56394-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44916.35082175926</v>
+        <v>45974.74313657408</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4070,7 +4071,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4107,14 +4108,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 32272-2023</t>
+          <t>A 61417-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45120.35368055556</v>
+        <v>44916.35082175926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4127,7 +4128,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4164,14 +4165,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 32847-2023</t>
+          <t>A 32272-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45124.61965277778</v>
+        <v>45120.35368055556</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4184,7 +4185,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4221,14 +4222,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 19531-2023</t>
+          <t>A 32847-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45050.54896990741</v>
+        <v>45124.61965277778</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4241,7 +4242,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.9</v>
+        <v>4.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4278,14 +4279,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 5705-2025</t>
+          <t>A 19531-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45694</v>
+        <v>45050.54896990741</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4298,7 +4299,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4335,14 +4336,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 7505-2024</t>
+          <t>A 58408-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45347.93181712963</v>
+        <v>45985.56969907408</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4355,7 +4356,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>8.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4392,14 +4393,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 4673-2026</t>
+          <t>A 5705-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>46048.42462962963</v>
+        <v>45694</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4412,7 +4413,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>8.199999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4449,14 +4450,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 25135-2025</t>
+          <t>A 45124-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45798</v>
+        <v>45919.43206018519</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4469,7 +4470,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4506,14 +4507,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 45124-2025</t>
+          <t>A 7505-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45919.43206018519</v>
+        <v>45347.93181712963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4526,7 +4527,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4563,14 +4564,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 8334-2023</t>
+          <t>A 25135-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44975</v>
+        <v>45798</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4583,7 +4584,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4620,14 +4621,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 5655-2026</t>
+          <t>A 46588-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>46051.44604166667</v>
+        <v>45926.39152777778</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4640,7 +4641,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4677,14 +4678,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 32391-2025</t>
+          <t>A 47564-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45837.90662037037</v>
+        <v>45931.38982638889</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4697,7 +4698,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4734,14 +4735,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 32392-2025</t>
+          <t>A 47569-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45837.9102199074</v>
+        <v>45931.39331018519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4754,7 +4755,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4791,14 +4792,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 33493-2021</t>
+          <t>A 8334-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44377</v>
+        <v>44975</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4811,7 +4812,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4848,14 +4849,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 46588-2025</t>
+          <t>A 32391-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45926.39152777778</v>
+        <v>45837.90662037037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4868,7 +4869,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4905,14 +4906,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 47564-2025</t>
+          <t>A 32392-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45931.38982638889</v>
+        <v>45837.9102199074</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4925,7 +4926,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4962,14 +4963,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 47569-2025</t>
+          <t>A 33493-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45931.39331018519</v>
+        <v>44377</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4982,7 +4983,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>8</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5026,7 +5027,7 @@
         <v>45844</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5083,7 +5084,7 @@
         <v>45215</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5140,7 +5141,7 @@
         <v>44377</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5197,7 +5198,7 @@
         <v>45844</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5254,7 +5255,7 @@
         <v>45803.57885416667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5311,7 +5312,7 @@
         <v>45866</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5361,14 +5362,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 41442-2025</t>
+          <t>A 52932-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45869</v>
+        <v>45957.62373842593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5381,7 +5382,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5418,14 +5419,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 6096-2025</t>
+          <t>A 41442-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45697</v>
+        <v>45869</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5438,7 +5439,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>8.699999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5475,14 +5476,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 37443-2025</t>
+          <t>A 6096-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45877.54152777778</v>
+        <v>45697</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5494,13 +5495,8 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5537,14 +5533,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 52932-2025</t>
+          <t>A 37443-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45957.62373842593</v>
+        <v>45877.54152777778</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5556,8 +5552,13 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5601,7 +5602,7 @@
         <v>45758.90710648148</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5651,14 +5652,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 50071-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>46056</v>
+        <v>45215</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5671,7 +5672,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5708,14 +5709,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 49981-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>46056</v>
+        <v>45215</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5728,7 +5729,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5765,14 +5766,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 6946-2026</t>
+          <t>A 56782-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>46057</v>
+        <v>44894.39475694444</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,7 +5786,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5822,14 +5823,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 50071-2023</t>
+          <t>A 1995-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45215</v>
+        <v>45308</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5842,7 +5843,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5879,14 +5880,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 34366-2022</t>
+          <t>A 30170-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44792</v>
+        <v>44757</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5899,7 +5900,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5936,14 +5937,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 49981-2023</t>
+          <t>A 10810-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45215</v>
+        <v>44989.75795138889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5956,7 +5957,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5993,14 +5994,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 56782-2022</t>
+          <t>A 4204-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44894.39475694444</v>
+        <v>45324.36422453704</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6013,7 +6014,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6050,14 +6051,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 56394-2025</t>
+          <t>A 55830-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45974.74313657408</v>
+        <v>45623.48478009259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6070,7 +6071,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6107,14 +6108,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 1995-2024</t>
+          <t>A 4673-2026</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45308</v>
+        <v>46048.42462962963</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6127,7 +6128,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6164,14 +6165,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 58408-2025</t>
+          <t>A 62128-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45985.56969907408</v>
+        <v>44502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6184,7 +6185,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>8.1</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6221,14 +6222,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 30170-2022</t>
+          <t>A 62979-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44757</v>
+        <v>45271</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6241,7 +6242,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6278,14 +6279,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 10810-2023</t>
+          <t>A 5655-2026</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44989.75795138889</v>
+        <v>46051.44604166667</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6298,7 +6299,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6335,14 +6336,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 4204-2024</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45324.36422453704</v>
+        <v>46056</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6355,7 +6356,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6392,14 +6393,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43207-2025</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45910.45111111111</v>
+        <v>46056</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6412,7 +6413,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6449,14 +6450,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 55830-2024</t>
+          <t>A 13529-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45623.48478009259</v>
+        <v>45387.84504629629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6469,7 +6470,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6506,14 +6507,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 62128-2021</t>
+          <t>A 6946-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44502</v>
+        <v>46057</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6526,7 +6527,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6563,14 +6564,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 62979-2023</t>
+          <t>A 44176-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45271</v>
+        <v>45188</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6583,7 +6584,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.8</v>
+        <v>7.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6620,14 +6621,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 13529-2024</t>
+          <t>A 34366-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45387.84504629629</v>
+        <v>44792</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6640,7 +6641,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6677,14 +6678,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 44176-2023</t>
+          <t>A 26812-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45188</v>
+        <v>45470.54344907407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6697,7 +6698,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>7.1</v>
+        <v>1.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6734,14 +6735,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 26812-2024</t>
+          <t>A 29801-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45470.54344907407</v>
+        <v>44755.70518518519</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6754,7 +6755,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>4.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6791,14 +6792,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 29801-2022</t>
+          <t>A 18852-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44755.70518518519</v>
+        <v>45426.69550925926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6811,7 +6812,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6848,14 +6849,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 18852-2024</t>
+          <t>A 43207-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45426.69550925926</v>
+        <v>45910.45111111111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6868,7 +6869,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6912,7 +6913,7 @@
         <v>44837.37417824074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6969,7 +6970,7 @@
         <v>45751.66126157407</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7026,7 +7027,7 @@
         <v>44846</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7083,7 +7084,7 @@
         <v>44928.53378472223</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7140,7 +7141,7 @@
         <v>45426.69</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7197,7 +7198,7 @@
         <v>44543.62230324074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7254,7 +7255,7 @@
         <v>45222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7311,7 +7312,7 @@
         <v>45664.68572916667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7368,7 +7369,7 @@
         <v>45082</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7425,7 +7426,7 @@
         <v>45391.59994212963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7482,7 +7483,7 @@
         <v>45324.51049768519</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7539,7 +7540,7 @@
         <v>45453.65128472223</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7596,7 +7597,7 @@
         <v>44425</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7653,7 +7654,7 @@
         <v>45063</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7710,7 +7711,7 @@
         <v>45324.50902777778</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7767,7 +7768,7 @@
         <v>45474.45266203704</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7824,7 +7825,7 @@
         <v>44508.45226851852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7881,7 +7882,7 @@
         <v>45334.61013888889</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7938,7 +7939,7 @@
         <v>45782.91234953704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -575,7 +575,7 @@
         <v>45548</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,14 +677,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 34725-2024</t>
+          <t>A 6041-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45526.57324074074</v>
+        <v>45695.66287037037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>14.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -730,6 +730,99 @@
         <v>5</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Björktrast
+Spillkråka
+Talltita
+Blåmossa
+Kambräken</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6041-2025 artfynd.xlsx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6041-2025 karta.png", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6041-2025 FSC-klagomål.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6041-2025 FSC-klagomål mail.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6041-2025 tillsynsbegäran.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6041-2025 tillsynsbegäran mail.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6041-2025 prioriterade fågelarter.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 34725-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45526.57324074074</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Mindre hackspett
 Spillkråka
@@ -738,125 +831,32 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 34725-2024 artfynd.xlsx", "A 34725-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 34725-2024 karta.png", "A 34725-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 34725-2024 FSC-klagomål.docx", "A 34725-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 34725-2024 FSC-klagomål mail.docx", "A 34725-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 34725-2024 tillsynsbegäran.docx", "A 34725-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 34725-2024 tillsynsbegäran mail.docx", "A 34725-2024")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 34725-2024 prioriterade fågelarter.docx", "A 34725-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 6041-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45695.66287037037</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Björktrast
-Spillkråka
-Talltita
-Blåmossa
-Kambräken</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6041-2025 artfynd.xlsx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6041-2025 karta.png", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6041-2025 FSC-klagomål.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6041-2025 FSC-klagomål mail.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6041-2025 tillsynsbegäran.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6041-2025 tillsynsbegäran mail.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6041-2025 prioriterade fågelarter.docx", "A 6041-2025")</f>
         <v/>
       </c>
     </row>
@@ -870,7 +870,7 @@
         <v>45993.54930555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -955,14 +955,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 8558-2024</t>
+          <t>A 44132-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45355.57679398148</v>
+        <v>45915.58515046296</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -974,8 +974,13 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>12.5</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
@@ -1008,225 +1013,220 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Grönsångare
+Svartvit flugsnappare
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 44132-2025 artfynd.xlsx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 44132-2025 karta.png", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 44132-2025 FSC-klagomål.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 44132-2025 FSC-klagomål mail.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 44132-2025 tillsynsbegäran.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 44132-2025 tillsynsbegäran mail.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 44132-2025 prioriterade fågelarter.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 36424-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45868.90353009259</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Vedtrappmossa
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 36424-2025 artfynd.xlsx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 36424-2025 karta.png", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 36424-2025 FSC-klagomål.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 36424-2025 FSC-klagomål mail.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 36424-2025 tillsynsbegäran.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 36424-2025 tillsynsbegäran mail.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 36424-2025 prioriterade fågelarter.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 8558-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45355.57679398148</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Gulsparv
 Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 8558-2024 artfynd.xlsx", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 8558-2024 karta.png", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 8558-2024 FSC-klagomål.docx", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 8558-2024 FSC-klagomål mail.docx", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 8558-2024 tillsynsbegäran.docx", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 8558-2024 tillsynsbegäran mail.docx", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 8558-2024 prioriterade fågelarter.docx", "A 8558-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 44132-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45915.58515046296</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Grönsångare
-Svartvit flugsnappare
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 44132-2025 artfynd.xlsx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 44132-2025 karta.png", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 44132-2025 FSC-klagomål.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 44132-2025 FSC-klagomål mail.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 44132-2025 tillsynsbegäran.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 44132-2025 tillsynsbegäran mail.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 44132-2025 prioriterade fågelarter.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 36424-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45868.90353009259</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Vedtrappmossa
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 36424-2025 artfynd.xlsx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 36424-2025 karta.png", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 36424-2025 FSC-klagomål.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 36424-2025 FSC-klagomål mail.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 36424-2025 tillsynsbegäran.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 36424-2025 tillsynsbegäran mail.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 36424-2025 prioriterade fågelarter.docx", "A 36424-2025")</f>
         <v/>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
         <v>45957</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1324,14 +1324,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 33448-2021</t>
+          <t>A 5637-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44377</v>
+        <v>45334.6115162037</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1344,16 +1344,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>14.7</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1378,402 +1378,402 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Klofibbla
+Åkerrödtoppa</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 5637-2024 artfynd.xlsx", "A 5637-2024")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 5637-2024 karta.png", "A 5637-2024")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 5637-2024 FSC-klagomål.docx", "A 5637-2024")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 5637-2024 FSC-klagomål mail.docx", "A 5637-2024")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 5637-2024 tillsynsbegäran.docx", "A 5637-2024")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 5637-2024 tillsynsbegäran mail.docx", "A 5637-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 33448-2021</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44377</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Blåmossa
 Mattlummer</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33448-2021 artfynd.xlsx", "A 33448-2021")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33448-2021 karta.png", "A 33448-2021")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33448-2021 FSC-klagomål.docx", "A 33448-2021")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33448-2021 FSC-klagomål mail.docx", "A 33448-2021")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33448-2021 tillsynsbegäran.docx", "A 33448-2021")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33448-2021 tillsynsbegäran mail.docx", "A 33448-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
         <is>
           <t>A 48345-2021</t>
         </is>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B12" s="1" t="n">
         <v>44451</v>
       </c>
-      <c r="C11" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="C12" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>3</v>
       </c>
-      <c r="H11" t="n">
+      <c r="H12" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I12" t="n">
         <v>1</v>
       </c>
-      <c r="J11" t="n">
+      <c r="J12" t="n">
         <v>1</v>
       </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>2</v>
       </c>
-      <c r="R11" s="2" t="inlineStr">
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Blåmossa</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 48345-2021 artfynd.xlsx", "A 48345-2021")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 48345-2021 karta.png", "A 48345-2021")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 48345-2021 FSC-klagomål.docx", "A 48345-2021")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 48345-2021 FSC-klagomål mail.docx", "A 48345-2021")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 48345-2021 tillsynsbegäran.docx", "A 48345-2021")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 48345-2021 tillsynsbegäran mail.docx", "A 48345-2021")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 48345-2021 prioriterade fågelarter.docx", "A 48345-2021")</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
         <is>
           <t>A 57116-2025</t>
         </is>
       </c>
-      <c r="B12" s="1" t="n">
+      <c r="B13" s="1" t="n">
         <v>45979.46130787037</v>
       </c>
-      <c r="C12" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
+      <c r="C13" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>3.5</v>
       </c>
-      <c r="H12" t="n">
+      <c r="H13" t="n">
         <v>1</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I13" t="n">
         <v>1</v>
       </c>
-      <c r="J12" t="n">
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2</v>
       </c>
-      <c r="R12" s="2" t="inlineStr">
+      <c r="R13" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S12">
+      <c r="S13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 57116-2025 artfynd.xlsx", "A 57116-2025")</f>
         <v/>
       </c>
-      <c r="T12">
+      <c r="T13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 57116-2025 karta.png", "A 57116-2025")</f>
         <v/>
       </c>
-      <c r="V12">
+      <c r="V13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 57116-2025 FSC-klagomål.docx", "A 57116-2025")</f>
         <v/>
       </c>
-      <c r="W12">
+      <c r="W13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 57116-2025 FSC-klagomål mail.docx", "A 57116-2025")</f>
         <v/>
       </c>
-      <c r="X12">
+      <c r="X13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 57116-2025 tillsynsbegäran.docx", "A 57116-2025")</f>
         <v/>
       </c>
-      <c r="Y12">
+      <c r="Y13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 57116-2025 tillsynsbegäran mail.docx", "A 57116-2025")</f>
         <v/>
       </c>
-      <c r="Z12">
+      <c r="Z13">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 57116-2025 prioriterade fågelarter.docx", "A 57116-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
         <is>
           <t>A 53007-2025</t>
         </is>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B14" s="1" t="n">
         <v>45957</v>
       </c>
-      <c r="C13" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
+      <c r="C14" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>2.9</v>
       </c>
-      <c r="H13" t="n">
+      <c r="H14" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I14" t="n">
         <v>1</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J14" t="n">
         <v>1</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2</v>
       </c>
-      <c r="R13" s="2" t="inlineStr">
+      <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53007-2025 artfynd.xlsx", "A 53007-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53007-2025 karta.png", "A 53007-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53007-2025 FSC-klagomål.docx", "A 53007-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53007-2025 FSC-klagomål mail.docx", "A 53007-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53007-2025 tillsynsbegäran.docx", "A 53007-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53007-2025 tillsynsbegäran mail.docx", "A 53007-2025")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53007-2025 prioriterade fågelarter.docx", "A 53007-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 5637-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45334.6115162037</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Klofibbla
-Åkerrödtoppa</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 5637-2024 artfynd.xlsx", "A 5637-2024")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 5637-2024 karta.png", "A 5637-2024")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 5637-2024 FSC-klagomål.docx", "A 5637-2024")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 5637-2024 FSC-klagomål mail.docx", "A 5637-2024")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 5637-2024 tillsynsbegäran.docx", "A 5637-2024")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 5637-2024 tillsynsbegäran mail.docx", "A 5637-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 6082-2025</t>
+          <t>A 49988-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45697</v>
+        <v>45215</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1820,49 +1820,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6082-2025 artfynd.xlsx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 49988-2023 artfynd.xlsx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6082-2025 karta.png", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 49988-2023 karta.png", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6082-2025 FSC-klagomål.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 49988-2023 FSC-klagomål.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6082-2025 FSC-klagomål mail.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 49988-2023 FSC-klagomål mail.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6082-2025 tillsynsbegäran.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 49988-2023 tillsynsbegäran.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6082-2025 tillsynsbegäran mail.docx", "A 6082-2025")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6082-2025 prioriterade fågelarter.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 49988-2023 tillsynsbegäran mail.docx", "A 49988-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 45243-2025</t>
+          <t>A 23704-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45919.60089120371</v>
+        <v>45454.71498842593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,7 +1871,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>8.1</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1887,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1899,55 +1895,55 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Hedjohannesört</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 23704-2024 artfynd.xlsx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 23704-2024 karta.png", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 23704-2024 FSC-klagomål.docx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 23704-2024 FSC-klagomål mail.docx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 23704-2024 tillsynsbegäran.docx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 23704-2024 tillsynsbegäran mail.docx", "A 23704-2024")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 33426-2021</t>
+          <t>A 45243-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44377</v>
+        <v>45919.60089120371</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1960,7 +1956,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>8.1</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1994,45 +1990,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 38103-2025</t>
+          <t>A 6082-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45882.49244212963</v>
+        <v>45697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2045,7 +2041,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2083,45 +2079,45 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 38103-2025 artfynd.xlsx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6082-2025 artfynd.xlsx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 38103-2025 karta.png", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6082-2025 karta.png", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 38103-2025 FSC-klagomål.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6082-2025 FSC-klagomål.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 38103-2025 FSC-klagomål mail.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6082-2025 FSC-klagomål mail.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 38103-2025 tillsynsbegäran.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6082-2025 tillsynsbegäran.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 38103-2025 tillsynsbegäran mail.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6082-2025 tillsynsbegäran mail.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 38103-2025 prioriterade fågelarter.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6082-2025 prioriterade fågelarter.docx", "A 6082-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 23704-2024</t>
+          <t>A 33426-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45454.71498842593</v>
+        <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2134,7 +2130,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.9</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2146,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2158,55 +2154,55 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Hedjohannesört</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 23704-2024 artfynd.xlsx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 23704-2024 karta.png", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 23704-2024 FSC-klagomål.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 23704-2024 FSC-klagomål mail.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 23704-2024 tillsynsbegäran.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 23704-2024 tillsynsbegäran mail.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 49988-2023</t>
+          <t>A 38103-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45215</v>
+        <v>45882.49244212963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2219,7 +2215,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2228,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2243,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2253,31 +2249,35 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 49988-2023 artfynd.xlsx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 38103-2025 artfynd.xlsx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 49988-2023 karta.png", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 38103-2025 karta.png", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 49988-2023 FSC-klagomål.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 38103-2025 FSC-klagomål.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 49988-2023 FSC-klagomål mail.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 38103-2025 FSC-klagomål mail.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 49988-2023 tillsynsbegäran.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 38103-2025 tillsynsbegäran.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 49988-2023 tillsynsbegäran mail.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 38103-2025 tillsynsbegäran mail.docx", "A 38103-2025")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 38103-2025 prioriterade fågelarter.docx", "A 38103-2025")</f>
         <v/>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
         <v>44425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44691</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44691</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44450.66346064815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44425</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44836</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44250</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44459.89270833333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44459</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>44760.44488425926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44872.64650462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44450</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,14 +3139,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 17451-2025</t>
+          <t>A 62221-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45757.44825231482</v>
+        <v>45267.54049768519</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 17455-2025</t>
+          <t>A 4204-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45757.45109953704</v>
+        <v>45324.36422453704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 62221-2023</t>
+          <t>A 50071-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45267.54049768519</v>
+        <v>45215</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3310,14 +3310,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 21240-2023</t>
+          <t>A 30170-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45058</v>
+        <v>44757</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3367,14 +3367,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 29223-2024</t>
+          <t>A 47569-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45482.81978009259</v>
+        <v>45931.39331018519</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5.6</v>
+        <v>8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3424,14 +3424,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 21883-2021</t>
+          <t>A 47564-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44322</v>
+        <v>45931.38982638889</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3481,14 +3481,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 21899-2021</t>
+          <t>A 51724-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44322</v>
+        <v>45222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3538,14 +3538,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 10677-2025</t>
+          <t>A 17922-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45721.89055555555</v>
+        <v>45758.90710648148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>7.4</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3595,14 +3595,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 10679-2025</t>
+          <t>A 5631-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45721.89462962963</v>
+        <v>45334.61013888889</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3652,14 +3652,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 8943-2025</t>
+          <t>A 13880-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45713.45105324074</v>
+        <v>45391.59994212963</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3709,14 +3709,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 11237-2025</t>
+          <t>A 1995-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45726.36668981481</v>
+        <v>45308</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3766,14 +3766,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 10655-2022</t>
+          <t>A 21579-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44624</v>
+        <v>45782.91234953704</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>13.3</v>
+        <v>1.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3823,14 +3823,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 15078-2025</t>
+          <t>A 21899-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45743.84284722222</v>
+        <v>44322</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3880,14 +3880,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 39714-2024</t>
+          <t>A 45990-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45552.60074074074</v>
+        <v>44846</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3937,14 +3937,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 74285-2021</t>
+          <t>A 10679-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44558</v>
+        <v>45721.89462962963</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3994,14 +3994,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 40951-2025</t>
+          <t>A 8943-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45897.66342592592</v>
+        <v>45713.45105324074</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4051,14 +4051,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 56394-2025</t>
+          <t>A 11237-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45974.74313657408</v>
+        <v>45726.36668981481</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4108,14 +4108,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 61417-2022</t>
+          <t>A 40951-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44916.35082175926</v>
+        <v>45897.66342592592</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4165,14 +4165,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 32272-2023</t>
+          <t>A 41765-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45120.35368055556</v>
+        <v>44425</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4222,14 +4222,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 32847-2023</t>
+          <t>A 15078-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45124.61965277778</v>
+        <v>45743.84284722222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4279,14 +4279,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 19531-2023</t>
+          <t>A 10677-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45050.54896990741</v>
+        <v>45721.89055555555</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.9</v>
+        <v>7.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4336,14 +4336,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 58408-2025</t>
+          <t>A 74285-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45985.56969907408</v>
+        <v>44558</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>8.1</v>
+        <v>1.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4393,14 +4393,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 5705-2025</t>
+          <t>A 52932-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45694</v>
+        <v>45957.62373842593</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4450,14 +4450,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 45124-2025</t>
+          <t>A 43520-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45919.43206018519</v>
+        <v>44837.37417824074</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4507,14 +4507,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 7505-2024</t>
+          <t>A 45124-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45347.93181712963</v>
+        <v>45919.43206018519</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4564,14 +4564,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 25135-2025</t>
+          <t>A 29223-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45798</v>
+        <v>45482.81978009259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4621,14 +4621,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 46588-2025</t>
+          <t>A 61417-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45926.39152777778</v>
+        <v>44916.35082175926</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4678,14 +4678,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 47564-2025</t>
+          <t>A 32272-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45931.38982638889</v>
+        <v>45120.35368055556</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2</v>
+        <v>4.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4735,14 +4735,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 47569-2025</t>
+          <t>A 32847-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45931.39331018519</v>
+        <v>45124.61965277778</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>8</v>
+        <v>4.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4792,14 +4792,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 8334-2023</t>
+          <t>A 46588-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44975</v>
+        <v>45926.39152777778</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4849,14 +4849,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 32391-2025</t>
+          <t>A 56394-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45837.90662037037</v>
+        <v>45974.74313657408</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4906,14 +4906,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 32392-2025</t>
+          <t>A 8334-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45837.9102199074</v>
+        <v>44975</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4963,14 +4963,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 33493-2021</t>
+          <t>A 25135-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44377</v>
+        <v>45798</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5020,14 +5020,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 34250-2025</t>
+          <t>A 32392-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45844</v>
+        <v>45837.9102199074</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5077,14 +5077,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 49985-2023</t>
+          <t>A 32391-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45215</v>
+        <v>45837.90662037037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8.199999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5134,14 +5134,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 33244-2021</t>
+          <t>A 58408-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44377</v>
+        <v>45985.56969907408</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>8.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5191,14 +5191,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 34244-2025</t>
+          <t>A 33493-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45844</v>
+        <v>44377</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5248,14 +5248,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 25624-2025</t>
+          <t>A 34250-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45803.57885416667</v>
+        <v>45844</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5305,14 +5305,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 36055-2025</t>
+          <t>A 49985-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45866</v>
+        <v>45215</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5362,14 +5362,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 52932-2025</t>
+          <t>A 34244-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45957.62373842593</v>
+        <v>45844</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5419,14 +5419,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 41442-2025</t>
+          <t>A 25624-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45869</v>
+        <v>45803.57885416667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5476,14 +5476,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 6096-2025</t>
+          <t>A 55830-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45697</v>
+        <v>45623.48478009259</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>8.699999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5533,14 +5533,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 37443-2025</t>
+          <t>A 36055-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45877.54152777778</v>
+        <v>45866</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5552,13 +5552,8 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5595,14 +5590,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 17922-2025</t>
+          <t>A 6096-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45758.90710648148</v>
+        <v>45697</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5615,7 +5610,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5652,14 +5647,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 50071-2023</t>
+          <t>A 41442-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45215</v>
+        <v>45869</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5672,7 +5667,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5709,14 +5704,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 49981-2023</t>
+          <t>A 4262-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45215</v>
+        <v>45324.50902777778</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5729,7 +5724,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.5</v>
+        <v>14</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5766,14 +5761,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 56782-2022</t>
+          <t>A 37443-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44894.39475694444</v>
+        <v>45877.54152777778</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5785,8 +5780,13 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5823,14 +5823,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 1995-2024</t>
+          <t>A 661-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45308</v>
+        <v>45664.68572916667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5880,14 +5880,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 30170-2022</t>
+          <t>A 4673-2026</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44757</v>
+        <v>46048.42462962963</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5937,14 +5937,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 10810-2023</t>
+          <t>A 33244-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44989.75795138889</v>
+        <v>44377</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5994,14 +5994,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 4204-2024</t>
+          <t>A 5655-2026</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45324.36422453704</v>
+        <v>46051.44604166667</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6051,14 +6051,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 55830-2024</t>
+          <t>A 24461-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45623.48478009259</v>
+        <v>45082</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.1</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6108,14 +6108,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 4673-2026</t>
+          <t>A 6946-2026</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46048.42462962963</v>
+        <v>46057</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>8.199999999999999</v>
+        <v>2.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6165,14 +6165,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 62128-2021</t>
+          <t>A 143-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44502</v>
+        <v>44928.53378472223</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6222,14 +6222,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 62979-2023</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45271</v>
+        <v>46056</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6279,14 +6279,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 5655-2026</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46051.44604166667</v>
+        <v>46056</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6336,14 +6336,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 34366-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46056</v>
+        <v>44792</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6393,14 +6393,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 63319-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46056</v>
+        <v>44508.45226851852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6450,14 +6450,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 13529-2024</t>
+          <t>A 7505-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45387.84504629629</v>
+        <v>45347.93181712963</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6507,14 +6507,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 6946-2026</t>
+          <t>A 43207-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46057</v>
+        <v>45910.45111111111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6564,14 +6564,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 44176-2023</t>
+          <t>A 13529-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45188</v>
+        <v>45387.84504629629</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>7.1</v>
+        <v>1.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6621,14 +6621,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 34366-2022</t>
+          <t>A 27463-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44792</v>
+        <v>45474.45266203704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6678,14 +6678,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 26812-2024</t>
+          <t>A 10655-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45470.54344907407</v>
+        <v>44624</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.7</v>
+        <v>13.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6735,14 +6735,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 29801-2022</t>
+          <t>A 17451-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44755.70518518519</v>
+        <v>45757.44825231482</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6792,14 +6792,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 18852-2024</t>
+          <t>A 17455-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45426.69550925926</v>
+        <v>45757.45109953704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6849,14 +6849,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 43207-2025</t>
+          <t>A 19531-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45910.45111111111</v>
+        <v>45050.54896990741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6906,14 +6906,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 43520-2022</t>
+          <t>A 4263-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44837.37417824074</v>
+        <v>45324.51049768519</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6963,14 +6963,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 16538-2025</t>
+          <t>A 5705-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45751.66126157407</v>
+        <v>45694</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7020,14 +7020,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 45990-2022</t>
+          <t>A 62979-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44846</v>
+        <v>45271</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7077,14 +7077,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 143-2023</t>
+          <t>A 16538-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44928.53378472223</v>
+        <v>45751.66126157407</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7134,14 +7134,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 18851-2024</t>
+          <t>A 29801-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45426.69</v>
+        <v>44755.70518518519</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.7</v>
+        <v>4.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7191,14 +7191,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 71835-2021</t>
+          <t>A 49981-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44543.62230324074</v>
+        <v>45215</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>7.5</v>
+        <v>2.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7248,14 +7248,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 51724-2023</t>
+          <t>A 71835-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45222</v>
+        <v>44543.62230324074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7305,14 +7305,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 661-2025</t>
+          <t>A 21883-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45664.68572916667</v>
+        <v>44322</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7362,14 +7362,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 24461-2023</t>
+          <t>A 56782-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45082</v>
+        <v>44894.39475694444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7419,14 +7419,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 13880-2024</t>
+          <t>A 26812-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45391.59994212963</v>
+        <v>45470.54344907407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7476,14 +7476,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 4263-2024</t>
+          <t>A 10810-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45324.51049768519</v>
+        <v>44989.75795138889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7533,14 +7533,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 23457-2024</t>
+          <t>A 62128-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45453.65128472223</v>
+        <v>44502</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>5.1</v>
+        <v>1.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7590,14 +7590,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 41765-2021</t>
+          <t>A 21240-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44425</v>
+        <v>45058</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7647,14 +7647,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 21389-2023</t>
+          <t>A 18851-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45063</v>
+        <v>45426.69</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7704,14 +7704,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 4262-2024</t>
+          <t>A 21389-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45324.50902777778</v>
+        <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>14</v>
+        <v>3.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7761,14 +7761,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 27463-2024</t>
+          <t>A 44176-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45474.45266203704</v>
+        <v>45188</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.1</v>
+        <v>7.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7818,14 +7818,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 63319-2021</t>
+          <t>A 23457-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44508.45226851852</v>
+        <v>45453.65128472223</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>5.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7875,14 +7875,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 5631-2024</t>
+          <t>A 39714-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45334.61013888889</v>
+        <v>45552.60074074074</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7932,14 +7932,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 21579-2025</t>
+          <t>A 18852-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45782.91234953704</v>
+        <v>45426.69550925926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -575,7 +575,7 @@
         <v>45548</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,14 +677,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 6041-2025</t>
+          <t>A 34725-2024</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45695.66287037037</v>
+        <v>45526.57324074074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>8.800000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -730,6 +730,99 @@
         <v>5</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Mindre hackspett
+Spillkråka
+Blåmossa
+Stor revmossa
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 34725-2024 artfynd.xlsx", "A 34725-2024")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 34725-2024 karta.png", "A 34725-2024")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 34725-2024 FSC-klagomål.docx", "A 34725-2024")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 34725-2024 FSC-klagomål mail.docx", "A 34725-2024")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 34725-2024 tillsynsbegäran.docx", "A 34725-2024")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 34725-2024 tillsynsbegäran mail.docx", "A 34725-2024")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 34725-2024 prioriterade fågelarter.docx", "A 34725-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 6041-2025</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45695.66287037037</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Björktrast
 Spillkråka
@@ -738,125 +831,32 @@
 Kambräken</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6041-2025 artfynd.xlsx", "A 6041-2025")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6041-2025 karta.png", "A 6041-2025")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6041-2025 FSC-klagomål.docx", "A 6041-2025")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6041-2025 FSC-klagomål mail.docx", "A 6041-2025")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6041-2025 tillsynsbegäran.docx", "A 6041-2025")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6041-2025 tillsynsbegäran mail.docx", "A 6041-2025")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6041-2025 prioriterade fågelarter.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 34725-2024</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45526.57324074074</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Mindre hackspett
-Spillkråka
-Blåmossa
-Stor revmossa
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 34725-2024 artfynd.xlsx", "A 34725-2024")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 34725-2024 karta.png", "A 34725-2024")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 34725-2024 FSC-klagomål.docx", "A 34725-2024")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 34725-2024 FSC-klagomål mail.docx", "A 34725-2024")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 34725-2024 tillsynsbegäran.docx", "A 34725-2024")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 34725-2024 tillsynsbegäran mail.docx", "A 34725-2024")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 34725-2024 prioriterade fågelarter.docx", "A 34725-2024")</f>
         <v/>
       </c>
     </row>
@@ -870,7 +870,7 @@
         <v>45993.54930555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -955,14 +955,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 44132-2025</t>
+          <t>A 8558-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45915.58515046296</v>
+        <v>45355.57679398148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -974,13 +974,8 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>12.5</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
@@ -1013,220 +1008,225 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Gulsparv
+Spillkråka
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 8558-2024 artfynd.xlsx", "A 8558-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 8558-2024 karta.png", "A 8558-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 8558-2024 FSC-klagomål.docx", "A 8558-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 8558-2024 FSC-klagomål mail.docx", "A 8558-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 8558-2024 tillsynsbegäran.docx", "A 8558-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 8558-2024 tillsynsbegäran mail.docx", "A 8558-2024")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 8558-2024 prioriterade fågelarter.docx", "A 8558-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 44132-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45915.58515046296</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Grönsångare
 Svartvit flugsnappare
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 44132-2025 artfynd.xlsx", "A 44132-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 44132-2025 karta.png", "A 44132-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 44132-2025 FSC-klagomål.docx", "A 44132-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 44132-2025 FSC-klagomål mail.docx", "A 44132-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 44132-2025 tillsynsbegäran.docx", "A 44132-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 44132-2025 tillsynsbegäran mail.docx", "A 44132-2025")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 44132-2025 prioriterade fågelarter.docx", "A 44132-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 36424-2025</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45868.90353009259</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>16.9</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H8" t="n">
         <v>1</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I8" t="n">
         <v>1</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J8" t="n">
         <v>2</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>2</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>3</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Vedtrappmossa
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 36424-2025 artfynd.xlsx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 36424-2025 karta.png", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 36424-2025 FSC-klagomål.docx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 36424-2025 FSC-klagomål mail.docx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 36424-2025 tillsynsbegäran.docx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 36424-2025 tillsynsbegäran mail.docx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="Z7">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 36424-2025 prioriterade fågelarter.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 8558-2024</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45355.57679398148</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Gulsparv
-Spillkråka
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 8558-2024 artfynd.xlsx", "A 8558-2024")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 8558-2024 karta.png", "A 8558-2024")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 8558-2024 FSC-klagomål.docx", "A 8558-2024")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 8558-2024 FSC-klagomål mail.docx", "A 8558-2024")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 8558-2024 tillsynsbegäran.docx", "A 8558-2024")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 8558-2024 tillsynsbegäran mail.docx", "A 8558-2024")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 8558-2024 prioriterade fågelarter.docx", "A 8558-2024")</f>
         <v/>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
         <v>45957</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1324,14 +1324,14 @@
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 5637-2024</t>
+          <t>A 33448-2021</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>45334.6115162037</v>
+        <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1344,16 +1344,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>14.7</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1378,402 +1378,402 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
+          <t>Blåmossa
+Mattlummer</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33448-2021 artfynd.xlsx", "A 33448-2021")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33448-2021 karta.png", "A 33448-2021")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33448-2021 FSC-klagomål.docx", "A 33448-2021")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33448-2021 FSC-klagomål mail.docx", "A 33448-2021")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33448-2021 tillsynsbegäran.docx", "A 33448-2021")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33448-2021 tillsynsbegäran mail.docx", "A 33448-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 48345-2021</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>44451</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 48345-2021 artfynd.xlsx", "A 48345-2021")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 48345-2021 karta.png", "A 48345-2021")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 48345-2021 FSC-klagomål.docx", "A 48345-2021")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 48345-2021 FSC-klagomål mail.docx", "A 48345-2021")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 48345-2021 tillsynsbegäran.docx", "A 48345-2021")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 48345-2021 tillsynsbegäran mail.docx", "A 48345-2021")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 48345-2021 prioriterade fågelarter.docx", "A 48345-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 57116-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45979.46130787037</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 57116-2025 artfynd.xlsx", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 57116-2025 karta.png", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 57116-2025 FSC-klagomål.docx", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 57116-2025 FSC-klagomål mail.docx", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 57116-2025 tillsynsbegäran.docx", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 57116-2025 tillsynsbegäran mail.docx", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 57116-2025 prioriterade fågelarter.docx", "A 57116-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 53007-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45957</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53007-2025 artfynd.xlsx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53007-2025 karta.png", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53007-2025 FSC-klagomål.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53007-2025 FSC-klagomål mail.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53007-2025 tillsynsbegäran.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53007-2025 tillsynsbegäran mail.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53007-2025 prioriterade fågelarter.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 5637-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45334.6115162037</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Klofibbla
 Åkerrödtoppa</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 5637-2024 artfynd.xlsx", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 5637-2024 karta.png", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 5637-2024 FSC-klagomål.docx", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 5637-2024 FSC-klagomål mail.docx", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 5637-2024 tillsynsbegäran.docx", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 5637-2024 tillsynsbegäran mail.docx", "A 5637-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 33448-2021</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>44377</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Blåmossa
-Mattlummer</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33448-2021 artfynd.xlsx", "A 33448-2021")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33448-2021 karta.png", "A 33448-2021")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33448-2021 FSC-klagomål.docx", "A 33448-2021")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33448-2021 FSC-klagomål mail.docx", "A 33448-2021")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33448-2021 tillsynsbegäran.docx", "A 33448-2021")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33448-2021 tillsynsbegäran mail.docx", "A 33448-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 48345-2021</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44451</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 48345-2021 artfynd.xlsx", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 48345-2021 karta.png", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 48345-2021 FSC-klagomål.docx", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 48345-2021 FSC-klagomål mail.docx", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 48345-2021 tillsynsbegäran.docx", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 48345-2021 tillsynsbegäran mail.docx", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 48345-2021 prioriterade fågelarter.docx", "A 48345-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 57116-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45979.46130787037</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 57116-2025 artfynd.xlsx", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 57116-2025 karta.png", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 57116-2025 FSC-klagomål.docx", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 57116-2025 FSC-klagomål mail.docx", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 57116-2025 tillsynsbegäran.docx", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 57116-2025 tillsynsbegäran mail.docx", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 57116-2025 prioriterade fågelarter.docx", "A 57116-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 53007-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45957</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53007-2025 artfynd.xlsx", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53007-2025 karta.png", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53007-2025 FSC-klagomål.docx", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53007-2025 FSC-klagomål mail.docx", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53007-2025 tillsynsbegäran.docx", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53007-2025 tillsynsbegäran mail.docx", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53007-2025 prioriterade fågelarter.docx", "A 53007-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49988-2023</t>
+          <t>A 6082-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45215</v>
+        <v>45697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1820,45 +1820,49 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 49988-2023 artfynd.xlsx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6082-2025 artfynd.xlsx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 49988-2023 karta.png", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6082-2025 karta.png", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 49988-2023 FSC-klagomål.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6082-2025 FSC-klagomål.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 49988-2023 FSC-klagomål mail.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6082-2025 FSC-klagomål mail.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 49988-2023 tillsynsbegäran.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6082-2025 tillsynsbegäran.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 49988-2023 tillsynsbegäran mail.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6082-2025 tillsynsbegäran mail.docx", "A 6082-2025")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6082-2025 prioriterade fågelarter.docx", "A 6082-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 23704-2024</t>
+          <t>A 33426-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45454.71498842593</v>
+        <v>44377</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1871,7 +1875,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1883,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1895,41 +1899,41 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Hedjohannesört</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 23704-2024 artfynd.xlsx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 23704-2024 karta.png", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 23704-2024 FSC-klagomål.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 23704-2024 FSC-klagomål mail.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 23704-2024 tillsynsbegäran.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 23704-2024 tillsynsbegäran mail.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
     </row>
@@ -1943,7 +1947,7 @@
         <v>45919.60089120371</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2021,14 +2025,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 6082-2025</t>
+          <t>A 38103-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45697</v>
+        <v>45882.49244212963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2045,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2079,45 +2083,45 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6082-2025 artfynd.xlsx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 38103-2025 artfynd.xlsx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6082-2025 karta.png", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 38103-2025 karta.png", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6082-2025 FSC-klagomål.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 38103-2025 FSC-klagomål.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6082-2025 FSC-klagomål mail.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 38103-2025 FSC-klagomål mail.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6082-2025 tillsynsbegäran.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 38103-2025 tillsynsbegäran.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6082-2025 tillsynsbegäran mail.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 38103-2025 tillsynsbegäran mail.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6082-2025 prioriterade fågelarter.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 38103-2025 prioriterade fågelarter.docx", "A 38103-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 33426-2021</t>
+          <t>A 23704-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44377</v>
+        <v>45454.71498842593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2130,7 +2134,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2142,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2154,55 +2158,55 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Hedjohannesört</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 23704-2024 artfynd.xlsx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 23704-2024 karta.png", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 23704-2024 FSC-klagomål.docx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 23704-2024 FSC-klagomål mail.docx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 23704-2024 tillsynsbegäran.docx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 23704-2024 tillsynsbegäran mail.docx", "A 23704-2024")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 38103-2025</t>
+          <t>A 49988-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45882.49244212963</v>
+        <v>45215</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2215,7 +2219,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2224,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2239,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2249,35 +2253,31 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 38103-2025 artfynd.xlsx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 49988-2023 artfynd.xlsx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 38103-2025 karta.png", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 49988-2023 karta.png", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 38103-2025 FSC-klagomål.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 49988-2023 FSC-klagomål.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 38103-2025 FSC-klagomål mail.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 49988-2023 FSC-klagomål mail.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 38103-2025 tillsynsbegäran.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 49988-2023 tillsynsbegäran.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 38103-2025 tillsynsbegäran mail.docx", "A 38103-2025")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 38103-2025 prioriterade fågelarter.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 49988-2023 tillsynsbegäran mail.docx", "A 49988-2023")</f>
         <v/>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
         <v>44425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44691</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44691</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44450.66346064815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44425</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44836</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44250</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44459.89270833333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44459</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>44760.44488425926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44872.64650462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44450</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3139,14 +3139,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 62221-2023</t>
+          <t>A 21240-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45267.54049768519</v>
+        <v>45058</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 4204-2024</t>
+          <t>A 17451-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45324.36422453704</v>
+        <v>45757.44825231482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 50071-2023</t>
+          <t>A 17455-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45215</v>
+        <v>45757.45109953704</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3310,14 +3310,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 30170-2022</t>
+          <t>A 62221-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44757</v>
+        <v>45267.54049768519</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3367,14 +3367,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 47569-2025</t>
+          <t>A 29223-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45931.39331018519</v>
+        <v>45482.81978009259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>8</v>
+        <v>5.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3424,14 +3424,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 47564-2025</t>
+          <t>A 10655-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45931.38982638889</v>
+        <v>44624</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>13.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3481,14 +3481,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 51724-2023</t>
+          <t>A 21883-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45222</v>
+        <v>44322</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3538,14 +3538,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 17922-2025</t>
+          <t>A 21899-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45758.90710648148</v>
+        <v>44322</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3595,14 +3595,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 5631-2024</t>
+          <t>A 39714-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45334.61013888889</v>
+        <v>45552.60074074074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3652,14 +3652,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 13880-2024</t>
+          <t>A 19531-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45391.59994212963</v>
+        <v>45050.54896990741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3709,14 +3709,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 1995-2024</t>
+          <t>A 5705-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45308</v>
+        <v>45694</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3766,14 +3766,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 21579-2025</t>
+          <t>A 7505-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45782.91234953704</v>
+        <v>45347.93181712963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3823,14 +3823,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 21899-2021</t>
+          <t>A 8334-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44322</v>
+        <v>44975</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3880,14 +3880,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 45990-2022</t>
+          <t>A 25135-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44846</v>
+        <v>45798</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3937,14 +3937,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 10679-2025</t>
+          <t>A 40951-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45721.89462962963</v>
+        <v>45897.66342592592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3994,14 +3994,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 8943-2025</t>
+          <t>A 33244-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45713.45105324074</v>
+        <v>44377</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4051,14 +4051,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 11237-2025</t>
+          <t>A 32391-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45726.36668981481</v>
+        <v>45837.90662037037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4108,14 +4108,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 40951-2025</t>
+          <t>A 32392-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45897.66342592592</v>
+        <v>45837.9102199074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4165,14 +4165,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 41765-2021</t>
+          <t>A 33493-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44425</v>
+        <v>44377</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.6</v>
+        <v>1.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4222,14 +4222,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 15078-2025</t>
+          <t>A 34250-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45743.84284722222</v>
+        <v>45844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4279,14 +4279,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 10677-2025</t>
+          <t>A 49985-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45721.89055555555</v>
+        <v>45215</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4336,14 +4336,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 74285-2021</t>
+          <t>A 34244-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44558</v>
+        <v>45844</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.1</v>
+        <v>2.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4393,14 +4393,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 52932-2025</t>
+          <t>A 45124-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45957.62373842593</v>
+        <v>45919.43206018519</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4450,14 +4450,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 43520-2022</t>
+          <t>A 25624-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44837.37417824074</v>
+        <v>45803.57885416667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4507,14 +4507,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 45124-2025</t>
+          <t>A 36055-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45919.43206018519</v>
+        <v>45866</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4564,14 +4564,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 29223-2024</t>
+          <t>A 41442-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45482.81978009259</v>
+        <v>45869</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4621,14 +4621,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 61417-2022</t>
+          <t>A 6096-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44916.35082175926</v>
+        <v>45697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4678,14 +4678,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 32272-2023</t>
+          <t>A 46588-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45120.35368055556</v>
+        <v>45926.39152777778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4735,14 +4735,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 32847-2023</t>
+          <t>A 47564-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45124.61965277778</v>
+        <v>45931.38982638889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4792,14 +4792,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 46588-2025</t>
+          <t>A 47569-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45926.39152777778</v>
+        <v>45931.39331018519</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4849,14 +4849,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 56394-2025</t>
+          <t>A 37443-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45974.74313657408</v>
+        <v>45877.54152777778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4868,8 +4868,13 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4906,14 +4911,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 8334-2023</t>
+          <t>A 50071-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44975</v>
+        <v>45215</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4926,7 +4931,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4963,14 +4968,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 25135-2025</t>
+          <t>A 49981-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45798</v>
+        <v>45215</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4983,7 +4988,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5020,14 +5025,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 32392-2025</t>
+          <t>A 17922-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45837.9102199074</v>
+        <v>45758.90710648148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5040,7 +5045,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5077,14 +5082,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 32391-2025</t>
+          <t>A 56782-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45837.90662037037</v>
+        <v>44894.39475694444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5097,7 +5102,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5134,14 +5139,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 58408-2025</t>
+          <t>A 1995-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45985.56969907408</v>
+        <v>45308</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5154,7 +5159,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>8.1</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5191,14 +5196,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 33493-2021</t>
+          <t>A 30170-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44377</v>
+        <v>44757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5211,7 +5216,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5248,14 +5253,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 34250-2025</t>
+          <t>A 10810-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45844</v>
+        <v>44989.75795138889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5268,7 +5273,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5305,14 +5310,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 49985-2023</t>
+          <t>A 4204-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45215</v>
+        <v>45324.36422453704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5325,7 +5330,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>8.199999999999999</v>
+        <v>4.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5362,14 +5367,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 34244-2025</t>
+          <t>A 52932-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45844</v>
+        <v>45957.62373842593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5382,7 +5387,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5419,14 +5424,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 25624-2025</t>
+          <t>A 55830-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45803.57885416667</v>
+        <v>45623.48478009259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5439,7 +5444,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5476,14 +5481,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 55830-2024</t>
+          <t>A 62128-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45623.48478009259</v>
+        <v>44502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5496,7 +5501,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.1</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5533,14 +5538,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 36055-2025</t>
+          <t>A 62979-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45866</v>
+        <v>45271</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5553,7 +5558,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5590,14 +5595,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 6096-2025</t>
+          <t>A 56394-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45697</v>
+        <v>45974.74313657408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5610,7 +5615,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>8.699999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5647,14 +5652,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 41442-2025</t>
+          <t>A 13529-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45869</v>
+        <v>45387.84504629629</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5667,7 +5672,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5704,14 +5709,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 4262-2024</t>
+          <t>A 58408-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45324.50902777778</v>
+        <v>45985.56969907408</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5724,7 +5729,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>14</v>
+        <v>8.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5761,14 +5766,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 37443-2025</t>
+          <t>A 44176-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45877.54152777778</v>
+        <v>45188</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5780,13 +5785,8 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>7.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5823,14 +5823,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 661-2025</t>
+          <t>A 26812-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45664.68572916667</v>
+        <v>45470.54344907407</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5843,7 +5843,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5880,14 +5880,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 4673-2026</t>
+          <t>A 29801-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>46048.42462962963</v>
+        <v>44755.70518518519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>8.199999999999999</v>
+        <v>4.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5937,14 +5937,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 33244-2021</t>
+          <t>A 18852-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44377</v>
+        <v>45426.69550925926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5957,7 +5957,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5994,14 +5994,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 5655-2026</t>
+          <t>A 43520-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46051.44604166667</v>
+        <v>44837.37417824074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6014,7 +6014,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6051,14 +6051,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 24461-2023</t>
+          <t>A 4673-2026</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45082</v>
+        <v>46048.42462962963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6108,14 +6108,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 6946-2026</t>
+          <t>A 16538-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46057</v>
+        <v>45751.66126157407</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6128,7 +6128,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6165,14 +6165,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 143-2023</t>
+          <t>A 5655-2026</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44928.53378472223</v>
+        <v>46051.44604166667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6185,7 +6185,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6222,14 +6222,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 45990-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46056</v>
+        <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6242,7 +6242,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6279,14 +6279,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 143-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46056</v>
+        <v>44928.53378472223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6299,7 +6299,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6336,14 +6336,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 34366-2022</t>
+          <t>A 18851-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44792</v>
+        <v>45426.69</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6356,7 +6356,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6393,14 +6393,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 63319-2021</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44508.45226851852</v>
+        <v>46056</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6413,7 +6413,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6450,14 +6450,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 7505-2024</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45347.93181712963</v>
+        <v>46056</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6470,7 +6470,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6507,14 +6507,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 43207-2025</t>
+          <t>A 6946-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45910.45111111111</v>
+        <v>46057</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6527,7 +6527,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.8</v>
+        <v>2.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6564,14 +6564,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 13529-2024</t>
+          <t>A 71835-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45387.84504629629</v>
+        <v>44543.62230324074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6584,7 +6584,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>7.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6621,14 +6621,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 27463-2024</t>
+          <t>A 34366-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45474.45266203704</v>
+        <v>44792</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6641,7 +6641,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6678,14 +6678,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 10655-2022</t>
+          <t>A 43207-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44624</v>
+        <v>45910.45111111111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6698,7 +6698,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>13.3</v>
+        <v>3.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6735,14 +6735,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 17451-2025</t>
+          <t>A 51724-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45757.44825231482</v>
+        <v>45222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6755,7 +6755,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6792,14 +6792,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 17455-2025</t>
+          <t>A 661-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45757.45109953704</v>
+        <v>45664.68572916667</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6812,7 +6812,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6849,14 +6849,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 19531-2023</t>
+          <t>A 24461-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45050.54896990741</v>
+        <v>45082</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6869,7 +6869,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6906,14 +6906,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 4263-2024</t>
+          <t>A 13880-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45324.51049768519</v>
+        <v>45391.59994212963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6963,14 +6963,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 5705-2025</t>
+          <t>A 4263-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45694</v>
+        <v>45324.51049768519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6983,7 +6983,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7020,14 +7020,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 62979-2023</t>
+          <t>A 23457-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45271</v>
+        <v>45453.65128472223</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7040,7 +7040,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.8</v>
+        <v>5.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7077,14 +7077,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 16538-2025</t>
+          <t>A 41765-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45751.66126157407</v>
+        <v>44425</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7097,7 +7097,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.8</v>
+        <v>5.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7134,14 +7134,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 29801-2022</t>
+          <t>A 21389-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44755.70518518519</v>
+        <v>45063</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7154,7 +7154,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7191,14 +7191,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 49981-2023</t>
+          <t>A 4262-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45215</v>
+        <v>45324.50902777778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7211,7 +7211,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.5</v>
+        <v>14</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7248,14 +7248,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 71835-2021</t>
+          <t>A 27463-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44543.62230324074</v>
+        <v>45474.45266203704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7268,7 +7268,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>7.5</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7305,14 +7305,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 21883-2021</t>
+          <t>A 63319-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44322</v>
+        <v>44508.45226851852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7325,7 +7325,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7362,14 +7362,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 56782-2022</t>
+          <t>A 5631-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44894.39475694444</v>
+        <v>45334.61013888889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7382,7 +7382,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7419,14 +7419,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 26812-2024</t>
+          <t>A 21579-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45470.54344907407</v>
+        <v>45782.91234953704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7439,7 +7439,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7476,14 +7476,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 10810-2023</t>
+          <t>A 10677-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44989.75795138889</v>
+        <v>45721.89055555555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.4</v>
+        <v>7.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7533,14 +7533,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 62128-2021</t>
+          <t>A 10679-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44502</v>
+        <v>45721.89462962963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7590,14 +7590,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 21240-2023</t>
+          <t>A 8943-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45058</v>
+        <v>45713.45105324074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7647,14 +7647,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 18851-2024</t>
+          <t>A 11237-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45426.69</v>
+        <v>45726.36668981481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7704,14 +7704,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 21389-2023</t>
+          <t>A 15078-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45063</v>
+        <v>45743.84284722222</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7761,14 +7761,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 44176-2023</t>
+          <t>A 74285-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45188</v>
+        <v>44558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>7.1</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7818,14 +7818,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 23457-2024</t>
+          <t>A 61417-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45453.65128472223</v>
+        <v>44916.35082175926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7875,14 +7875,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 39714-2024</t>
+          <t>A 32272-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45552.60074074074</v>
+        <v>45120.35368055556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.2</v>
+        <v>4.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7932,14 +7932,14 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 18852-2024</t>
+          <t>A 32847-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45426.69550925926</v>
+        <v>45124.61965277778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7952,7 +7952,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -575,7 +575,7 @@
         <v>45548</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45526.57324074074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45695.66287037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45993.54930555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45355.57679398148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45915.58515046296</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>45868.90353009259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>45957</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>44451</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>45979.46130787037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>45957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45334.6115162037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>45697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44377</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>45919.60089120371</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45882.49244212963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45454.71498842593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>45215</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>44425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44691</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44691</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44450.66346064815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44425</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44836</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44250</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44459.89270833333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44459</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>44760.44488425926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44872.64650462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44450</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>45058</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>45757.44825231482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>45757.45109953704</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45267.54049768519</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45482.81978009259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44624</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44322</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44322</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>45552.60074074074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>45050.54896990741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>45694</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45347.93181712963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44975</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>45798</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>45897.66342592592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44377</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>45837.90662037037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>45837.9102199074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44377</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>45844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>45215</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>45844</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45919.43206018519</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>45803.57885416667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>45866</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>45869</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>45697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>45926.39152777778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>45931.38982638889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>45931.39331018519</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>45877.54152777778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45215</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>45215</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>45758.90710648148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>44894.39475694444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>45308</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>44757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44989.75795138889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>45324.36422453704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>45957.62373842593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>45623.48478009259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>44502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>45271</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>45974.74313657408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45387.84504629629</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>45985.56969907408</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>45188</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>45470.54344907407</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44755.70518518519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>45426.69550925926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44837.37417824074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>46048.42462962963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>45751.66126157407</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>46051.44604166667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44928.53378472223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>45426.69</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>46056</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>46056</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>46057</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44543.62230324074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44792</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>45910.45111111111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>45222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>45664.68572916667</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>45082</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>45391.59994212963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>45324.51049768519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>45453.65128472223</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44425</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>45063</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>45324.50902777778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>45474.45266203704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44508.45226851852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>45334.61013888889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>45782.91234953704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>45721.89055555555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>45721.89462962963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>45713.45105324074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>45726.36668981481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>45743.84284722222</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>44558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>44916.35082175926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>45120.35368055556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>45124.61965277778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -575,7 +575,7 @@
         <v>45548</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45526.57324074074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45695.66287037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45993.54930555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45355.57679398148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45915.58515046296</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>45868.90353009259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>45957</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>44451</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1507,7 +1507,7 @@
         <v>45979.46130787037</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>45957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1687,7 +1687,7 @@
         <v>45334.6115162037</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1773,7 +1773,7 @@
         <v>45697</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1862,7 +1862,7 @@
         <v>44377</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1947,7 +1947,7 @@
         <v>45919.60089120371</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         <v>45882.49244212963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2121,7 +2121,7 @@
         <v>45454.71498842593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         <v>45215</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         <v>44425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44691</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44691</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44450.66346064815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44425</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44836</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44250</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44459.89270833333</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44459</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>44760.44488425926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44760</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44872.64650462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3089,7 +3089,7 @@
         <v>44450</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
         <v>45058</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>45757.44825231482</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3260,7 +3260,7 @@
         <v>45757.45109953704</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45267.54049768519</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45482.81978009259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>44624</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>44322</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>44322</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>45552.60074074074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>45050.54896990741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3716,7 +3716,7 @@
         <v>45694</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3773,7 +3773,7 @@
         <v>45347.93181712963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3830,7 +3830,7 @@
         <v>44975</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3887,7 +3887,7 @@
         <v>45798</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3944,7 +3944,7 @@
         <v>45897.66342592592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4001,7 +4001,7 @@
         <v>44377</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4058,7 +4058,7 @@
         <v>45837.90662037037</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4115,7 +4115,7 @@
         <v>45837.9102199074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4172,7 +4172,7 @@
         <v>44377</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4229,7 +4229,7 @@
         <v>45844</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4286,7 +4286,7 @@
         <v>45215</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4343,7 +4343,7 @@
         <v>45844</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4400,7 +4400,7 @@
         <v>45919.43206018519</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4457,7 +4457,7 @@
         <v>45803.57885416667</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4514,7 +4514,7 @@
         <v>45866</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4571,7 +4571,7 @@
         <v>45869</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4628,7 +4628,7 @@
         <v>45697</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
         <v>45926.39152777778</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4742,7 +4742,7 @@
         <v>45931.38982638889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4799,7 +4799,7 @@
         <v>45931.39331018519</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4856,7 +4856,7 @@
         <v>45877.54152777778</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4918,7 +4918,7 @@
         <v>45215</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4975,7 +4975,7 @@
         <v>45215</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5032,7 +5032,7 @@
         <v>45758.90710648148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5089,7 +5089,7 @@
         <v>44894.39475694444</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5146,7 +5146,7 @@
         <v>45308</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5203,7 +5203,7 @@
         <v>44757</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5260,7 +5260,7 @@
         <v>44989.75795138889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5317,7 +5317,7 @@
         <v>45324.36422453704</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5374,7 +5374,7 @@
         <v>45957.62373842593</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5431,7 +5431,7 @@
         <v>45623.48478009259</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         <v>44502</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>45271</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5602,7 +5602,7 @@
         <v>45974.74313657408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5659,7 +5659,7 @@
         <v>45387.84504629629</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5716,7 +5716,7 @@
         <v>45985.56969907408</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5773,7 +5773,7 @@
         <v>45188</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5830,7 +5830,7 @@
         <v>45470.54344907407</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5887,7 +5887,7 @@
         <v>44755.70518518519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5944,7 +5944,7 @@
         <v>45426.69550925926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6001,7 +6001,7 @@
         <v>44837.37417824074</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6058,7 +6058,7 @@
         <v>46048.42462962963</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6115,7 +6115,7 @@
         <v>45751.66126157407</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6172,7 +6172,7 @@
         <v>46051.44604166667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6229,7 +6229,7 @@
         <v>44846</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6286,7 +6286,7 @@
         <v>44928.53378472223</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         <v>45426.69</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>46056</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>46056</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6514,7 +6514,7 @@
         <v>46057</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6571,7 +6571,7 @@
         <v>44543.62230324074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6628,7 +6628,7 @@
         <v>44792</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6685,7 +6685,7 @@
         <v>45910.45111111111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6742,7 +6742,7 @@
         <v>45222</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6799,7 +6799,7 @@
         <v>45664.68572916667</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6856,7 +6856,7 @@
         <v>45082</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6913,7 +6913,7 @@
         <v>45391.59994212963</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6970,7 +6970,7 @@
         <v>45324.51049768519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7027,7 +7027,7 @@
         <v>45453.65128472223</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7084,7 +7084,7 @@
         <v>44425</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7141,7 +7141,7 @@
         <v>45063</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7198,7 +7198,7 @@
         <v>45324.50902777778</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7255,7 +7255,7 @@
         <v>45474.45266203704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7312,7 +7312,7 @@
         <v>44508.45226851852</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7369,7 +7369,7 @@
         <v>45334.61013888889</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>45782.91234953704</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>45721.89055555555</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7540,7 +7540,7 @@
         <v>45721.89462962963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7597,7 +7597,7 @@
         <v>45713.45105324074</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7654,7 +7654,7 @@
         <v>45726.36668981481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         <v>45743.84284722222</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         <v>44558</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7825,7 +7825,7 @@
         <v>44916.35082175926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7882,7 +7882,7 @@
         <v>45120.35368055556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7939,7 +7939,7 @@
         <v>45124.61965277778</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z120"/>
+  <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45548</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45526.57324074074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45695.66287037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45993.54930555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45355.57679398148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45915.58515046296</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,14 +1142,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 36424-2025</t>
+          <t>A 53008-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45868.90353009259</v>
+        <v>45957</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1162,17 +1162,17 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>16.9</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1195,129 +1195,129 @@
         <v>3</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Kambräken
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53008-2025 artfynd.xlsx", "A 53008-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53008-2025 karta.png", "A 53008-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53008-2025 FSC-klagomål.docx", "A 53008-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53008-2025 FSC-klagomål mail.docx", "A 53008-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53008-2025 tillsynsbegäran.docx", "A 53008-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53008-2025 tillsynsbegäran mail.docx", "A 53008-2025")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53008-2025 prioriterade fågelarter.docx", "A 53008-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 36424-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45868.90353009259</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Vedtrappmossa
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 36424-2025 artfynd.xlsx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 36424-2025 karta.png", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 36424-2025 FSC-klagomål.docx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 36424-2025 FSC-klagomål mail.docx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 36424-2025 tillsynsbegäran.docx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 36424-2025 tillsynsbegäran mail.docx", "A 36424-2025")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 36424-2025 prioriterade fågelarter.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 53008-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45957</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Kambräken
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53008-2025 artfynd.xlsx", "A 53008-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53008-2025 karta.png", "A 53008-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53008-2025 FSC-klagomål.docx", "A 53008-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53008-2025 FSC-klagomål mail.docx", "A 53008-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53008-2025 tillsynsbegäran.docx", "A 53008-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53008-2025 tillsynsbegäran mail.docx", "A 53008-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53008-2025 prioriterade fågelarter.docx", "A 53008-2025")</f>
         <v/>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,14 +1410,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 48345-2021</t>
+          <t>A 5637-2024</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44451</v>
+        <v>45334.6115162037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,16 +1430,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1464,316 +1464,316 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Klofibbla
+Åkerrödtoppa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 5637-2024 artfynd.xlsx", "A 5637-2024")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 5637-2024 karta.png", "A 5637-2024")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 5637-2024 FSC-klagomål.docx", "A 5637-2024")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 5637-2024 FSC-klagomål mail.docx", "A 5637-2024")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 5637-2024 tillsynsbegäran.docx", "A 5637-2024")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 5637-2024 tillsynsbegäran mail.docx", "A 5637-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 57116-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45979.46130787037</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 57116-2025 artfynd.xlsx", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 57116-2025 karta.png", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 57116-2025 FSC-klagomål.docx", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 57116-2025 FSC-klagomål mail.docx", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 57116-2025 tillsynsbegäran.docx", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 57116-2025 tillsynsbegäran mail.docx", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 57116-2025 prioriterade fågelarter.docx", "A 57116-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 53007-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45957</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53007-2025 artfynd.xlsx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53007-2025 karta.png", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53007-2025 FSC-klagomål.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53007-2025 FSC-klagomål mail.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53007-2025 tillsynsbegäran.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53007-2025 tillsynsbegäran mail.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53007-2025 prioriterade fågelarter.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 48345-2021</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44451</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Spillkråka
 Blåmossa</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 48345-2021 artfynd.xlsx", "A 48345-2021")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 48345-2021 karta.png", "A 48345-2021")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 48345-2021 FSC-klagomål.docx", "A 48345-2021")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 48345-2021 FSC-klagomål mail.docx", "A 48345-2021")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 48345-2021 tillsynsbegäran.docx", "A 48345-2021")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 48345-2021 tillsynsbegäran mail.docx", "A 48345-2021")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 48345-2021 prioriterade fågelarter.docx", "A 48345-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 57116-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45979.46130787037</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 57116-2025 artfynd.xlsx", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 57116-2025 karta.png", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 57116-2025 FSC-klagomål.docx", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 57116-2025 FSC-klagomål mail.docx", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 57116-2025 tillsynsbegäran.docx", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 57116-2025 tillsynsbegäran mail.docx", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 57116-2025 prioriterade fågelarter.docx", "A 57116-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 53007-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45957</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53007-2025 artfynd.xlsx", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53007-2025 karta.png", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53007-2025 FSC-klagomål.docx", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53007-2025 FSC-klagomål mail.docx", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53007-2025 tillsynsbegäran.docx", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53007-2025 tillsynsbegäran mail.docx", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53007-2025 prioriterade fågelarter.docx", "A 53007-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 5637-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45334.6115162037</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Klofibbla
-Åkerrödtoppa</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 5637-2024 artfynd.xlsx", "A 5637-2024")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 5637-2024 karta.png", "A 5637-2024")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 5637-2024 FSC-klagomål.docx", "A 5637-2024")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 5637-2024 FSC-klagomål mail.docx", "A 5637-2024")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 5637-2024 tillsynsbegäran.docx", "A 5637-2024")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 5637-2024 tillsynsbegäran mail.docx", "A 5637-2024")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 6082-2025</t>
+          <t>A 49988-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45697</v>
+        <v>45215</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1820,49 +1820,45 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6082-2025 artfynd.xlsx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 49988-2023 artfynd.xlsx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6082-2025 karta.png", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 49988-2023 karta.png", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6082-2025 FSC-klagomål.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 49988-2023 FSC-klagomål.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6082-2025 FSC-klagomål mail.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 49988-2023 FSC-klagomål mail.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6082-2025 tillsynsbegäran.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 49988-2023 tillsynsbegäran.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6082-2025 tillsynsbegäran mail.docx", "A 6082-2025")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6082-2025 prioriterade fågelarter.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 49988-2023 tillsynsbegäran mail.docx", "A 49988-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 33426-2021</t>
+          <t>A 45243-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44377</v>
+        <v>45919.60089120371</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,7 +1871,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>8.1</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1909,45 +1905,45 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 45243-2025</t>
+          <t>A 23704-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45919.60089120371</v>
+        <v>45454.71498842593</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1960,7 +1956,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>8.1</v>
+        <v>4.9</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1972,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1984,55 +1980,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Hedjohannesört</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 23704-2024 artfynd.xlsx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 23704-2024 karta.png", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 23704-2024 FSC-klagomål.docx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 23704-2024 FSC-klagomål mail.docx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 23704-2024 tillsynsbegäran.docx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 23704-2024 tillsynsbegäran mail.docx", "A 23704-2024")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 38103-2025</t>
+          <t>A 6082-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45882.49244212963</v>
+        <v>45697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2045,7 +2041,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2083,45 +2079,45 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 38103-2025 artfynd.xlsx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6082-2025 artfynd.xlsx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 38103-2025 karta.png", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6082-2025 karta.png", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 38103-2025 FSC-klagomål.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6082-2025 FSC-klagomål.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 38103-2025 FSC-klagomål mail.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6082-2025 FSC-klagomål mail.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 38103-2025 tillsynsbegäran.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6082-2025 tillsynsbegäran.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 38103-2025 tillsynsbegäran mail.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6082-2025 tillsynsbegäran mail.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 38103-2025 prioriterade fågelarter.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6082-2025 prioriterade fågelarter.docx", "A 6082-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 23704-2024</t>
+          <t>A 33426-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45454.71498842593</v>
+        <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2134,7 +2130,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.9</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2146,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2158,55 +2154,55 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Hedjohannesört</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 23704-2024 artfynd.xlsx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 23704-2024 karta.png", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 23704-2024 FSC-klagomål.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 23704-2024 FSC-klagomål mail.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 23704-2024 tillsynsbegäran.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 23704-2024 tillsynsbegäran mail.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 49988-2023</t>
+          <t>A 38103-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45215</v>
+        <v>45882.49244212963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2219,7 +2215,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2228,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2243,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2253,31 +2249,35 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 49988-2023 artfynd.xlsx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 38103-2025 artfynd.xlsx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 49988-2023 karta.png", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 38103-2025 karta.png", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 49988-2023 FSC-klagomål.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 38103-2025 FSC-klagomål.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 49988-2023 FSC-klagomål mail.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 38103-2025 FSC-klagomål mail.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 49988-2023 tillsynsbegäran.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 38103-2025 tillsynsbegäran.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 49988-2023 tillsynsbegäran mail.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 38103-2025 tillsynsbegäran mail.docx", "A 38103-2025")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 38103-2025 prioriterade fågelarter.docx", "A 38103-2025")</f>
         <v/>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
         <v>44425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,14 +2341,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 19132-2022</t>
+          <t>A 48312-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44691</v>
+        <v>44450.66346064815</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2398,14 +2398,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 19133-2022</t>
+          <t>A 19132-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>44691</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,14 +2455,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 48312-2021</t>
+          <t>A 19133-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44450.66346064815</v>
+        <v>44691</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2512,14 +2512,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 41751-2021</t>
+          <t>A 43847-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44425</v>
+        <v>44838</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2569,14 +2569,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 43847-2022</t>
+          <t>A 41751-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44838</v>
+        <v>44425</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>44836</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2683,14 +2683,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 9297-2021</t>
+          <t>A 50648-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44250</v>
+        <v>44459.89270833333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2703,7 +2703,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2740,14 +2740,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 50648-2021</t>
+          <t>A 50413-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44459.89270833333</v>
+        <v>44459</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.4</v>
+        <v>3.9</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2797,14 +2797,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 50413-2021</t>
+          <t>A 30322-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44459</v>
+        <v>44760.44488425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2817,7 +2817,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2854,14 +2854,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 30322-2022</t>
+          <t>A 30373-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44760.44488425926</v>
+        <v>44760</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2911,14 +2911,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 30373-2022</t>
+          <t>A 30377-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>44760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2968,14 +2968,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 30377-2022</t>
+          <t>A 51930-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44760</v>
+        <v>44872.64650462963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3025,14 +3025,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 51930-2022</t>
+          <t>A 48311-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44872.64650462963</v>
+        <v>44450</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3082,14 +3082,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 48311-2021</t>
+          <t>A 1995-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44450</v>
+        <v>45308</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 21240-2023</t>
+          <t>A 62221-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45058</v>
+        <v>45267.54049768519</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 17451-2025</t>
+          <t>A 4204-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45757.44825231482</v>
+        <v>45324.36422453704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 17455-2025</t>
+          <t>A 50071-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45757.45109953704</v>
+        <v>45215</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3310,14 +3310,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 62221-2023</t>
+          <t>A 30170-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45267.54049768519</v>
+        <v>44757</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3367,14 +3367,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 29223-2024</t>
+          <t>A 4262-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45482.81978009259</v>
+        <v>45324.50902777778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5.6</v>
+        <v>14</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3424,14 +3424,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 10655-2022</t>
+          <t>A 21899-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44624</v>
+        <v>44322</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>13.3</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3481,14 +3481,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 21883-2021</t>
+          <t>A 13880-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44322</v>
+        <v>45391.59994212963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3538,14 +3538,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 21899-2021</t>
+          <t>A 8334-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44322</v>
+        <v>44975</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3595,14 +3595,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 39714-2024</t>
+          <t>A 45990-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45552.60074074074</v>
+        <v>44846</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3652,14 +3652,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 19531-2023</t>
+          <t>A 661-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45050.54896990741</v>
+        <v>45664.68572916667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3709,14 +3709,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 5705-2025</t>
+          <t>A 33244-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45694</v>
+        <v>44377</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3766,14 +3766,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 7505-2024</t>
+          <t>A 24461-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45347.93181712963</v>
+        <v>45082</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3823,14 +3823,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 8334-2023</t>
+          <t>A 13529-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44975</v>
+        <v>45387.84504629629</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3880,14 +3880,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 25135-2025</t>
+          <t>A 143-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45798</v>
+        <v>44928.53378472223</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3937,14 +3937,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 40951-2025</t>
+          <t>A 55830-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45897.66342592592</v>
+        <v>45623.48478009259</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.8</v>
+        <v>5.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3994,14 +3994,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 33244-2021</t>
+          <t>A 41765-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44377</v>
+        <v>44425</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>5.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4051,14 +4051,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 32391-2025</t>
+          <t>A 63319-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45837.90662037037</v>
+        <v>44508.45226851852</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4108,14 +4108,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 32392-2025</t>
+          <t>A 27463-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45837.9102199074</v>
+        <v>45474.45266203704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4165,14 +4165,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 33493-2021</t>
+          <t>A 16538-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44377</v>
+        <v>45751.66126157407</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4222,14 +4222,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 34250-2025</t>
+          <t>A 10655-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45844</v>
+        <v>44624</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.2</v>
+        <v>13.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4279,14 +4279,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 49985-2023</t>
+          <t>A 17451-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45215</v>
+        <v>45757.44825231482</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>8.199999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4336,14 +4336,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 34244-2025</t>
+          <t>A 17455-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45844</v>
+        <v>45757.45109953704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4393,14 +4393,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 45124-2025</t>
+          <t>A 7505-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45919.43206018519</v>
+        <v>45347.93181712963</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4450,14 +4450,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 25624-2025</t>
+          <t>A 29801-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45803.57885416667</v>
+        <v>44755.70518518519</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4507,14 +4507,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 36055-2025</t>
+          <t>A 49981-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45866</v>
+        <v>45215</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4564,14 +4564,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 41442-2025</t>
+          <t>A 17922-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45869</v>
+        <v>45758.90710648148</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4621,14 +4621,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 6096-2025</t>
+          <t>A 19531-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45697</v>
+        <v>45050.54896990741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>8.699999999999999</v>
+        <v>1.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4678,14 +4678,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 46588-2025</t>
+          <t>A 4263-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45926.39152777778</v>
+        <v>45324.51049768519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4735,14 +4735,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 47564-2025</t>
+          <t>A 43520-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45931.38982638889</v>
+        <v>44837.37417824074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4792,14 +4792,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 47569-2025</t>
+          <t>A 71835-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45931.39331018519</v>
+        <v>44543.62230324074</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4849,14 +4849,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 37443-2025</t>
+          <t>A 5705-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45877.54152777778</v>
+        <v>45694</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4868,13 +4868,8 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4911,14 +4906,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 50071-2023</t>
+          <t>A 21883-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45215</v>
+        <v>44322</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4931,7 +4926,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4968,14 +4963,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 49981-2023</t>
+          <t>A 62979-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45215</v>
+        <v>45271</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4988,7 +4983,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5025,14 +5020,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 17922-2025</t>
+          <t>A 40951-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45758.90710648148</v>
+        <v>45897.66342592592</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5082,14 +5077,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 56782-2022</t>
+          <t>A 29223-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44894.39475694444</v>
+        <v>45482.81978009259</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5102,7 +5097,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5139,14 +5134,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 1995-2024</t>
+          <t>A 56782-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45308</v>
+        <v>44894.39475694444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5196,14 +5191,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 30170-2022</t>
+          <t>A 45124-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44757</v>
+        <v>45919.43206018519</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5216,7 +5211,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5253,14 +5248,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 10810-2023</t>
+          <t>A 26812-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44989.75795138889</v>
+        <v>45470.54344907407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5273,7 +5268,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5310,14 +5305,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 4204-2024</t>
+          <t>A 46588-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45324.36422453704</v>
+        <v>45926.39152777778</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5330,7 +5325,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5367,14 +5362,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 52932-2025</t>
+          <t>A 47569-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45957.62373842593</v>
+        <v>45931.39331018519</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5387,7 +5382,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5424,14 +5419,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 55830-2024</t>
+          <t>A 47564-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45623.48478009259</v>
+        <v>45931.38982638889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5444,7 +5439,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5.1</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5481,14 +5476,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 62128-2021</t>
+          <t>A 10810-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44502</v>
+        <v>44989.75795138889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5501,7 +5496,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5538,14 +5533,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 62979-2023</t>
+          <t>A 62128-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45271</v>
+        <v>44502</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5558,7 +5553,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5595,14 +5590,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 56394-2025</t>
+          <t>A 21240-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45974.74313657408</v>
+        <v>45058</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5615,7 +5610,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5652,14 +5647,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 13529-2024</t>
+          <t>A 52932-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45387.84504629629</v>
+        <v>45957.62373842593</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5672,7 +5667,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5709,14 +5704,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 58408-2025</t>
+          <t>A 18851-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45985.56969907408</v>
+        <v>45426.69</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5729,7 +5724,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>8.1</v>
+        <v>2.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5766,14 +5761,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 44176-2023</t>
+          <t>A 21389-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45188</v>
+        <v>45063</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5786,7 +5781,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>7.1</v>
+        <v>3.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5823,14 +5818,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 26812-2024</t>
+          <t>A 44176-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45470.54344907407</v>
+        <v>45188</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5843,7 +5838,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.7</v>
+        <v>7.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5880,14 +5875,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 29801-2022</t>
+          <t>A 23457-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44755.70518518519</v>
+        <v>45453.65128472223</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5900,7 +5895,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5937,14 +5932,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 18852-2024</t>
+          <t>A 39714-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45426.69550925926</v>
+        <v>45552.60074074074</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5957,7 +5952,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5994,14 +5989,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 43520-2022</t>
+          <t>A 18852-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44837.37417824074</v>
+        <v>45426.69550925926</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6014,7 +6009,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6051,14 +6046,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 4673-2026</t>
+          <t>A 56394-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46048.42462962963</v>
+        <v>45974.74313657408</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6071,7 +6066,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>8.199999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6108,14 +6103,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 16538-2025</t>
+          <t>A 51724-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45751.66126157407</v>
+        <v>45222</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6128,7 +6123,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6165,14 +6160,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 5655-2026</t>
+          <t>A 5631-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46051.44604166667</v>
+        <v>45334.61013888889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6185,7 +6180,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6222,14 +6217,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 45990-2022</t>
+          <t>A 58408-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44846</v>
+        <v>45985.56969907408</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6242,7 +6237,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.3</v>
+        <v>8.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6279,14 +6274,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 143-2023</t>
+          <t>A 21579-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44928.53378472223</v>
+        <v>45782.91234953704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6299,7 +6294,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6336,14 +6331,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 18851-2024</t>
+          <t>A 10679-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45426.69</v>
+        <v>45721.89462962963</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6356,7 +6351,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6393,14 +6388,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 8943-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46056</v>
+        <v>45713.45105324074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6413,7 +6408,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6450,14 +6445,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 11237-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46056</v>
+        <v>45726.36668981481</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6470,7 +6465,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6507,14 +6502,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 6946-2026</t>
+          <t>A 15078-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46057</v>
+        <v>45743.84284722222</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6527,7 +6522,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6564,14 +6559,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 71835-2021</t>
+          <t>A 10677-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44543.62230324074</v>
+        <v>45721.89055555555</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6584,7 +6579,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6621,14 +6616,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 34366-2022</t>
+          <t>A 74285-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44792</v>
+        <v>44558</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6641,7 +6636,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6678,14 +6673,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 43207-2025</t>
+          <t>A 4673-2026</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45910.45111111111</v>
+        <v>46048.42462962963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6698,7 +6693,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6735,14 +6730,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 51724-2023</t>
+          <t>A 5655-2026</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45222</v>
+        <v>46051.44604166667</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6755,7 +6750,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6792,14 +6787,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 661-2025</t>
+          <t>A 61417-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45664.68572916667</v>
+        <v>44916.35082175926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6812,7 +6807,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6849,14 +6844,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 24461-2023</t>
+          <t>A 32272-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45082</v>
+        <v>45120.35368055556</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6869,7 +6864,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>4.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6906,14 +6901,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 13880-2024</t>
+          <t>A 32847-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45391.59994212963</v>
+        <v>45124.61965277778</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6926,7 +6921,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6963,14 +6958,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 4263-2024</t>
+          <t>A 6946-2026</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45324.51049768519</v>
+        <v>46057</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6983,7 +6978,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7020,14 +7015,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 23457-2024</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45453.65128472223</v>
+        <v>46056</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7040,7 +7035,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7077,14 +7072,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 41765-2021</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44425</v>
+        <v>46056</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7097,7 +7092,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.6</v>
+        <v>0.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7134,14 +7129,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 21389-2023</t>
+          <t>A 34366-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45063</v>
+        <v>44792</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7154,7 +7149,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7191,14 +7186,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 4262-2024</t>
+          <t>A 43207-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45324.50902777778</v>
+        <v>45910.45111111111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7211,7 +7206,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>14</v>
+        <v>3.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7248,14 +7243,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 27463-2024</t>
+          <t>A 25135-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45474.45266203704</v>
+        <v>45798</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7305,14 +7300,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 63319-2021</t>
+          <t>A 32392-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44508.45226851852</v>
+        <v>45837.9102199074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7325,7 +7320,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7362,14 +7357,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 5631-2024</t>
+          <t>A 32391-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45334.61013888889</v>
+        <v>45837.90662037037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7382,7 +7377,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7419,14 +7414,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 21579-2025</t>
+          <t>A 33493-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45782.91234953704</v>
+        <v>44377</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7476,14 +7471,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 10677-2025</t>
+          <t>A 34250-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45721.89055555555</v>
+        <v>45844</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7496,7 +7491,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>7.4</v>
+        <v>1.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7533,14 +7528,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 10679-2025</t>
+          <t>A 49985-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45721.89462962963</v>
+        <v>45215</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7553,7 +7548,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7590,14 +7585,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 8943-2025</t>
+          <t>A 34244-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45713.45105324074</v>
+        <v>45844</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7610,7 +7605,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7647,14 +7642,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 11237-2025</t>
+          <t>A 25624-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45726.36668981481</v>
+        <v>45803.57885416667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7667,7 +7662,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7704,14 +7699,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 15078-2025</t>
+          <t>A 36055-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45743.84284722222</v>
+        <v>45866</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7724,7 +7719,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.8</v>
+        <v>2.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7761,14 +7756,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 74285-2021</t>
+          <t>A 6096-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44558</v>
+        <v>45697</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7781,7 +7776,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7818,14 +7813,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 61417-2022</t>
+          <t>A 41442-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44916.35082175926</v>
+        <v>45869</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7838,7 +7833,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7872,17 +7867,17 @@
       </c>
       <c r="R118" s="2" t="inlineStr"/>
     </row>
-    <row r="119" ht="15" customHeight="1">
+    <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 32272-2023</t>
+          <t>A 37443-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45120.35368055556</v>
+        <v>45877.54152777778</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7894,8 +7889,13 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7928,63 +7928,6 @@
         <v>0</v>
       </c>
       <c r="R119" s="2" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>A 32847-2023</t>
-        </is>
-      </c>
-      <c r="B120" s="1" t="n">
-        <v>45124.61965277778</v>
-      </c>
-      <c r="C120" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G120" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0</v>
-      </c>
-      <c r="M120" t="n">
-        <v>0</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0</v>
-      </c>
-      <c r="O120" t="n">
-        <v>0</v>
-      </c>
-      <c r="P120" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>0</v>
-      </c>
-      <c r="R120" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -575,7 +575,7 @@
         <v>45548</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45526.57324074074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45695.66287037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45993.54930555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45355.57679398148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45915.58515046296</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1142,14 +1142,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 53008-2025</t>
+          <t>A 36424-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45957</v>
+        <v>45868.90353009259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1162,17 +1162,17 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>16.9</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" t="n">
         <v>2</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1195,129 +1195,129 @@
         <v>3</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Vedtrappmossa
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 36424-2025 artfynd.xlsx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 36424-2025 karta.png", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 36424-2025 FSC-klagomål.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 36424-2025 FSC-klagomål mail.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 36424-2025 tillsynsbegäran.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 36424-2025 tillsynsbegäran mail.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="Z8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 36424-2025 prioriterade fågelarter.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 53008-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45957</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
 Kambräken
 Västlig hakmossa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53008-2025 artfynd.xlsx", "A 53008-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53008-2025 karta.png", "A 53008-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53008-2025 FSC-klagomål.docx", "A 53008-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53008-2025 FSC-klagomål mail.docx", "A 53008-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53008-2025 tillsynsbegäran.docx", "A 53008-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53008-2025 tillsynsbegäran mail.docx", "A 53008-2025")</f>
         <v/>
       </c>
-      <c r="Z8">
+      <c r="Z9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53008-2025 prioriterade fågelarter.docx", "A 53008-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 36424-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45868.90353009259</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Vedtrappmossa
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 36424-2025 artfynd.xlsx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 36424-2025 karta.png", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 36424-2025 FSC-klagomål.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 36424-2025 FSC-klagomål mail.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 36424-2025 tillsynsbegäran.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 36424-2025 tillsynsbegäran mail.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="Z9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 36424-2025 prioriterade fågelarter.docx", "A 36424-2025")</f>
         <v/>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>45334.6115162037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1496,14 +1496,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 57116-2025</t>
+          <t>A 48345-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>45979.46130787037</v>
+        <v>44451</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
@@ -1551,49 +1551,49 @@
       <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Västlig hakmossa</t>
+Blåmossa</t>
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 57116-2025 artfynd.xlsx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 48345-2021 artfynd.xlsx", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 57116-2025 karta.png", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 48345-2021 karta.png", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 57116-2025 FSC-klagomål.docx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 48345-2021 FSC-klagomål.docx", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 57116-2025 FSC-klagomål mail.docx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 48345-2021 FSC-klagomål mail.docx", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 57116-2025 tillsynsbegäran.docx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 48345-2021 tillsynsbegäran.docx", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 57116-2025 tillsynsbegäran mail.docx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 48345-2021 tillsynsbegäran mail.docx", "A 48345-2021")</f>
         <v/>
       </c>
       <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 57116-2025 prioriterade fågelarter.docx", "A 57116-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 48345-2021 prioriterade fågelarter.docx", "A 48345-2021")</f>
         <v/>
       </c>
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 53007-2025</t>
+          <t>A 57116-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45957</v>
+        <v>45979.46130787037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1645,45 +1645,45 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53007-2025 artfynd.xlsx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 57116-2025 artfynd.xlsx", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53007-2025 karta.png", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 57116-2025 karta.png", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53007-2025 FSC-klagomål.docx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 57116-2025 FSC-klagomål.docx", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53007-2025 FSC-klagomål mail.docx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 57116-2025 FSC-klagomål mail.docx", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53007-2025 tillsynsbegäran.docx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 57116-2025 tillsynsbegäran.docx", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53007-2025 tillsynsbegäran mail.docx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 57116-2025 tillsynsbegäran mail.docx", "A 57116-2025")</f>
         <v/>
       </c>
       <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53007-2025 prioriterade fågelarter.docx", "A 53007-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 57116-2025 prioriterade fågelarter.docx", "A 57116-2025")</f>
         <v/>
       </c>
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 48345-2021</t>
+          <t>A 53007-2025</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44451</v>
+        <v>45957</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
@@ -1731,49 +1731,49 @@
       <c r="R14" s="2" t="inlineStr">
         <is>
           <t>Spillkråka
-Blåmossa</t>
+Västlig hakmossa</t>
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 48345-2021 artfynd.xlsx", "A 48345-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53007-2025 artfynd.xlsx", "A 53007-2025")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 48345-2021 karta.png", "A 48345-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53007-2025 karta.png", "A 53007-2025")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 48345-2021 FSC-klagomål.docx", "A 48345-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53007-2025 FSC-klagomål.docx", "A 53007-2025")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 48345-2021 FSC-klagomål mail.docx", "A 48345-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53007-2025 FSC-klagomål mail.docx", "A 53007-2025")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 48345-2021 tillsynsbegäran.docx", "A 48345-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53007-2025 tillsynsbegäran.docx", "A 53007-2025")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 48345-2021 tillsynsbegäran mail.docx", "A 48345-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53007-2025 tillsynsbegäran mail.docx", "A 53007-2025")</f>
         <v/>
       </c>
       <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 48345-2021 prioriterade fågelarter.docx", "A 48345-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53007-2025 prioriterade fågelarter.docx", "A 53007-2025")</f>
         <v/>
       </c>
     </row>
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 49988-2023</t>
+          <t>A 45243-2025</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45215</v>
+        <v>45919.60089120371</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>8.1</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1824,41 +1824,41 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 49988-2023 artfynd.xlsx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 49988-2023 karta.png", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 49988-2023 FSC-klagomål.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 49988-2023 FSC-klagomål mail.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 49988-2023 tillsynsbegäran.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 49988-2023 tillsynsbegäran mail.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 45243-2025</t>
+          <t>A 6082-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45919.60089120371</v>
+        <v>45697</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>8.1</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1880,7 +1880,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1905,45 +1905,49 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6082-2025 artfynd.xlsx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6082-2025 karta.png", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6082-2025 FSC-klagomål.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6082-2025 FSC-klagomål mail.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6082-2025 tillsynsbegäran.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6082-2025 tillsynsbegäran mail.docx", "A 6082-2025")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6082-2025 prioriterade fågelarter.docx", "A 6082-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 23704-2024</t>
+          <t>A 33426-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45454.71498842593</v>
+        <v>44377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1956,7 +1960,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.9</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1968,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1980,55 +1984,55 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Hedjohannesört</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 23704-2024 artfynd.xlsx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 23704-2024 karta.png", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 23704-2024 FSC-klagomål.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 23704-2024 FSC-klagomål mail.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 23704-2024 tillsynsbegäran.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 23704-2024 tillsynsbegäran mail.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 6082-2025</t>
+          <t>A 38103-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45697</v>
+        <v>45882.49244212963</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2045,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2079,45 +2083,45 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6082-2025 artfynd.xlsx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 38103-2025 artfynd.xlsx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6082-2025 karta.png", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 38103-2025 karta.png", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6082-2025 FSC-klagomål.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 38103-2025 FSC-klagomål.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6082-2025 FSC-klagomål mail.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 38103-2025 FSC-klagomål mail.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6082-2025 tillsynsbegäran.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 38103-2025 tillsynsbegäran.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6082-2025 tillsynsbegäran mail.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 38103-2025 tillsynsbegäran mail.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6082-2025 prioriterade fågelarter.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 38103-2025 prioriterade fågelarter.docx", "A 38103-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 33426-2021</t>
+          <t>A 23704-2024</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44377</v>
+        <v>45454.71498842593</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2130,7 +2134,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>4.9</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2142,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2154,55 +2158,55 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Hedjohannesört</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 23704-2024 artfynd.xlsx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 23704-2024 karta.png", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 23704-2024 FSC-klagomål.docx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 23704-2024 FSC-klagomål mail.docx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 23704-2024 tillsynsbegäran.docx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 23704-2024 tillsynsbegäran mail.docx", "A 23704-2024")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 38103-2025</t>
+          <t>A 49988-2023</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45882.49244212963</v>
+        <v>45215</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2215,7 +2219,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2224,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2239,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2249,35 +2253,31 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 38103-2025 artfynd.xlsx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 49988-2023 artfynd.xlsx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 38103-2025 karta.png", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 49988-2023 karta.png", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 38103-2025 FSC-klagomål.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 49988-2023 FSC-klagomål.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 38103-2025 FSC-klagomål mail.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 49988-2023 FSC-klagomål mail.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 38103-2025 tillsynsbegäran.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 49988-2023 tillsynsbegäran.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 38103-2025 tillsynsbegäran mail.docx", "A 38103-2025")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 38103-2025 prioriterade fågelarter.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 49988-2023 tillsynsbegäran mail.docx", "A 49988-2023")</f>
         <v/>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
         <v>44425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2341,14 +2341,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 48312-2021</t>
+          <t>A 19132-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44450.66346064815</v>
+        <v>44691</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2398,14 +2398,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 19132-2022</t>
+          <t>A 19133-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
         <v>44691</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2455,14 +2455,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 19133-2022</t>
+          <t>A 48312-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44691</v>
+        <v>44450.66346064815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2512,14 +2512,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 43847-2022</t>
+          <t>A 41751-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44838</v>
+        <v>44425</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2569,14 +2569,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 41751-2021</t>
+          <t>A 43847-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44425</v>
+        <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>44836</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44459.89270833333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44459</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44760.44488425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>44760</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44872.64650462963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44450</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,14 +3082,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 1995-2024</t>
+          <t>A 21240-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45308</v>
+        <v>45058</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 62221-2023</t>
+          <t>A 17451-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45267.54049768519</v>
+        <v>45757.44825231482</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 4204-2024</t>
+          <t>A 17455-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45324.36422453704</v>
+        <v>45757.45109953704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.4</v>
+        <v>2.1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 50071-2023</t>
+          <t>A 62221-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45215</v>
+        <v>45267.54049768519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3310,14 +3310,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 30170-2022</t>
+          <t>A 5631-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44757</v>
+        <v>45334.61013888889</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3367,14 +3367,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 4262-2024</t>
+          <t>A 29223-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45324.50902777778</v>
+        <v>45482.81978009259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>14</v>
+        <v>5.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3424,14 +3424,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 21899-2021</t>
+          <t>A 21579-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44322</v>
+        <v>45782.91234953704</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3481,14 +3481,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 13880-2024</t>
+          <t>A 21883-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45391.59994212963</v>
+        <v>44322</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3538,14 +3538,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 8334-2023</t>
+          <t>A 21899-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44975</v>
+        <v>44322</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3595,14 +3595,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 45990-2022</t>
+          <t>A 10655-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44846</v>
+        <v>44624</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.3</v>
+        <v>13.3</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3652,14 +3652,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 661-2025</t>
+          <t>A 39714-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45664.68572916667</v>
+        <v>45552.60074074074</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3709,14 +3709,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 33244-2021</t>
+          <t>A 40951-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44377</v>
+        <v>45897.66342592592</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3766,14 +3766,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 24461-2023</t>
+          <t>A 10677-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45082</v>
+        <v>45721.89055555555</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>7.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3823,14 +3823,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 13529-2024</t>
+          <t>A 10679-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45387.84504629629</v>
+        <v>45721.89462962963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3880,14 +3880,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 143-2023</t>
+          <t>A 8943-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44928.53378472223</v>
+        <v>45713.45105324074</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3937,14 +3937,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 55830-2024</t>
+          <t>A 11237-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45623.48478009259</v>
+        <v>45726.36668981481</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3994,14 +3994,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 41765-2021</t>
+          <t>A 15078-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44425</v>
+        <v>45743.84284722222</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.6</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4051,14 +4051,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 63319-2021</t>
+          <t>A 74285-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44508.45226851852</v>
+        <v>44558</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4108,14 +4108,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 27463-2024</t>
+          <t>A 61417-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45474.45266203704</v>
+        <v>44916.35082175926</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4165,14 +4165,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 16538-2025</t>
+          <t>A 19531-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45751.66126157407</v>
+        <v>45050.54896990741</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4222,14 +4222,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 10655-2022</t>
+          <t>A 45124-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44624</v>
+        <v>45919.43206018519</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>13.3</v>
+        <v>3.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4279,14 +4279,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 17451-2025</t>
+          <t>A 32272-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45757.44825231482</v>
+        <v>45120.35368055556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.5</v>
+        <v>4.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4336,14 +4336,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 17455-2025</t>
+          <t>A 5705-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45757.45109953704</v>
+        <v>45694</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4393,14 +4393,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 7505-2024</t>
+          <t>A 32847-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45347.93181712963</v>
+        <v>45124.61965277778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.8</v>
+        <v>4.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4450,14 +4450,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 29801-2022</t>
+          <t>A 7505-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44755.70518518519</v>
+        <v>45347.93181712963</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4507,14 +4507,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 49981-2023</t>
+          <t>A 46588-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45215</v>
+        <v>45926.39152777778</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4564,14 +4564,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 17922-2025</t>
+          <t>A 47564-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45758.90710648148</v>
+        <v>45931.38982638889</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4621,14 +4621,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 19531-2023</t>
+          <t>A 47569-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45050.54896990741</v>
+        <v>45931.39331018519</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.9</v>
+        <v>8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4678,14 +4678,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4263-2024</t>
+          <t>A 8334-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45324.51049768519</v>
+        <v>44975</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4735,14 +4735,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 43520-2022</t>
+          <t>A 25135-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44837.37417824074</v>
+        <v>45798</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4792,14 +4792,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 71835-2021</t>
+          <t>A 32391-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44543.62230324074</v>
+        <v>45837.90662037037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4849,14 +4849,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 5705-2025</t>
+          <t>A 32392-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45694</v>
+        <v>45837.9102199074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4906,14 +4906,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 21883-2021</t>
+          <t>A 33244-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44322</v>
+        <v>44377</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4963,14 +4963,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 62979-2023</t>
+          <t>A 33493-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45271</v>
+        <v>44377</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5020,14 +5020,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 40951-2025</t>
+          <t>A 34250-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45897.66342592592</v>
+        <v>45844</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5077,14 +5077,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 29223-2024</t>
+          <t>A 49985-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45482.81978009259</v>
+        <v>45215</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5134,14 +5134,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 56782-2022</t>
+          <t>A 34244-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44894.39475694444</v>
+        <v>45844</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5191,14 +5191,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 45124-2025</t>
+          <t>A 25624-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45919.43206018519</v>
+        <v>45803.57885416667</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5248,14 +5248,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 26812-2024</t>
+          <t>A 36055-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45470.54344907407</v>
+        <v>45866</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5305,14 +5305,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 46588-2025</t>
+          <t>A 41442-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45926.39152777778</v>
+        <v>45869</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5362,14 +5362,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 47569-2025</t>
+          <t>A 6096-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45931.39331018519</v>
+        <v>45697</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5419,14 +5419,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 47564-2025</t>
+          <t>A 52932-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45931.38982638889</v>
+        <v>45957.62373842593</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5476,14 +5476,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 10810-2023</t>
+          <t>A 37443-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44989.75795138889</v>
+        <v>45877.54152777778</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5495,8 +5495,13 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5533,14 +5538,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 62128-2021</t>
+          <t>A 50071-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44502</v>
+        <v>45215</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5553,7 +5558,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5590,14 +5595,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 21240-2023</t>
+          <t>A 17922-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45058</v>
+        <v>45758.90710648148</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5610,7 +5615,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5647,14 +5652,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 52932-2025</t>
+          <t>A 49981-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45957.62373842593</v>
+        <v>45215</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5667,7 +5672,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5704,14 +5709,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 18851-2024</t>
+          <t>A 56782-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45426.69</v>
+        <v>44894.39475694444</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5724,7 +5729,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5761,14 +5766,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 21389-2023</t>
+          <t>A 1995-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45063</v>
+        <v>45308</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5781,7 +5786,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5818,14 +5823,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 44176-2023</t>
+          <t>A 30170-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45188</v>
+        <v>44757</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5838,7 +5843,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>7.1</v>
+        <v>3.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5875,14 +5880,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 23457-2024</t>
+          <t>A 10810-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45453.65128472223</v>
+        <v>44989.75795138889</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5895,7 +5900,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.1</v>
+        <v>0.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5932,14 +5937,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 39714-2024</t>
+          <t>A 4204-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45552.60074074074</v>
+        <v>45324.36422453704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5952,7 +5957,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5989,14 +5994,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 18852-2024</t>
+          <t>A 56394-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45426.69550925926</v>
+        <v>45974.74313657408</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6009,7 +6014,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6046,14 +6051,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 56394-2025</t>
+          <t>A 55830-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45974.74313657408</v>
+        <v>45623.48478009259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6066,7 +6071,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6103,14 +6108,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 51724-2023</t>
+          <t>A 58408-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45222</v>
+        <v>45985.56969907408</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6123,7 +6128,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.1</v>
+        <v>8.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6160,14 +6165,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 5631-2024</t>
+          <t>A 62128-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45334.61013888889</v>
+        <v>44502</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6180,7 +6185,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6217,14 +6222,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 58408-2025</t>
+          <t>A 62979-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45985.56969907408</v>
+        <v>45271</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6237,7 +6242,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>8.1</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6274,14 +6279,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 21579-2025</t>
+          <t>A 13529-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45782.91234953704</v>
+        <v>45387.84504629629</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6294,7 +6299,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6331,14 +6336,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 10679-2025</t>
+          <t>A 44176-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45721.89462962963</v>
+        <v>45188</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6351,7 +6356,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.4</v>
+        <v>7.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6388,14 +6393,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 8943-2025</t>
+          <t>A 26812-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45713.45105324074</v>
+        <v>45470.54344907407</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6408,7 +6413,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6445,14 +6450,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 11237-2025</t>
+          <t>A 29801-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45726.36668981481</v>
+        <v>44755.70518518519</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6465,7 +6470,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6502,14 +6507,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 15078-2025</t>
+          <t>A 18852-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45743.84284722222</v>
+        <v>45426.69550925926</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6522,7 +6527,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6559,14 +6564,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 10677-2025</t>
+          <t>A 4673-2026</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45721.89055555555</v>
+        <v>46048.42462962963</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6579,7 +6584,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6616,14 +6621,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 74285-2021</t>
+          <t>A 43520-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44558</v>
+        <v>44837.37417824074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6636,7 +6641,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6673,14 +6678,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 4673-2026</t>
+          <t>A 5655-2026</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46048.42462962963</v>
+        <v>46051.44604166667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6693,7 +6698,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>8.199999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6730,14 +6735,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 5655-2026</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46051.44604166667</v>
+        <v>46056</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6750,7 +6755,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6787,14 +6792,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 61417-2022</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44916.35082175926</v>
+        <v>46056</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6807,7 +6812,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6844,14 +6849,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 32272-2023</t>
+          <t>A 6946-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45120.35368055556</v>
+        <v>46057</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6864,7 +6869,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.9</v>
+        <v>2.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6901,14 +6906,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 32847-2023</t>
+          <t>A 16538-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45124.61965277778</v>
+        <v>45751.66126157407</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6921,7 +6926,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6958,14 +6963,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 6946-2026</t>
+          <t>A 45990-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46057</v>
+        <v>44846</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6978,7 +6983,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7015,14 +7020,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 34366-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46056</v>
+        <v>44792</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7035,7 +7040,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7072,14 +7077,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 143-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>46056</v>
+        <v>44928.53378472223</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7092,7 +7097,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7129,14 +7134,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 34366-2022</t>
+          <t>A 18851-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44792</v>
+        <v>45426.69</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7149,7 +7154,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7186,14 +7191,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 43207-2025</t>
+          <t>A 71835-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45910.45111111111</v>
+        <v>44543.62230324074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7206,7 +7211,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7243,14 +7248,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 25135-2025</t>
+          <t>A 43207-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45798</v>
+        <v>45910.45111111111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7263,7 +7268,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7300,14 +7305,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 32392-2025</t>
+          <t>A 51724-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45837.9102199074</v>
+        <v>45222</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7320,7 +7325,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7357,14 +7362,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 32391-2025</t>
+          <t>A 661-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45837.90662037037</v>
+        <v>45664.68572916667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7377,7 +7382,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7414,14 +7419,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 33493-2021</t>
+          <t>A 24461-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44377</v>
+        <v>45082</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7434,7 +7439,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7471,14 +7476,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 34250-2025</t>
+          <t>A 13880-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45844</v>
+        <v>45391.59994212963</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7491,7 +7496,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7528,14 +7533,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 49985-2023</t>
+          <t>A 4263-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45215</v>
+        <v>45324.51049768519</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7548,7 +7553,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>8.199999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7585,14 +7590,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 34244-2025</t>
+          <t>A 23457-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45844</v>
+        <v>45453.65128472223</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7605,7 +7610,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.9</v>
+        <v>5.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7642,14 +7647,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 25624-2025</t>
+          <t>A 41765-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45803.57885416667</v>
+        <v>44425</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7662,7 +7667,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7699,14 +7704,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 36055-2025</t>
+          <t>A 21389-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45866</v>
+        <v>45063</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7719,7 +7724,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7756,14 +7761,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 6096-2025</t>
+          <t>A 4262-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45697</v>
+        <v>45324.50902777778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7776,7 +7781,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>8.699999999999999</v>
+        <v>14</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7813,14 +7818,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 41442-2025</t>
+          <t>A 27463-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45869</v>
+        <v>45474.45266203704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7833,7 +7838,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7870,14 +7875,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 37443-2025</t>
+          <t>A 63319-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45877.54152777778</v>
+        <v>44508.45226851852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7889,13 +7894,8 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -575,7 +575,7 @@
         <v>45548</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -684,7 +684,7 @@
         <v>45526.57324074074</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -777,7 +777,7 @@
         <v>45695.66287037037</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
         <v>45993.54930555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45355.57679398148</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1053,7 +1053,7 @@
         <v>45915.58515046296</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1149,7 +1149,7 @@
         <v>45868.90353009259</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1240,7 +1240,7 @@
         <v>45957</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1417,7 +1417,7 @@
         <v>45334.6115162037</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1503,7 +1503,7 @@
         <v>44451</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1593,7 +1593,7 @@
         <v>45979.46130787037</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>45957</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1766,14 +1766,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 45243-2025</t>
+          <t>A 49988-2023</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>45919.60089120371</v>
+        <v>45215</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>8.1</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
         <v>1</v>
@@ -1824,41 +1824,41 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 49988-2023 artfynd.xlsx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 49988-2023 karta.png", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 49988-2023 FSC-klagomål.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 49988-2023 FSC-klagomål mail.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 49988-2023 tillsynsbegäran.docx", "A 49988-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 49988-2023 tillsynsbegäran mail.docx", "A 49988-2023")</f>
         <v/>
       </c>
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 6082-2025</t>
+          <t>A 23704-2024</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45697</v>
+        <v>45454.71498842593</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.8</v>
+        <v>4.9</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1880,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1898,56 +1898,52 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Hedjohannesört</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6082-2025 artfynd.xlsx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 23704-2024 artfynd.xlsx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6082-2025 karta.png", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 23704-2024 karta.png", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6082-2025 FSC-klagomål.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 23704-2024 FSC-klagomål.docx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6082-2025 FSC-klagomål mail.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 23704-2024 FSC-klagomål mail.docx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6082-2025 tillsynsbegäran.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 23704-2024 tillsynsbegäran.docx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6082-2025 tillsynsbegäran mail.docx", "A 6082-2025")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6082-2025 prioriterade fågelarter.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 23704-2024 tillsynsbegäran mail.docx", "A 23704-2024")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 33426-2021</t>
+          <t>A 45243-2025</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44377</v>
+        <v>45919.60089120371</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1960,7 +1956,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>8.1</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1994,45 +1990,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 38103-2025</t>
+          <t>A 6082-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45882.49244212963</v>
+        <v>45697</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2045,7 +2041,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2083,45 +2079,45 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 38103-2025 artfynd.xlsx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6082-2025 artfynd.xlsx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 38103-2025 karta.png", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6082-2025 karta.png", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 38103-2025 FSC-klagomål.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6082-2025 FSC-klagomål.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 38103-2025 FSC-klagomål mail.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6082-2025 FSC-klagomål mail.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 38103-2025 tillsynsbegäran.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6082-2025 tillsynsbegäran.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 38103-2025 tillsynsbegäran mail.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6082-2025 tillsynsbegäran mail.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 38103-2025 prioriterade fågelarter.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6082-2025 prioriterade fågelarter.docx", "A 6082-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 23704-2024</t>
+          <t>A 33426-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45454.71498842593</v>
+        <v>44377</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2134,7 +2130,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.9</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2146,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2158,55 +2154,55 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Hedjohannesört</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 23704-2024 artfynd.xlsx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 23704-2024 karta.png", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 23704-2024 FSC-klagomål.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 23704-2024 FSC-klagomål mail.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 23704-2024 tillsynsbegäran.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 23704-2024 tillsynsbegäran mail.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 49988-2023</t>
+          <t>A 38103-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45215</v>
+        <v>45882.49244212963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2219,7 +2215,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2228,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2243,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2253,31 +2249,35 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 49988-2023 artfynd.xlsx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 38103-2025 artfynd.xlsx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 49988-2023 karta.png", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 38103-2025 karta.png", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 49988-2023 FSC-klagomål.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 38103-2025 FSC-klagomål.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 49988-2023 FSC-klagomål mail.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 38103-2025 FSC-klagomål mail.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 49988-2023 tillsynsbegäran.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 38103-2025 tillsynsbegäran.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 49988-2023 tillsynsbegäran mail.docx", "A 49988-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 38103-2025 tillsynsbegäran mail.docx", "A 38103-2025")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 38103-2025 prioriterade fågelarter.docx", "A 38103-2025")</f>
         <v/>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
         <v>44425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44691</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44691</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44450.66346064815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44425</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44836</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44459.89270833333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44459</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44760.44488425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>44760</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44872.64650462963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44450</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,14 +3082,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 21240-2023</t>
+          <t>A 8334-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45058</v>
+        <v>44975</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3139,14 +3139,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 17451-2025</t>
+          <t>A 62221-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45757.44825231482</v>
+        <v>45267.54049768519</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3159,7 +3159,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3196,14 +3196,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 17455-2025</t>
+          <t>A 4204-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45757.45109953704</v>
+        <v>45324.36422453704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3253,14 +3253,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 62221-2023</t>
+          <t>A 50071-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45267.54049768519</v>
+        <v>45215</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3310,14 +3310,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 5631-2024</t>
+          <t>A 30170-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45334.61013888889</v>
+        <v>44757</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3367,14 +3367,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 29223-2024</t>
+          <t>A 26812-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45482.81978009259</v>
+        <v>45470.54344907407</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3424,14 +3424,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 21579-2025</t>
+          <t>A 13529-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45782.91234953704</v>
+        <v>45387.84504629629</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3481,14 +3481,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 21883-2021</t>
+          <t>A 13880-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44322</v>
+        <v>45391.59994212963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3538,14 +3538,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 21899-2021</t>
+          <t>A 1995-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44322</v>
+        <v>45308</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3595,14 +3595,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 10655-2022</t>
+          <t>A 21899-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44624</v>
+        <v>44322</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>13.3</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3652,14 +3652,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 39714-2024</t>
+          <t>A 45990-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45552.60074074074</v>
+        <v>44846</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3709,14 +3709,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 40951-2025</t>
+          <t>A 55830-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45897.66342592592</v>
+        <v>45623.48478009259</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>5.1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3766,14 +3766,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 10677-2025</t>
+          <t>A 4262-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45721.89055555555</v>
+        <v>45324.50902777778</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>7.4</v>
+        <v>14</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3823,14 +3823,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 10679-2025</t>
+          <t>A 41765-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45721.89462962963</v>
+        <v>44425</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3880,14 +3880,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 8943-2025</t>
+          <t>A 10810-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45713.45105324074</v>
+        <v>44989.75795138889</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3937,14 +3937,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 11237-2025</t>
+          <t>A 661-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45726.36668981481</v>
+        <v>45664.68572916667</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3994,14 +3994,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 15078-2025</t>
+          <t>A 62128-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45743.84284722222</v>
+        <v>44502</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4051,14 +4051,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 74285-2021</t>
+          <t>A 43520-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44558</v>
+        <v>44837.37417824074</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4108,14 +4108,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 61417-2022</t>
+          <t>A 21240-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44916.35082175926</v>
+        <v>45058</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4165,14 +4165,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 19531-2023</t>
+          <t>A 29223-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45050.54896990741</v>
+        <v>45482.81978009259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.9</v>
+        <v>5.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4222,14 +4222,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 45124-2025</t>
+          <t>A 18851-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45919.43206018519</v>
+        <v>45426.69</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4279,14 +4279,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 32272-2023</t>
+          <t>A 21389-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45120.35368055556</v>
+        <v>45063</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.9</v>
+        <v>3.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4336,14 +4336,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 5705-2025</t>
+          <t>A 44176-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45694</v>
+        <v>45188</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.2</v>
+        <v>7.1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4393,14 +4393,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 32847-2023</t>
+          <t>A 33244-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45124.61965277778</v>
+        <v>44377</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4450,14 +4450,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 7505-2024</t>
+          <t>A 23457-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45347.93181712963</v>
+        <v>45453.65128472223</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.8</v>
+        <v>5.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4507,14 +4507,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 46588-2025</t>
+          <t>A 39714-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45926.39152777778</v>
+        <v>45552.60074074074</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4564,14 +4564,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 47564-2025</t>
+          <t>A 18852-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45931.38982638889</v>
+        <v>45426.69550925926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4621,14 +4621,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 47569-2025</t>
+          <t>A 51724-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45931.39331018519</v>
+        <v>45222</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4678,14 +4678,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 8334-2023</t>
+          <t>A 27463-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44975</v>
+        <v>45474.45266203704</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4735,14 +4735,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 25135-2025</t>
+          <t>A 5631-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45798</v>
+        <v>45334.61013888889</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4792,14 +4792,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 32391-2025</t>
+          <t>A 17922-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45837.90662037037</v>
+        <v>45758.90710648148</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4849,14 +4849,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 32392-2025</t>
+          <t>A 10655-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45837.9102199074</v>
+        <v>44624</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>13.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4906,14 +4906,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 33244-2021</t>
+          <t>A 17451-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44377</v>
+        <v>45757.44825231482</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4963,14 +4963,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 33493-2021</t>
+          <t>A 17455-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44377</v>
+        <v>45757.45109953704</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5020,14 +5020,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 34250-2025</t>
+          <t>A 21579-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45844</v>
+        <v>45782.91234953704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5040,7 +5040,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5077,14 +5077,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 49985-2023</t>
+          <t>A 24461-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45215</v>
+        <v>45082</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>8.199999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5134,14 +5134,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 34244-2025</t>
+          <t>A 143-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45844</v>
+        <v>44928.53378472223</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5191,14 +5191,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 25624-2025</t>
+          <t>A 19531-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45803.57885416667</v>
+        <v>45050.54896990741</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5211,7 +5211,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5</v>
+        <v>1.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5248,14 +5248,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 36055-2025</t>
+          <t>A 4263-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45866</v>
+        <v>45324.51049768519</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5305,14 +5305,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 41442-2025</t>
+          <t>A 63319-2021</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45869</v>
+        <v>44508.45226851852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5362,14 +5362,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 6096-2025</t>
+          <t>A 40951-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45697</v>
+        <v>45897.66342592592</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5382,7 +5382,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>8.699999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5419,14 +5419,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 52932-2025</t>
+          <t>A 10679-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45957.62373842593</v>
+        <v>45721.89462962963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5476,14 +5476,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 37443-2025</t>
+          <t>A 8943-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45877.54152777778</v>
+        <v>45713.45105324074</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5495,13 +5495,8 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5538,14 +5533,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 50071-2023</t>
+          <t>A 11237-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45215</v>
+        <v>45726.36668981481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5558,7 +5553,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5595,14 +5590,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 17922-2025</t>
+          <t>A 15078-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45758.90710648148</v>
+        <v>45743.84284722222</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5652,14 +5647,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 49981-2023</t>
+          <t>A 10677-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45215</v>
+        <v>45721.89055555555</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5672,7 +5667,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.5</v>
+        <v>7.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5709,14 +5704,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 56782-2022</t>
+          <t>A 74285-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44894.39475694444</v>
+        <v>44558</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5729,7 +5724,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5766,14 +5761,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 1995-2024</t>
+          <t>A 7505-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45308</v>
+        <v>45347.93181712963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5786,7 +5781,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5823,14 +5818,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 30170-2022</t>
+          <t>A 45124-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44757</v>
+        <v>45919.43206018519</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5843,7 +5838,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5880,14 +5875,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 10810-2023</t>
+          <t>A 5705-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44989.75795138889</v>
+        <v>45694</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5900,7 +5895,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5937,14 +5932,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 4204-2024</t>
+          <t>A 61417-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45324.36422453704</v>
+        <v>44916.35082175926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5957,7 +5952,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5994,14 +5989,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 56394-2025</t>
+          <t>A 46588-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45974.74313657408</v>
+        <v>45926.39152777778</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6014,7 +6009,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6051,14 +6046,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 55830-2024</t>
+          <t>A 32272-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45623.48478009259</v>
+        <v>45120.35368055556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6071,7 +6066,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6108,14 +6103,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 58408-2025</t>
+          <t>A 32847-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45985.56969907408</v>
+        <v>45124.61965277778</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6128,7 +6123,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>8.1</v>
+        <v>4.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6165,14 +6160,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 62128-2021</t>
+          <t>A 47569-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44502</v>
+        <v>45931.39331018519</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6185,7 +6180,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6222,14 +6217,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 62979-2023</t>
+          <t>A 47564-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45271</v>
+        <v>45931.38982638889</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6242,7 +6237,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6279,14 +6274,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 13529-2024</t>
+          <t>A 62979-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45387.84504629629</v>
+        <v>45271</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6299,7 +6294,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6336,14 +6331,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 44176-2023</t>
+          <t>A 16538-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45188</v>
+        <v>45751.66126157407</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6356,7 +6351,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>7.1</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6393,14 +6388,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 26812-2024</t>
+          <t>A 29801-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45470.54344907407</v>
+        <v>44755.70518518519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6413,7 +6408,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.7</v>
+        <v>4.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6450,14 +6445,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 29801-2022</t>
+          <t>A 49981-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44755.70518518519</v>
+        <v>45215</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6470,7 +6465,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.8</v>
+        <v>2.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6507,14 +6502,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 18852-2024</t>
+          <t>A 25135-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45426.69550925926</v>
+        <v>45798</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6527,7 +6522,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6564,14 +6559,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 4673-2026</t>
+          <t>A 32392-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>46048.42462962963</v>
+        <v>45837.9102199074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6584,7 +6579,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>8.199999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6621,14 +6616,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 43520-2022</t>
+          <t>A 32391-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44837.37417824074</v>
+        <v>45837.90662037037</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6641,7 +6636,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6678,14 +6673,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 5655-2026</t>
+          <t>A 52932-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46051.44604166667</v>
+        <v>45957.62373842593</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6698,7 +6693,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6735,14 +6730,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 33493-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46056</v>
+        <v>44377</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6755,7 +6750,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6792,14 +6787,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 34250-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46056</v>
+        <v>45844</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6812,7 +6807,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6849,14 +6844,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 6946-2026</t>
+          <t>A 49985-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46057</v>
+        <v>45215</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6869,7 +6864,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6906,14 +6901,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 16538-2025</t>
+          <t>A 71835-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45751.66126157407</v>
+        <v>44543.62230324074</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6926,7 +6921,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.8</v>
+        <v>7.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6963,14 +6958,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 45990-2022</t>
+          <t>A 34244-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44846</v>
+        <v>45844</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6983,7 +6978,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7020,14 +7015,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 34366-2022</t>
+          <t>A 25624-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44792</v>
+        <v>45803.57885416667</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7040,7 +7035,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7077,14 +7072,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 143-2023</t>
+          <t>A 56394-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44928.53378472223</v>
+        <v>45974.74313657408</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7097,7 +7092,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7134,14 +7129,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 18851-2024</t>
+          <t>A 21883-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45426.69</v>
+        <v>44322</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7154,7 +7149,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7191,14 +7186,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 71835-2021</t>
+          <t>A 36055-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44543.62230324074</v>
+        <v>45866</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7211,7 +7206,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>7.5</v>
+        <v>2.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7248,14 +7243,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 43207-2025</t>
+          <t>A 6096-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45910.45111111111</v>
+        <v>45697</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7268,7 +7263,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7305,14 +7300,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 51724-2023</t>
+          <t>A 41442-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45222</v>
+        <v>45869</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7325,7 +7320,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7362,14 +7357,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 661-2025</t>
+          <t>A 58408-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45664.68572916667</v>
+        <v>45985.56969907408</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7382,7 +7377,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.1</v>
+        <v>8.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7419,14 +7414,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 24461-2023</t>
+          <t>A 37443-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45082</v>
+        <v>45877.54152777778</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7438,8 +7433,13 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7476,14 +7476,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 13880-2024</t>
+          <t>A 56782-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45391.59994212963</v>
+        <v>44894.39475694444</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7533,14 +7533,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 4263-2024</t>
+          <t>A 4673-2026</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45324.51049768519</v>
+        <v>46048.42462962963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7590,14 +7590,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 23457-2024</t>
+          <t>A 5655-2026</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45453.65128472223</v>
+        <v>46051.44604166667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.1</v>
+        <v>3.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7647,14 +7647,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 41765-2021</t>
+          <t>A 6946-2026</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44425</v>
+        <v>46057</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>5.6</v>
+        <v>2.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7704,14 +7704,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 21389-2023</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45063</v>
+        <v>46056</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7761,14 +7761,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 4262-2024</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45324.50902777778</v>
+        <v>46056</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>14</v>
+        <v>0.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7818,14 +7818,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 27463-2024</t>
+          <t>A 34366-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45474.45266203704</v>
+        <v>44792</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7875,14 +7875,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 63319-2021</t>
+          <t>A 43207-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44508.45226851852</v>
+        <v>45910.45111111111</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>

--- a/Översikt KUNGÄLV.xlsx
+++ b/Översikt KUNGÄLV.xlsx
@@ -575,7 +575,7 @@
         <v>45548</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,14 +677,14 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A 34725-2024</t>
+          <t>A 6041-2025</t>
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>45526.57324074074</v>
+        <v>45695.66287037037</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>14.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -706,7 +706,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -730,6 +730,99 @@
         <v>5</v>
       </c>
       <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Björktrast
+Spillkråka
+Talltita
+Blåmossa
+Kambräken</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6041-2025 artfynd.xlsx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6041-2025 karta.png", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6041-2025 FSC-klagomål.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6041-2025 FSC-klagomål mail.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6041-2025 tillsynsbegäran.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6041-2025 tillsynsbegäran mail.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+      <c r="Z3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6041-2025 prioriterade fågelarter.docx", "A 6041-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A 34725-2024</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>45526.57324074074</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Mindre hackspett
 Spillkråka
@@ -738,125 +831,32 @@
 Kungsfågel</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 34725-2024 artfynd.xlsx", "A 34725-2024")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 34725-2024 karta.png", "A 34725-2024")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 34725-2024 FSC-klagomål.docx", "A 34725-2024")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 34725-2024 FSC-klagomål mail.docx", "A 34725-2024")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 34725-2024 tillsynsbegäran.docx", "A 34725-2024")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 34725-2024 tillsynsbegäran mail.docx", "A 34725-2024")</f>
         <v/>
       </c>
-      <c r="Z3">
+      <c r="Z4">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 34725-2024 prioriterade fågelarter.docx", "A 34725-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 6041-2025</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>45695.66287037037</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Björktrast
-Spillkråka
-Talltita
-Blåmossa
-Kambräken</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6041-2025 artfynd.xlsx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6041-2025 karta.png", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6041-2025 FSC-klagomål.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6041-2025 FSC-klagomål mail.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6041-2025 tillsynsbegäran.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6041-2025 tillsynsbegäran mail.docx", "A 6041-2025")</f>
-        <v/>
-      </c>
-      <c r="Z4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6041-2025 prioriterade fågelarter.docx", "A 6041-2025")</f>
         <v/>
       </c>
     </row>
@@ -870,7 +870,7 @@
         <v>45993.54930555556</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -955,14 +955,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 8558-2024</t>
+          <t>A 44132-2025</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45355.57679398148</v>
+        <v>45915.58515046296</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -974,8 +974,13 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>12.5</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
         <v>3</v>
@@ -1008,225 +1013,220 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Grönsångare
+Svartvit flugsnappare
+Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 44132-2025 artfynd.xlsx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 44132-2025 karta.png", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 44132-2025 FSC-klagomål.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 44132-2025 FSC-klagomål mail.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 44132-2025 tillsynsbegäran.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 44132-2025 tillsynsbegäran mail.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+      <c r="Z6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 44132-2025 prioriterade fågelarter.docx", "A 44132-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 36424-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45868.90353009259</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Vedtrappmossa
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 36424-2025 artfynd.xlsx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 36424-2025 karta.png", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 36424-2025 FSC-klagomål.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 36424-2025 FSC-klagomål mail.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 36424-2025 tillsynsbegäran.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 36424-2025 tillsynsbegäran mail.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+      <c r="Z7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 36424-2025 prioriterade fågelarter.docx", "A 36424-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 8558-2024</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45355.57679398148</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Gulsparv
 Spillkråka
 Revlummer</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 8558-2024 artfynd.xlsx", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 8558-2024 karta.png", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 8558-2024 FSC-klagomål.docx", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 8558-2024 FSC-klagomål mail.docx", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 8558-2024 tillsynsbegäran.docx", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 8558-2024 tillsynsbegäran mail.docx", "A 8558-2024")</f>
         <v/>
       </c>
-      <c r="Z6">
+      <c r="Z8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 8558-2024 prioriterade fågelarter.docx", "A 8558-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 44132-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45915.58515046296</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Grönsångare
-Svartvit flugsnappare
-Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 44132-2025 artfynd.xlsx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 44132-2025 karta.png", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 44132-2025 FSC-klagomål.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 44132-2025 FSC-klagomål mail.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 44132-2025 tillsynsbegäran.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 44132-2025 tillsynsbegäran mail.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-      <c r="Z7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 44132-2025 prioriterade fågelarter.docx", "A 44132-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 36424-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45868.90353009259</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Vedtrappmossa
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 36424-2025 artfynd.xlsx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 36424-2025 karta.png", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 36424-2025 FSC-klagomål.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 36424-2025 FSC-klagomål mail.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 36424-2025 tillsynsbegäran.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 36424-2025 tillsynsbegäran mail.docx", "A 36424-2025")</f>
-        <v/>
-      </c>
-      <c r="Z8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 36424-2025 prioriterade fågelarter.docx", "A 36424-2025")</f>
         <v/>
       </c>
     </row>
@@ -1240,7 +1240,7 @@
         <v>45957</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1331,7 +1331,7 @@
         <v>44377</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1410,14 +1410,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 5637-2024</t>
+          <t>A 48345-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45334.6115162037</v>
+        <v>44451</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1430,16 +1430,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1464,302 +1464,302 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
+          <t>Spillkråka
+Blåmossa</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 48345-2021 artfynd.xlsx", "A 48345-2021")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 48345-2021 karta.png", "A 48345-2021")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 48345-2021 FSC-klagomål.docx", "A 48345-2021")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 48345-2021 FSC-klagomål mail.docx", "A 48345-2021")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 48345-2021 tillsynsbegäran.docx", "A 48345-2021")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 48345-2021 tillsynsbegäran mail.docx", "A 48345-2021")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 48345-2021 prioriterade fågelarter.docx", "A 48345-2021")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 57116-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45979.46130787037</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 57116-2025 artfynd.xlsx", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="T12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 57116-2025 karta.png", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="V12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 57116-2025 FSC-klagomål.docx", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="W12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 57116-2025 FSC-klagomål mail.docx", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 57116-2025 tillsynsbegäran.docx", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="Y12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 57116-2025 tillsynsbegäran mail.docx", "A 57116-2025")</f>
+        <v/>
+      </c>
+      <c r="Z12">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 57116-2025 prioriterade fågelarter.docx", "A 57116-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>A 53007-2025</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>45957</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>Spillkråka
+Västlig hakmossa</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53007-2025 artfynd.xlsx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53007-2025 karta.png", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53007-2025 FSC-klagomål.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53007-2025 FSC-klagomål mail.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53007-2025 tillsynsbegäran.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53007-2025 tillsynsbegäran mail.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53007-2025 prioriterade fågelarter.docx", "A 53007-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 5637-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45334.6115162037</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46081</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KUNGÄLV</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Klofibbla
 Åkerrödtoppa</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 5637-2024 artfynd.xlsx", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 5637-2024 karta.png", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 5637-2024 FSC-klagomål.docx", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 5637-2024 FSC-klagomål mail.docx", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 5637-2024 tillsynsbegäran.docx", "A 5637-2024")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 5637-2024 tillsynsbegäran mail.docx", "A 5637-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 48345-2021</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44451</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Blåmossa</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 48345-2021 artfynd.xlsx", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 48345-2021 karta.png", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 48345-2021 FSC-klagomål.docx", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 48345-2021 FSC-klagomål mail.docx", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 48345-2021 tillsynsbegäran.docx", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 48345-2021 tillsynsbegäran mail.docx", "A 48345-2021")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 48345-2021 prioriterade fågelarter.docx", "A 48345-2021")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>A 57116-2025</t>
-        </is>
-      </c>
-      <c r="B13" s="1" t="n">
-        <v>45979.46130787037</v>
-      </c>
-      <c r="C13" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>2</v>
-      </c>
-      <c r="R13" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 57116-2025 artfynd.xlsx", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 57116-2025 karta.png", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 57116-2025 FSC-klagomål.docx", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 57116-2025 FSC-klagomål mail.docx", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 57116-2025 tillsynsbegäran.docx", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 57116-2025 tillsynsbegäran mail.docx", "A 57116-2025")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 57116-2025 prioriterade fågelarter.docx", "A 57116-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 53007-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45957</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46079</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>KUNGÄLV</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Spillkråka
-Västlig hakmossa</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 53007-2025 artfynd.xlsx", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 53007-2025 karta.png", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 53007-2025 FSC-klagomål.docx", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 53007-2025 FSC-klagomål mail.docx", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 53007-2025 tillsynsbegäran.docx", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 53007-2025 tillsynsbegäran mail.docx", "A 53007-2025")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 53007-2025 prioriterade fågelarter.docx", "A 53007-2025")</f>
         <v/>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
         <v>45215</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1851,14 +1851,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 23704-2024</t>
+          <t>A 6082-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45454.71498842593</v>
+        <v>45697</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1880,10 +1880,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1898,52 +1898,56 @@
         <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Hedjohannesört</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 23704-2024 artfynd.xlsx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6082-2025 artfynd.xlsx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 23704-2024 karta.png", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6082-2025 karta.png", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 23704-2024 FSC-klagomål.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6082-2025 FSC-klagomål.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 23704-2024 FSC-klagomål mail.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6082-2025 FSC-klagomål mail.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 23704-2024 tillsynsbegäran.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6082-2025 tillsynsbegäran.docx", "A 6082-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 23704-2024 tillsynsbegäran mail.docx", "A 23704-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6082-2025 tillsynsbegäran mail.docx", "A 6082-2025")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6082-2025 prioriterade fågelarter.docx", "A 6082-2025")</f>
         <v/>
       </c>
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 45243-2025</t>
+          <t>A 33426-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45919.60089120371</v>
+        <v>44377</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1956,7 +1960,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>8.1</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
@@ -1990,45 +1994,45 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>Revlummer</t>
+          <t>Mattlummer</t>
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
         <v/>
       </c>
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 6082-2025</t>
+          <t>A 45243-2025</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>45697</v>
+        <v>45919.60089120371</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2045,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.8</v>
+        <v>8.1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
@@ -2050,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -2065,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2075,49 +2079,45 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Revlummer</t>
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 6082-2025 artfynd.xlsx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 45243-2025 artfynd.xlsx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 6082-2025 karta.png", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 45243-2025 karta.png", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 6082-2025 FSC-klagomål.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 45243-2025 FSC-klagomål.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 6082-2025 FSC-klagomål mail.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 45243-2025 FSC-klagomål mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 6082-2025 tillsynsbegäran.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 45243-2025 tillsynsbegäran.docx", "A 45243-2025")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 6082-2025 tillsynsbegäran mail.docx", "A 6082-2025")</f>
-        <v/>
-      </c>
-      <c r="Z18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 6082-2025 prioriterade fågelarter.docx", "A 6082-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 45243-2025 tillsynsbegäran mail.docx", "A 45243-2025")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 33426-2021</t>
+          <t>A 38103-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44377</v>
+        <v>45882.49244212963</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2130,7 +2130,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2154,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2164,45 +2164,49 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>Mattlummer</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 33426-2021 artfynd.xlsx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 38103-2025 artfynd.xlsx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 33426-2021 karta.png", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 38103-2025 karta.png", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 33426-2021 FSC-klagomål.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 38103-2025 FSC-klagomål.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 33426-2021 FSC-klagomål mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 38103-2025 FSC-klagomål mail.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 33426-2021 tillsynsbegäran.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 38103-2025 tillsynsbegäran.docx", "A 38103-2025")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 33426-2021 tillsynsbegäran mail.docx", "A 33426-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 38103-2025 tillsynsbegäran mail.docx", "A 38103-2025")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 38103-2025 prioriterade fågelarter.docx", "A 38103-2025")</f>
         <v/>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 38103-2025</t>
+          <t>A 23704-2024</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45882.49244212963</v>
+        <v>45454.71498842593</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2215,7 +2219,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.8</v>
+        <v>4.9</v>
       </c>
       <c r="H20" t="n">
         <v>1</v>
@@ -2224,10 +2228,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -2242,42 +2246,38 @@
         <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
         <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Hedjohannesört</t>
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 38103-2025 artfynd.xlsx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/artfynd/A 23704-2024 artfynd.xlsx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 38103-2025 karta.png", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/kartor/A 23704-2024 karta.png", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 38103-2025 FSC-klagomål.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomål/A 23704-2024 FSC-klagomål.docx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 38103-2025 FSC-klagomål mail.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/klagomålsmail/A 23704-2024 FSC-klagomål mail.docx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 38103-2025 tillsynsbegäran.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsyn/A 23704-2024 tillsynsbegäran.docx", "A 23704-2024")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 38103-2025 tillsynsbegäran mail.docx", "A 38103-2025")</f>
-        <v/>
-      </c>
-      <c r="Z20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1482/fåglar/A 38103-2025 prioriterade fågelarter.docx", "A 38103-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1482/tillsynsmail/A 23704-2024 tillsynsbegäran mail.docx", "A 23704-2024")</f>
         <v/>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
         <v>44425</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2348,7 +2348,7 @@
         <v>44691</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2405,7 +2405,7 @@
         <v>44691</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2462,7 +2462,7 @@
         <v>44450.66346064815</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2519,7 +2519,7 @@
         <v>44425</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2633,7 +2633,7 @@
         <v>44836</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2690,7 +2690,7 @@
         <v>44459.89270833333</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2747,7 +2747,7 @@
         <v>44459</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         <v>44760.44488425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2861,7 +2861,7 @@
         <v>44760</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2918,7 +2918,7 @@
         <v>44760</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2975,7 +2975,7 @@
         <v>44872.64650462963</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44450</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3082,14 +3082,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 8334-2023</t>
+          <t>A 50071-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44975</v>
+        <v>45215</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3146,7 +3146,7 @@
         <v>45267.54049768519</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3203,7 +3203,7 @@
         <v>45324.36422453704</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3253,14 +3253,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 50071-2023</t>
+          <t>A 30170-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45215</v>
+        <v>44757</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3273,7 +3273,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3310,14 +3310,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 30170-2022</t>
+          <t>A 13880-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44757</v>
+        <v>45391.59994212963</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3367,14 +3367,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 26812-2024</t>
+          <t>A 1995-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45470.54344907407</v>
+        <v>45308</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3387,7 +3387,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3424,14 +3424,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 13529-2024</t>
+          <t>A 45990-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45387.84504629629</v>
+        <v>44846</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3444,7 +3444,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3481,14 +3481,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 13880-2024</t>
+          <t>A 21899-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45391.59994212963</v>
+        <v>44322</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3538,14 +3538,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 1995-2024</t>
+          <t>A 41765-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45308</v>
+        <v>44425</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3595,14 +3595,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 21899-2021</t>
+          <t>A 43520-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44322</v>
+        <v>44837.37417824074</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3652,14 +3652,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 45990-2022</t>
+          <t>A 29223-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44846</v>
+        <v>45482.81978009259</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.3</v>
+        <v>5.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3709,14 +3709,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 55830-2024</t>
+          <t>A 17922-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45623.48478009259</v>
+        <v>45758.90710648148</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3729,7 +3729,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>5.1</v>
+        <v>0.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3766,14 +3766,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 4262-2024</t>
+          <t>A 61417-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45324.50902777778</v>
+        <v>44916.35082175926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>14</v>
+        <v>3.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3823,14 +3823,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 41765-2021</t>
+          <t>A 32272-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44425</v>
+        <v>45120.35368055556</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3843,7 +3843,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3880,14 +3880,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10810-2023</t>
+          <t>A 32847-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44989.75795138889</v>
+        <v>45124.61965277778</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3900,7 +3900,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.4</v>
+        <v>4.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3937,14 +3937,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 661-2025</t>
+          <t>A 8334-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45664.68572916667</v>
+        <v>44975</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3957,7 +3957,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3994,14 +3994,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 62128-2021</t>
+          <t>A 40951-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44502</v>
+        <v>45897.66342592592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4014,7 +4014,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4051,14 +4051,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 43520-2022</t>
+          <t>A 25135-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44837.37417824074</v>
+        <v>45798</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4108,14 +4108,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 21240-2023</t>
+          <t>A 32392-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45058</v>
+        <v>45837.9102199074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4128,7 +4128,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4165,14 +4165,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 29223-2024</t>
+          <t>A 32391-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45482.81978009259</v>
+        <v>45837.90662037037</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.6</v>
+        <v>2.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4222,14 +4222,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 18851-2024</t>
+          <t>A 33493-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45426.69</v>
+        <v>44377</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4279,14 +4279,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 21389-2023</t>
+          <t>A 55830-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45063</v>
+        <v>45623.48478009259</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4336,14 +4336,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 44176-2023</t>
+          <t>A 34250-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45188</v>
+        <v>45844</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>7.1</v>
+        <v>1.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4393,14 +4393,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 33244-2021</t>
+          <t>A 49985-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44377</v>
+        <v>45215</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4413,7 +4413,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4450,14 +4450,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 23457-2024</t>
+          <t>A 4262-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45453.65128472223</v>
+        <v>45324.50902777778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4470,7 +4470,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>5.1</v>
+        <v>14</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4507,14 +4507,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 39714-2024</t>
+          <t>A 34244-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45552.60074074074</v>
+        <v>45844</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4527,7 +4527,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4564,14 +4564,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 18852-2024</t>
+          <t>A 25624-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45426.69550925926</v>
+        <v>45803.57885416667</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4584,7 +4584,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4621,14 +4621,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 51724-2023</t>
+          <t>A 36055-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45222</v>
+        <v>45866</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4678,14 +4678,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 27463-2024</t>
+          <t>A 45124-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45474.45266203704</v>
+        <v>45919.43206018519</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4698,7 +4698,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4735,14 +4735,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 5631-2024</t>
+          <t>A 661-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45334.61013888889</v>
+        <v>45664.68572916667</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4755,7 +4755,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4792,14 +4792,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 17922-2025</t>
+          <t>A 6096-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45758.90710648148</v>
+        <v>45697</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4812,7 +4812,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4849,14 +4849,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 10655-2022</t>
+          <t>A 41442-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44624</v>
+        <v>45869</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4869,7 +4869,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>13.3</v>
+        <v>1.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4906,14 +4906,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 17451-2025</t>
+          <t>A 46588-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45757.44825231482</v>
+        <v>45926.39152777778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4963,14 +4963,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 17455-2025</t>
+          <t>A 47569-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45757.45109953704</v>
+        <v>45931.39331018519</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4983,7 +4983,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5020,14 +5020,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 21579-2025</t>
+          <t>A 37443-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45782.91234953704</v>
+        <v>45877.54152777778</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5039,8 +5039,13 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5077,14 +5082,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 24461-2023</t>
+          <t>A 47564-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45082</v>
+        <v>45931.38982638889</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5097,7 +5102,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5134,14 +5139,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 143-2023</t>
+          <t>A 33244-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44928.53378472223</v>
+        <v>44377</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5154,7 +5159,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5191,14 +5196,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 19531-2023</t>
+          <t>A 24461-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45050.54896990741</v>
+        <v>45082</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5211,7 +5216,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5248,14 +5253,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 4263-2024</t>
+          <t>A 143-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45324.51049768519</v>
+        <v>44928.53378472223</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5268,7 +5273,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5305,14 +5310,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 63319-2021</t>
+          <t>A 52932-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44508.45226851852</v>
+        <v>45957.62373842593</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5325,7 +5330,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5362,14 +5367,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 40951-2025</t>
+          <t>A 63319-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45897.66342592592</v>
+        <v>44508.45226851852</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5382,7 +5387,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5419,14 +5424,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 10679-2025</t>
+          <t>A 7505-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45721.89462962963</v>
+        <v>45347.93181712963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5439,7 +5444,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5476,14 +5481,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 8943-2025</t>
+          <t>A 13529-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45713.45105324074</v>
+        <v>45387.84504629629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5496,7 +5501,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5533,14 +5538,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 11237-2025</t>
+          <t>A 56394-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45726.36668981481</v>
+        <v>45974.74313657408</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5553,7 +5558,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5590,14 +5595,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 15078-2025</t>
+          <t>A 58408-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45743.84284722222</v>
+        <v>45985.56969907408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5610,7 +5615,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.8</v>
+        <v>8.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5647,14 +5652,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 10677-2025</t>
+          <t>A 27463-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45721.89055555555</v>
+        <v>45474.45266203704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5667,7 +5672,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>7.4</v>
+        <v>1.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5704,14 +5709,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 74285-2021</t>
+          <t>A 10655-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44558</v>
+        <v>44624</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5724,7 +5729,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.1</v>
+        <v>13.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5761,14 +5766,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 7505-2024</t>
+          <t>A 17451-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45347.93181712963</v>
+        <v>45757.44825231482</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5781,7 +5786,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5818,14 +5823,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 45124-2025</t>
+          <t>A 17455-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45919.43206018519</v>
+        <v>45757.45109953704</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5838,7 +5843,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.7</v>
+        <v>2.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5875,14 +5880,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 5705-2025</t>
+          <t>A 19531-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45694</v>
+        <v>45050.54896990741</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5895,7 +5900,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5932,14 +5937,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 61417-2022</t>
+          <t>A 4263-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44916.35082175926</v>
+        <v>45324.51049768519</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5952,7 +5957,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5989,14 +5994,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 46588-2025</t>
+          <t>A 4673-2026</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45926.39152777778</v>
+        <v>46048.42462962963</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6009,7 +6014,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6046,14 +6051,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 32272-2023</t>
+          <t>A 5705-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45120.35368055556</v>
+        <v>45694</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6066,7 +6071,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.9</v>
+        <v>1.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6103,14 +6108,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 32847-2023</t>
+          <t>A 62979-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45124.61965277778</v>
+        <v>45271</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6123,7 +6128,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.7</v>
+        <v>0.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6160,14 +6165,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 47569-2025</t>
+          <t>A 5655-2026</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45931.39331018519</v>
+        <v>46051.44604166667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6180,7 +6185,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6217,14 +6222,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 47564-2025</t>
+          <t>A 6946-2026</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45931.38982638889</v>
+        <v>46057</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6237,7 +6242,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6274,14 +6279,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 62979-2023</t>
+          <t>A 16538-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45271</v>
+        <v>45751.66126157407</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6331,14 +6336,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 16538-2025</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45751.66126157407</v>
+        <v>46056</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6351,7 +6356,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6388,14 +6393,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 29801-2022</t>
+          <t>A 6954-2026</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44755.70518518519</v>
+        <v>46056</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6408,7 +6413,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.8</v>
+        <v>0.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6445,14 +6450,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 49981-2023</t>
+          <t>A 34366-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45215</v>
+        <v>44792</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6465,7 +6470,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6502,14 +6507,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 25135-2025</t>
+          <t>A 29801-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45798</v>
+        <v>44755.70518518519</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6522,7 +6527,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.1</v>
+        <v>4.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6559,14 +6564,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 32392-2025</t>
+          <t>A 49981-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45837.9102199074</v>
+        <v>45215</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6579,7 +6584,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6616,14 +6621,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 32391-2025</t>
+          <t>A 71835-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45837.90662037037</v>
+        <v>44543.62230324074</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6636,7 +6641,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6673,14 +6678,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 52932-2025</t>
+          <t>A 43207-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45957.62373842593</v>
+        <v>45910.45111111111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6693,7 +6698,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6730,14 +6735,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 33493-2021</t>
+          <t>A 21883-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44377</v>
+        <v>44322</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6750,7 +6755,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6787,14 +6792,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 34250-2025</t>
+          <t>A 56782-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45844</v>
+        <v>44894.39475694444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6807,7 +6812,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6844,14 +6849,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 49985-2023</t>
+          <t>A 26812-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45215</v>
+        <v>45470.54344907407</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6864,7 +6869,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>8.199999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6901,14 +6906,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 71835-2021</t>
+          <t>A 10810-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44543.62230324074</v>
+        <v>44989.75795138889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6921,7 +6926,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>7.5</v>
+        <v>0.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6958,14 +6963,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 34244-2025</t>
+          <t>A 62128-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45844</v>
+        <v>44502</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6978,7 +6983,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7015,14 +7020,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 25624-2025</t>
+          <t>A 21240-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45803.57885416667</v>
+        <v>45058</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7035,7 +7040,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7072,14 +7077,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 56394-2025</t>
+          <t>A 18851-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45974.74313657408</v>
+        <v>45426.69</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7092,7 +7097,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7129,14 +7134,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 21883-2021</t>
+          <t>A 21389-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44322</v>
+        <v>45063</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7149,7 +7154,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.7</v>
+        <v>3.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7186,14 +7191,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 36055-2025</t>
+          <t>A 44176-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45866</v>
+        <v>45188</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7206,7 +7211,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.8</v>
+        <v>7.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7243,14 +7248,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 6096-2025</t>
+          <t>A 23457-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45697</v>
+        <v>45453.65128472223</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7263,7 +7268,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>8.699999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7300,14 +7305,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 41442-2025</t>
+          <t>A 39714-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45869</v>
+        <v>45552.60074074074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7320,7 +7325,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7357,14 +7362,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 58408-2025</t>
+          <t>A 18852-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45985.56969907408</v>
+        <v>45426.69550925926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7377,7 +7382,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>8.1</v>
+        <v>2.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7414,14 +7419,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 37443-2025</t>
+          <t>A 51724-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45877.54152777778</v>
+        <v>45222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7433,13 +7438,8 @@
           <t>KUNGÄLV</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7476,14 +7476,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 56782-2022</t>
+          <t>A 5631-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44894.39475694444</v>
+        <v>45334.61013888889</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7533,14 +7533,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 4673-2026</t>
+          <t>A 21579-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>46048.42462962963</v>
+        <v>45782.91234953704</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>8.199999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7590,14 +7590,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 5655-2026</t>
+          <t>A 10679-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>46051.44604166667</v>
+        <v>45721.89462962963</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7647,14 +7647,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 6946-2026</t>
+          <t>A 8943-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46057</v>
+        <v>45713.45105324074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7704,14 +7704,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 11237-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>46056</v>
+        <v>45726.36668981481</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7724,7 +7724,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7761,14 +7761,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 6954-2026</t>
+          <t>A 15078-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>46056</v>
+        <v>45743.84284722222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7781,7 +7781,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7818,14 +7818,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 34366-2022</t>
+          <t>A 10677-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44792</v>
+        <v>45721.89055555555</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7838,7 +7838,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.5</v>
+        <v>7.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7875,14 +7875,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 43207-2025</t>
+          <t>A 74285-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45910.45111111111</v>
+        <v>44558</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7895,7 +7895,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
